--- a/Qhta.OpenXmlTools/SettingsStrings.xlsx
+++ b/Qhta.OpenXmlTools/SettingsStrings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.OpenXmlTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2C38-E366-4FA8-BC23-C502CD3CC773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A34097-05A0-4596-B9C7-7997C702F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,9 +863,6 @@
     <t>Zapisywanie czcionek podzbioru</t>
   </si>
   <si>
-    <t>Zapisywanie tylko danych xml</t>
-  </si>
-  <si>
     <t>Biblioteka schematów</t>
   </si>
   <si>
@@ -1388,8 +1385,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications shall embed common system fonts when they are in use and font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). </t>
+    <t>Specifies that applications shall embed the fonts in use in this document when it is saved. These fonts shall be embedded subject to the algorithm specified in §17.8.1.</t>
+  </si>
+  <si>
+    <t>Specifies the endnote properties for the current document. Each of these properties are stored as a child element within the endnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide endnotePr element (§17.11.5).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies whether sections in this document shall have different headers and footers for even and odd pages (an odd page header/footer and an even page header/footer).&lt;p/&gt;If the val attribute is set to </t>
     </r>
     <r>
       <rPr>
@@ -1399,27 +1402,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Common system fonts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refer to a set of fonts which are typically always present on a machine, and are not defined by /IEC 29500.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies that applications shall embed the fonts in use in this document when it is saved. These fonts shall be embedded subject to the algorithm specified in §17.8.1.</t>
-  </si>
-  <si>
-    <t>Specifies the endnote properties for the current document. Each of these properties are stored as a child element within the endnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide endnotePr element (§17.11.5).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies whether sections in this document shall have different headers and footers for even and odd pages (an odd page header/footer and an even page header/footer).&lt;p/&gt;If the val attribute is set to </t>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, then each section in the document shall use an odd page header for all odd numbered pages in the section, and an even page header for all even numbered pages in the section (counting each page in the section starting from one, regardless of the page numbering settings for the section). If the val attribute is set to </t>
     </r>
     <r>
       <rPr>
@@ -1429,16 +1421,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, then each section in the document shall use an odd page header for all odd numbered pages in the section, and an even page header for all even numbered pages in the section (counting each page in the section starting from one, regardless of the page numbering settings for the section). If the val attribute is set to </t>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, then all pages in a section shall use the odd page header.&lt;p/&gt;This setting does not affect the presence of a first page header on each section, which is specified using the titlePg element (§17.10.6). If a first page header is specified, then all subsequent pages shall have this setting applied, including the first page in the odd/even page count.&lt;p/&gt;If this element is set to </t>
     </r>
     <r>
       <rPr>
@@ -1457,7 +1449,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, then all pages in a section shall use the odd page header.&lt;p/&gt;This setting does not affect the presence of a first page header on each section, which is specified using the titlePg element (§17.10.6). If a first page header is specified, then all subsequent pages shall have this setting applied, including the first page in the odd/even page count.&lt;p/&gt;If this element is set to </t>
+      <t xml:space="preserve"> and an even page header is specified , then it shall be ignored and only the odd page header shall be displayed. Conversely, if this element is set to true and either header type is omitted for a given section, then a blank header shall be created as needed (another header type shall not be used in its place).</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies the footnote properties for this document. Each property is stored as a unique element within the footnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide footnotePr element (§17.11.11).</t>
+  </si>
+  <si>
+    <t>Specifies that the document was last saved while the placeholder text of all structured document tags in this document were being edited. This means that the placeholder text currently displayed in all structured document tags which are displaying the showingPlcHdr element (§17.5.2.39) shall be committed to the corresponding glossary document entry as specified using the docPart element (§17.12.5) when this document is opened, in order to ensure that the most recent placeholder text is stored in the glossary document entry. If the current placeholder text cannot be saved as a glossary document entry, then it should be modified as needed before saving.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies that a given WordprocessingML document’s gutter shall be positioned at the top of the document’s pages when the document is displayed. A </t>
     </r>
     <r>
       <rPr>
@@ -1467,6 +1470,212 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>gutter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the white space formed by the inner margins of two pages facing one another; such as the white space between the text on pages of a book when the book is opened.&lt;p/&gt;If this element is omitted, then the gutter shall not be positioned at the top of the page. If the mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13), or printTwoOnOne (§17.15.1.64) elements are used within a given document, the gutterAtTop element shall not be used. Rather, the gutter shall be positioned automatically as necessary to enable the printing and page layout capabilities of these settings.</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible grammatical error using the proofErr element (§17.13.8.1) or via the application's own grammar engine.</t>
+  </si>
+  <si>
+    <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible spelling error using the proofErr element (§17.13.8.1) or via the application's own spelling engine.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies the hyphenation zone which shall be used when automatically or manually hyphenating the contents of this document. The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>hyphenation zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the amount of whitespace which can be left at the end of a line (or added to justified lines) before hyphenation should be attempted on the next word in the document (in order to reduce the amount of whitespace on the line). A smaller hyphenation zone should reduce the raggedness of the right edge of a given document's body text, as more words is hyphenated. Conversely, a larger hyphenation zone should increase the raggedness of the right edge of a given document's text, as fewer words is hyphenated.&lt;p/&gt;If this element is omitted, then a default hyphenation zone of 360 twentieths of a point (0.25") shall be applied when performing hyphenation on this document.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies that applications should ignore all text content which is not contained within a leaf custom XML markup element when validating the contents of the custom XML markup in this document against one or more attached custom XML schema(s). A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>leaf element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a custom XML element which has no child custom XML elements (it is a leaf in the custom XML tree).</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies that styles in the given document shall be updated to match the styles in the attached template specified using the attachedTemplate element (§17.15.1.6) when the document is opened by a hosting application. This setting enables the styles contained in documents with attached templates to stay synchronized with the styles used in the attached template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies all of the mail merge information for a document that has been connected to an external data source as part of a mail merge operation.&lt;p/&gt;The document which contains this mail merge data can be of one of two types:&lt;p/&gt;• A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>source document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, the document which contains all of the information for the mail merge, and is used in conjunction with an application to connect to an external data source and create one document for each record in that data source.&lt;p/&gt;• A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>merged document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, a document which contains all of the information for the mail merge as well as a reference to a single specific record which shall be used to populate the values of all of the merge fields in that document.&lt;p/&gt;The information in this element shall contain all data needed to connect to a data source and populate any merge fields in the document with data from that data source.</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies the document-level properties for all math in the document.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies that punctuation characters shall not be kerned in the current document when kerning is enabled on a run using the kern element (§17.3.2.19). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kerning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> refers to a process by which a hosting application shall reduce the spacing of adjacent characters and/or punctuation to improve the visual appearance of text. Well kerned text has a similar amount of blank space between each pair of characters and/or each set of a character and punctuation symbol. When kerning is enabled, Latin text shall always be kerned, and this option shall control whether punctuation characters are also kerned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies a unique identifier for a set of documents derived from a common source. The possible values for this attribute are defined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ST_Guid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> simple type</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies whether two pages should be printed on one sheet of paper when this document is printed. Specifically, this element specifies that each page displayed for the contents in a given WordprocessingML document should be the page size specified in the section settings divided in half with two top margins originating from the bisector of the page, and bottom margins instantiated at the top and bottom of each page.</t>
+  </si>
+  <si>
+    <t>Specifies that the date and time information shall be removed from all annotations which are present in the current document when it is saved. Annotations store this information in the date attribute on the annotation's XML element.</t>
+  </si>
+  <si>
+    <t>Specifies which forms of annotations shall be visible for a WordprocessingML document when it is displayed. This setting shall not affect whether annotations are added or persisted, it shall only affect the display of the annotations which exist in the document's contents (persisted or in memory).</t>
+  </si>
+  <si>
+    <t>Specifies if a document's Thumbnail part should be generated for the contents of the first page of this document when saved by application which support document thumbnail generation.&lt;p/&gt;If this element is omitted, then applications can choose to save a thumbnail, however, that behavior is not required. If this element is specified, a thumbnail shall be produced if that functionality is supported.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies that applications shall subset fonts when font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subsetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a mechanism by which only the glyphs used in the contents of this WordprocessingML document are stored in an embedded font, in order to prevent the file from becoming unnecessarily large from the use of a small number of glyphs from a large embedded font.&lt;p/&gt;If this element is omitted, then the set of fonts should not be subsetted in the current document when font embedded is turned on. If the embedTrueTypeFonts element is omitted or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>false</t>
     </r>
     <r>
@@ -1476,18 +1685,36 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> and an even page header is specified , then it shall be ignored and only the odd page header shall be displayed. Conversely, if this element is set to true and either header type is omitted for a given section, then a blank header shall be created as needed (another header type shall not be used in its place).</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the footnote properties for this document. Each property is stored as a unique element within the footnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide footnotePr element (§17.11.11).</t>
-  </si>
-  <si>
-    <t>Specifies that the document was last saved while the placeholder text of all structured document tags in this document were being edited. This means that the placeholder text currently displayed in all structured document tags which are displaying the showingPlcHdr element (§17.5.2.39) shall be committed to the corresponding glossary document entry as specified using the docPart element (§17.12.5) when this document is opened, in order to ensure that the most recent placeholder text is stored in the glossary document entry. If the current placeholder text cannot be saved as a glossary document entry, then it should be modified as needed before saving.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that a given WordprocessingML document’s gutter shall be positioned at the top of the document’s pages when the document is displayed. A </t>
+      <t>, then this setting has no effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies the set of XML namespaces which have been associated with the contents of the custom XML markup within the current Office Open XML document. Each unique namespace which is referenced within the document can be referenced within this element by a single schema element, regardless of the number of constituent XML schemas which comprise that namespace.</t>
+  </si>
+  <si>
+    <t>Specifies that an e-mail message header shall be displayed when this document is opened, if an e-mail header is supported by the application opening the file.</t>
+  </si>
+  <si>
+    <t>Specifies that some visual indicator shall be provided for the start and end locations of custom XML markup present in this document, if any.</t>
+  </si>
+  <si>
+    <t>Specifies that the strict set of Kinsoku rules shall be applied to Japanese text in this document when the kinsoku element (§17.3.1.16) is applied to that text. The resulting line breaking rules are provided on the kinsoku element.</t>
+  </si>
+  <si>
+    <t>Specifies whether applications shall prevent the replacement of the complete set of styles stored in the Styles part when editing this document. This setting should not preclude the editing or removal of individual styles, instead, it should only prevent the removal and replacement of the entire styles part in a single operation (either through a user interface or a programmatic operation).</t>
+  </si>
+  <si>
+    <t>Specifies whether applications shall prevent the modification of the document's theme information stored in the Theme part when editing this document. This setting should not preclude the use of the theme information, instead, it should only prevent the modification of the theme part in a single operation (either through a user interface or a programmatic operation).</t>
+  </si>
+  <si>
+    <t>Specifies a sorting which should be applied to the list of styles in this document if the styles are displayed in a user interface.</t>
+  </si>
+  <si>
+    <t>Specifies the language which shall be used to determine the appropriate theme fonts in the document's Theme part which map to the major/minor theme fonts. Specifically, the bidi attribute is used to determine the theme font applied to complex script text, the eastAsia attribute is used to determine the theme font applied to East Asian text, and the val attribute is used to determine the theme font applied to all other text.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies that applications shall track revisions made to the WordprocessingML document. </t>
     </r>
     <r>
       <rPr>
@@ -1497,30 +1724,27 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>gutter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the white space formed by the inner margins of two pages facing one another; such as the white space between the text on pages of a book when the book is opened.&lt;p/&gt;If this element is omitted, then the gutter shall not be positioned at the top of the page. If the mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13), or printTwoOnOne (§17.15.1.64) elements are used within a given document, the gutterAtTop element shall not be used. Rather, the gutter shall be positioned automatically as necessary to enable the printing and page layout capabilities of these settings.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the header and footer of a WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible grammatical error using the proofErr element (§17.13.8.1) or via the application's own grammar engine.</t>
-  </si>
-  <si>
-    <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible spelling error using the proofErr element (§17.13.8.1) or via the application's own spelling engine.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the hyphenation zone which shall be used when automatically or manually hyphenating the contents of this document. The </t>
+      <t>Revisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are changes to a WordprocessingML document which are recorded such that they can be viewed independently, accepted or removed, and reverted if needed. When revisions are tracked, the resulting WordprocessingML markup in the Revisions subclause of this document describes the necessary syntax.</t>
+    </r>
+  </si>
+  <si>
+    <t>Disables features incompatible with earlier word processing formats.</t>
+  </si>
+  <si>
+    <t>Specifies the manner in which the contents of this document should be displayed when opened by an application.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies the write protection settings which have been applied to a WordprocessingML document. </t>
     </r>
     <r>
       <rPr>
@@ -1530,21 +1754,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>hyphenation zone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the amount of whitespace which can be left at the end of a line (or added to justified lines) before hyphenation should be attempted on the next word in the document (in order to reduce the amount of whitespace on the line). A smaller hyphenation zone should reduce the raggedness of the right edge of a given document's body text, as more words is hyphenated. Conversely, a larger hyphenation zone should increase the raggedness of the right edge of a given document's text, as fewer words is hyphenated.&lt;p/&gt;If this element is omitted, then a default hyphenation zone of 360 twentieths of a point (0.25") shall be applied when performing hyphenation on this document.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications should ignore all text content which is not contained within a leaf custom XML markup element when validating the contents of the custom XML markup in this document against one or more attached custom XML schema(s). A </t>
+      <t>Write protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> refers to a mode in which the document's contents cannot be edited, and the document cannot be resaved using the same file name. This setting is independent of the documentProtection (§17.15.1.29) element, but like document protection, this setting is not intended as a security feature and can be ignored.&lt;p/&gt;When present, the write protection shall result in one of two write protection behaviors:&lt;p/&gt;• If the password attribute is present, or both attributes are omitted, then the application shall prompt for a password to exit write protection. If the supplied password does not match the hash value in this attribute, then write protection shall be enabled.&lt;p/&gt;• If only the recommended attribute is present, the application should provide user interface recommending that the user open this document in write protected state. If the user chooses to do so, the document shall be write protected, otherwise, it shall be opened fully editable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies the magnification level which should be applied to a document when it is displayed by an application. The zoom level is specified with the use of two attributes stored on this element:&lt;p/&gt;• val, which stores the type of zoom applied to the document&lt;p/&gt;• percent, which stores the zoom percentage to be used when rendering the document&lt;p/&gt;If both attributes are present, then the percent attribute shall be treated as a 'cached' value and only used when the value </t>
     </r>
     <r>
       <rPr>
@@ -1554,24 +1778,36 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>leaf element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a custom XML element which has no child custom XML elements (it is a leaf in the custom XML tree).</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies that styles in the given document shall be updated to match the styles in the attached template specified using the attachedTemplate element (§17.15.1.6) when the document is opened by a hosting application. This setting enables the styles contained in documents with attached templates to stay synchronized with the styles used in the attached template.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies all of the mail merge information for a document that has been connected to an external data source as part of a mail merge operation.&lt;p/&gt;The document which contains this mail merge data can be of one of two types:&lt;p/&gt;• A </t>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is specified for the val attribute.&lt;p/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że obramowania akapitów określone za pomocą elementu pBdr (§17.3.1.24) i obramowania tabeli za pomocą elementu tblBorders (§17.4.40) powinny zostać dostosowane w celu wyrównania do zakresów obramowania strony zdefiniowanego za pomocą elementu pgBorders (§17.6.10), jeśli odstęp między tymi obramowaniami jest mniejszy lub równy 10,5 punktu (szerokość jednego znaku) lub mniejsza od obramowania strony. Obecność tego ustawienia zapewni, że między sąsiednią stroną a obramowaniem akapitu/tabeli nie będzie przerw o szerokości jednego znaku lub mniejszej, ponieważ obramowania, które są idealnie wyrównane, nie będą wyświetlane na korzyść krawędzi strony znajdującej się między nimi.</t>
+  </si>
+  <si>
+    <t>Określa, czy niestandardowy znacznik XML określony za pomocą elementu customXml, który nie ma skojarzonej przestrzeni nazw, powinien być traktowany jako błąd i przenoszony do specjalnej przestrzeni nazw błędów (na potrzeby walidacji schematu XML) po otwarciu dokumentu. Jeśli ten element jest włączony, gdy aplikacja stwierdzi, że bieżący znacznik XML znajduje się w pustej przestrzeni nazw, elementy te nie zostaną automatycznie przeniesione do przestrzeni nazw błędów.</t>
+  </si>
+  <si>
+    <t>Określa, że każdy niestandardowy element XML określony za pomocą elementu customXml w tym dokumencie zawsze powinien pokazywać jakąś formę prezentacji tekstu zastępczego w dokumencie, jeśli nie zawiera zawartości uruchamiania. Jeśli element zastępczy (§17.5.2.25) jest obecny we właściwościach niestandardowego elementu XML, oznacza to, że jest to tekst zastępczy i ten efekt nie ma żadnego wpływu. Jeśli element zastępczy zostanie pominięty, aplikacja użyje nazwy elementu do wygenerowania domyślnego tekstu zastępczego w jego miejsce.</t>
+  </si>
+  <si>
+    <t>Określa lokalizację szablonu dokumentu, który powinien być dołączony do bieżącego dokumentu WordprocessingML, jeśli jest dostępny i ma format obsługiwany przez aplikację. W szczególności atrybut val tego elementu  powinien zawierać ścieżkę do pliku powiązanego szablonu dokumentu.</t>
+  </si>
+  <si>
+    <t>Określa, czy zawartość danego dokumentu WordprocessingML powinna być automatycznie dzielona wyrazami wyrazów wyrazów przez aplikację hostującą przed jego wyświetleniem, jeśli aplikacja obsługuje tę funkcję.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, czy zawartość danego dokumentu WordprocessingML powinna być drukowana jako podpisy. </t>
     </r>
     <r>
       <rPr>
@@ -1581,16 +1817,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>source document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, the document which contains all of the information for the mail merge, and is used in conjunction with an application to connect to an external data source and create one document for each record in that data source.&lt;p/&gt;• A </t>
+      <t>Podpisy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to drukowane </t>
     </r>
     <r>
       <rPr>
@@ -1600,30 +1836,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>merged document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, a document which contains all of the information for the mail merge as well as a reference to a single specific record which shall be used to populate the values of all of the merge fields in that document.&lt;p/&gt;The information in this element shall contain all data needed to connect to a data source and populate any merge fields in the document with data from that data source.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the document-level properties for all math in the document.</t>
-  </si>
-  <si>
-    <t>Specifies the set of characters which shall be restricted from ending a line for runs of text which shall be subject to custom line breaking logic using the kinsoku element (§17.3.1.16) when the contents of the document are displayed. This constraint shall only apply to text which has been flagged in the language of this rule via the lang element (§17.3.2.20) or automatic detection methods outside the scope of /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Specifies the set of characters which shall be restricted from beginning a new line for runs of text which shall be subject to custom line breaking logic using the kinsoku element (§17.3.1.16) when the contents of the document are displayed. This constraint shall only apply to text which has been flagged in the language of this rule via the lang element (§17.3.2.20) or automatic detection methods outside the scope of /IEC 29500.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that punctuation characters shall not be kerned in the current document when kerning is enabled on a run using the kern element (§17.3.2.19). </t>
+      <t>arkusze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, które przedstawiają kilka stron dokumentu, które są składane i oprawiane innymi podpisami w celu utworzenia broszury, której zestaw można związać ze sobą, tworząc publikację przypominającą książkę. W szczególności ten element określa, że każda strona w danym dokumencie WordprocessingML powinna być zorientowana w orientacji poziomej, podzielona na pół w pionie z dwoma lewymi marginesami wychodzącymi z dwusiecznej strony i dwoma prawymi marginesami utworzonymi po lewej i prawej stronie każdej strony.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Element ten powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
     </r>
     <r>
       <rPr>
@@ -1633,6 +1860,538 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>arkusze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>arkusze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości stopki.</t>
+  </si>
+  <si>
+    <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości nagłówka.</t>
+  </si>
+  <si>
+    <t>Określa sposób zachowania właściwości punktu danych i etykiet danych na wszystkich wykresach w tym dokumencie. Znaczenie tego ustawienia jest następujące:&lt;p/&gt;True  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich odwołaniem.&lt;p/&gt;False  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich położeniem na wykresie.</t>
+  </si>
+  <si>
+    <t>Określa styl akapitu, określony za pomocą elementu style, który ma być stosowany do akapitów tworzonych automatycznie po wstawieniu tekstu do dokumentu WordprocessingML w obszarze dokumentu, z którym nie jest skojarzony żaden inny styl. Do tego stylu odwołuje się atrybut val, który przechowuje identyfikator stylu (przechowywany w atrybucie styleId w definicji stylu).</t>
+  </si>
+  <si>
+    <t>Określa kolor motywu przechowywany w części Motyw dokumentu, do której ma być odwzorowana wartość tego koloru motywu. To mapowanie umożliwia łączenie ze sobą wielu kolorów motywu.</t>
+  </si>
+  <si>
+    <t>Określa zestaw opcjonalnych opcji zgodności dla bieżącego dokumentu.</t>
+  </si>
+  <si>
+    <t>W przypadku wartości true określa, że użytkownik rozwiązywał problemy ze zmianami w momencie zapisywania dokumentu.</t>
+  </si>
+  <si>
+    <t>Określa maksymalną liczbę kolejnych wierszy tekstu, które mogą kończyć się łącznikiem podczas wyświetlania zawartości tego dokumentu. Po osiągnięciu tego limitu następujący wiersz nie może być dzielony wyrazami, niezależnie od tego, czy spełnia kryteria niezbędne do dzielenia wyrazów.</t>
+  </si>
+  <si>
+    <t>Określa styl tabeli, który ma być automatycznie stosowany do właściwości tabel dodanych do tego dokumentu przez aplikację. Należy zauważyć, że nie zmienia stylu tabeli zastosowanego do tabel, które nie odwołują się do stylu, zamiast tego automatycznie stosuje styl do tej tabeli za pośrednictwem elementu tblStyle (§17.4.63). To łącze jest tworzone przez odwołanie się do wartości atrybutu styleId stylu tabeli, który powinien być używany do formatowania nowo wstawionych tabel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa wartość, która ma być używana jako mnożnik do generowania automatycznych tabulatorów w tym dokumencie. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabulatory automatyczne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> odnoszą się do lokalizacji tabulatorów, które występują po przekroczeniu wszystkich niestandardowych tabulatorów w bieżącym akapicie.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, czy obrazy i kolory zdefiniowane w tle dokumentu za pomocą elementu tła (§17.2.1) mają być wyświetlane, gdy dokument jest wyświetlany w widoku układu wydruku, jak określono w elemencie widoku (§17.15.1.92).</t>
+  </si>
+  <si>
+    <t>Określa dowolny identyfikator dla kontekstu identyfikatorów akapitów w dokumencie. Wartości MUSZĄ być większe niż 0 i mniejsze niż 0x80000000.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa obecność zmiennych dokumentu w języku WordprocessingML. Zmienna </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>dokumentu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to lokalizacja przechowywania dowolnych danych klienta w parach nazwa/wartość, która jest utrwalana w danym dokumencie WordprocessingML.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że obrazy w tym dokumencie nie są automatycznie kompresowane podczas zapisywania dokumentu w celu zmniejszenia ogólnego rozmiaru wynikowego dokumentu WordprocessingML.</t>
+  </si>
+  <si>
+    <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół zawartości zawartej w dokumencie WordprocessingML, która jest zawarta z niestandardowym znacznikiem XML określonym za pomocą elementu customXml, gdy aplikacja stwierdzi, że bieżący znacznik XML (lub jego zawartość) narusza ograniczenia dołączonych schematów XML.</t>
+  </si>
+  <si>
+    <t>Określa, czy wyrazy składające się wyłącznie z wielkich liter mają być dzielone w danym dokumencie, gdy automatyczne dzielenie wyrazów jest określone za pomocą elementu autoHyphenation (§17.15.1.10).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, czy podpowiedź wizualna powinna być wyświetlana wokół pól formularza zawartych w dokumencie WordprocessingML określonym za pomocą </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pól FORMTEXT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FORMCHECKBOX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lub </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FORMDROPDOWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych w formatowaniu tego dokumentu WordprocessingML, gdy element trackRevisions (§17.15.1.89) jest włączony.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że lewy górny róg strony nie może być używany jako początek siatki rysunku. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Siatka rysunkowa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Jeśli ten element jest obecny, siatka powinna zaczynać się od lewej górnej krawędzi strony, a nie od zakresu tekstu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że aplikacje nie mogą weryfikować niestandardowych znaczników XML w tym dokumencie względem odpowiednich niestandardowych schematów XML, nawet jeśli te schematy są dostępne. Aplikacja powinna zachowywać się po cichu tak, jakby nie była w stanie zapewnić tej funkcji.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa odległość od lewej krawędzi strony, która ma być używana jako początek poziomych linii siatki używanych przez siatkę rysunku. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Siatka rysunkowa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (np. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien wpływać tylko na krawędź początkową pierwszej wyświetlanej poziomej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa szerokość poziomych jednostek siatki w tym dokumencie. Siatka </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>rysunku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pozioma jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa odległość od górnej krawędzi strony, która ma być używana jako początek pionowych linii siatki używanych przez siatkę rysunku. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Siatka rysunkowa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien mieć wpływ tylko na krawędź początkową pierwszej wyświetlanej pionowej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa szerokość pionowych jednostek siatki w tym dokumencie. Siatka </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>rysunku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pionowa jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że aplikacje powinny osadzać popularne czcionki systemowe, gdy są używane, a osadzanie czcionek jest włączone dla tego dokumentu za pomocą elementu embedTrueTypeFonts (§17.8.3.8). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Typowe czcionki systemowe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> odnoszą się do zestawu czcionek, które zazwyczaj są zawsze obecne na komputerze i nie są zdefiniowane w normie IEEE/IEC 29500.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że aplikacje powinny osadzać czcionki używane w tym dokumencie podczas jego zapisywania. Czcionki te są osadzane zgodnie z algorytmem określonym w §17.8.1.</t>
+  </si>
+  <si>
+    <t>Określa właściwości przypisu końcowego dla bieżącego dokumentu. Każda z tych właściwości jest przechowywana jako element podrzędny w elemencie endnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu endnotePr dla całej sekcji (§17.11.5).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, czy sekcje w tym dokumencie mają mieć różne nagłówki i stopki dla stron parzystych i nieparzystych (nagłówek/stopka strony nieparzystej i nagłówek/stopka strony parzystej).&lt;p/&gt;Jeśli atrybut val jest ustawiony na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>wartość true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, to każda sekcja w dokumencie powinna używać nieparzystego nagłówka strony dla wszystkich stron o numerach nieparzystych w sekcji i nagłówka strony parzystej dla wszystkich stron o numerach parzystych w sekcji (licząc każdą stronę w sekcji zaczynając od jednej, niezależnie od ustawień numeracji stron dla sekcji). Jeśli atrybut val jest ustawiony na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, to wszystkie strony w sekcji powinny używać nieparzystego nagłówka strony.&lt;p/&gt;To ustawienie nie ma wpływu na obecność nagłówka pierwszej strony w każdej sekcji, który jest określony za pomocą elementu titlePg (§17.10.6). Jeśli określono nagłówek pierwszej strony, to ustawienie to zostanie zastosowane na wszystkich kolejnych stronach, w tym na pierwszej stronie w liczbie stron parzystych/nieparzystych.&lt;p/&gt;Jeśli ten element jest ustawiony na </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> i określony jest nagłówek strony parzystej , to zostanie zignorowany i zostanie wyświetlony tylko nagłówek strony nieparzystej. I odwrotnie, jeśli ten element jest ustawiony na true i któryś z typów nagłówka zostanie pominięty dla danej sekcji, to w razie potrzeby zostanie utworzony pusty nagłówek (w jego miejsce nie należy używać innego typu nagłówka).</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa właściwości przypisu dolnego dla tego dokumentu. Każda właściwość jest przechowywana jako unikatowy element w elemencie footnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu footnotePr dla całej sekcji (§17.11.11).</t>
+  </si>
+  <si>
+    <t>Określa, że dokument został ostatnio zapisany w czasie, gdy edytowany był tekst zastępczy wszystkich znaczników dokumentu strukturalnego w tym dokumencie. Oznacza to, że tekst zastępczy aktualnie wyświetlany we wszystkich znacznikach dokumentu strukturalnego, w których wyświetlany jest element showingPlcHdr (§17.5.2.39), zostanie przypisany do odpowiedniego wpisu dokumentu glosariusza, jak określono za pomocą elementu docPart (§17.12.5) po otwarciu tego dokumentu, aby zapewnić, że najnowszy tekst zastępczy zostanie zapisany we wpisie dokumentu glosariusza. Jeśli bieżącego tekstu zastępczego nie można zapisać jako pozycji dokumentu glosariusza, należy go zmodyfikować zgodnie z potrzebami przed zapisaniem.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że margines na oprawę danego dokumentu WordprocessingML powinien być umieszczony u góry stron dokumentu podczas wyświetlania dokumentu. Margines </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na oprawę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to biały obszar utworzony przez wewnętrzne marginesy dwóch stron zwróconych do siebie, na przykład biały obszar między tekstem na stronach książki, gdy książka jest otwarta.&lt;p/&gt;Jeśli ten element zostanie pominięty, to margines na oprawę nie zostanie umieszczony u góry strony. Jeśli w danym dokumencie używane są elementy mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13) lub printTwoOnOne (§17.15.1.64), element gutterAtTop nie będzie używany. Zamiast tego margines na oprawę powinien być ustawiany automatycznie, jeśli jest to konieczne, aby umożliwić drukowanie i układ strony w tych ustawieniach.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd gramatyczny przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego aparatu gramatycznego aplikacji.</t>
+  </si>
+  <si>
+    <t>Określa, czy wizualna wskazówka powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd pisowni przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego silnika sprawdzania pisowni aplikacji.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa strefę dzielenia wyrazów, która ma być używana podczas automatycznego lub ręcznego dzielenia wyrazów w zawartości tego dokumentu. Strefa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>dzielenia wyrazów</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ilość białych znaków, którą można pozostawić na końcu wiersza (lub dodać do wyjustowanych wierszy) przed próbą dzielenia wyrazów w następnym słowie w dokumencie (w celu zmniejszenia ilości białych znaków w wierszu). Mniejsza strefa dzielenia wyrazów powinna zmniejszyć nierówność prawej krawędzi tekstu podstawowego danego dokumentu, ponieważ dzielenie wyrazów jest większą liczbą wyrazów. I odwrotnie, większa strefa dzielenia wyrazów powinna zwiększyć nierówność prawej krawędzi tekstu danego dokumentu, ponieważ dzieli się mniej wyrazów.&lt;p/&gt;Jeśli ten element zostanie pominięty, podczas dzielenia wyrazów w tym dokumencie zostanie zastosowana domyślna strefa dzielenia wyrazów wynosząca 360 dwudziestych punktu (0,25§).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że aplikacje powinny ignorować całą zawartość tekstową, która nie jest zawarta w niestandardowym elemencie znacznika XML liścia, podczas sprawdzania poprawności zawartości niestandardowego znacznika XML w tym dokumencie względem co najmniej jednego dołączonego niestandardowego schematu XML. Element </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>liścia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to niestandardowy element XML, który nie ma podrzędnych niestandardowych elementów XML (jest to liść w niestandardowym drzewie XML).</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, że style w danym dokumencie są aktualizowane tak, aby były zgodne ze stylami w dołączonym szablonie określonym za pomocą elementu attachedTemplate (§17.15.1.6), gdy dokument jest otwierany przez aplikację hostingową. To ustawienie umożliwia synchronizację stylów zawartych w dokumentach z dołączonymi szablonami ze stylami używanymi w dołączonym szablonie.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa wszystkie informacje dotyczące korespondencji seryjnej dla dokumentu, który został połączony z zewnętrznym źródłem danych w ramach operacji korespondencji seryjnej.&lt;p/&gt;Dokument zawierający dane korespondencji seryjnej może być jednego z dwóch typów:&lt;p/&gt;• Dokument źródłowy, czyli dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, używany w połączeniu z aplikacją do łączenia się z zewnętrznym źródłem danych i tworzenia jednego dokumentu dla każdego rekordu w tym źródle danych.&lt;p/&gt;• </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scalony dokument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, a także odniesienie do pojedynczego konkretnego rekordu, który zostanie użyty do wypełnienia wartości wszystkich pól korespondencji seryjnej w tym dokumencie.&lt;p/&gt;Informacje w tym elemencie zawierają wszystkie dane potrzebne do nawiązania połączenia ze źródłem danych i wypełnienia wszelkich pól scalanych w dokumencie danymi z tego źródła danych.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa właściwości na poziomie dokumentu dla wszystkich elementów matematycznych w dokumencie.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że znaki interpunkcyjne nie mogą być kerowane w bieżącym dokumencie, gdy kerning jest włączony w przebiegu przy użyciu elementu kern (§17.3.2.19). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>Kerning</t>
     </r>
     <r>
@@ -1642,12 +2401,12 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> refers to a process by which a hosting application shall reduce the spacing of adjacent characters and/or punctuation to improve the visual appearance of text. Well kerned text has a similar amount of blank space between each pair of characters and/or each set of a character and punctuation symbol. When kerning is enabled, Latin text shall always be kerned, and this option shall control whether punctuation characters are also kerned.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies a unique identifier for a set of documents derived from a common source. The possible values for this attribute are defined by the </t>
+      <t xml:space="preserve"> odnosi się do procesu, w którym aplikacja hostująca zmniejsza odstępy między sąsiadującymi znakami i/lub interpunkcją w celu poprawy wyglądu tekstu. Tekst o dobrym kerze ma podobną ilość spacji między każdą parą znaków i/lub każdym zestawem znaku i symbolu interpunkcyjnego. Gdy kerning jest włączony, tekst łaciński jest zawsze kerningowany, a opcja ta określa, czy kerningowane są również znaki interpunkcyjne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa unikatowy identyfikator zestawu dokumentów pochodzących ze wspólnego źródła. Możliwe wartości tego atrybutu są definiowane przez </t>
     </r>
     <r>
       <rPr>
@@ -1666,27 +2425,24 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> simple type</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies whether two pages should be printed on one sheet of paper when this document is printed. Specifically, this element specifies that each page displayed for the contents in a given WordprocessingML document should be the page size specified in the section settings divided in half with two top margins originating from the bisector of the page, and bottom margins instantiated at the top and bottom of each page.</t>
-  </si>
-  <si>
-    <t>Specifies that the date and time information shall be removed from all annotations which are present in the current document when it is saved. Annotations store this information in the date attribute on the annotation's XML element.</t>
-  </si>
-  <si>
-    <t>Specifies that hosting applications shall remove all personal information of document authors upon saving a given WordprocessingML document. The definition and extent of personal information is not defined by /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Specifies which forms of annotations shall be visible for a WordprocessingML document when it is displayed. This setting shall not affect whether annotations are added or persisted, it shall only affect the display of the annotations which exist in the document's contents (persisted or in memory).</t>
-  </si>
-  <si>
-    <t>Specifies if a document's Thumbnail part should be generated for the contents of the first page of this document when saved by application which support document thumbnail generation.&lt;p/&gt;If this element is omitted, then applications can choose to save a thumbnail, however, that behavior is not required. If this element is specified, a thumbnail shall be produced if that functionality is supported.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications shall subset fonts when font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). </t>
+      <t xml:space="preserve"> typ simple</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa, czy podczas drukowania tego dokumentu na jednym arkuszu papieru powinny być drukowane dwie strony. W szczególności ten element określa, że każda strona wyświetlana dla zawartości w danym dokumencie WordprocessingML powinna mieć rozmiar strony określony w ustawieniach sekcji podzielony na pół z dwoma górnymi marginesami pochodzącymi z dwusiecznej strony i dolnymi marginesami utworzonymi u góry i u dołu każdej strony.</t>
+  </si>
+  <si>
+    <t>Określa, że informacje o dacie i godzinie mają być usuwane ze wszystkich adnotacji, które znajdują się w bieżącym dokumencie w momencie jego zapisywania. Adnotacje przechowują te informacje w atrybucie date w elemencie XML adnotacji.</t>
+  </si>
+  <si>
+    <t>Określa, które formy adnotacji powinny być widoczne dla dokumentu WordprocessingML po jego wyświetleniu. To ustawienie nie ma wpływu na to, czy adnotacje są dodawane, czy utrwalane, ma wpływ tylko na wyświetlanie adnotacji, które istnieją w treści dokumentu (trwałe lub w pamięci).</t>
+  </si>
+  <si>
+    <t>Określa, czy część miniatury dokumentu powinna być generowana dla zawartości pierwszej strony tego dokumentu po zapisaniu przez aplikację obsługującą generowanie miniatur dokumentów.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje mogą zdecydować się na zapisanie miniatury, jednak takie zachowanie nie jest wymagane. Jeżeli ten element jest określony, tworzona jest miniatura, jeżeli ta funkcja jest obsługiwana.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że aplikacje powinny tworzyć podzbiór czcionek, gdy dla tego dokumentu jest włączone osadzanie czcionek przy użyciu elementu embedTrueTypeFonts (§17.8.3.8). </t>
     </r>
     <r>
       <rPr>
@@ -1696,16 +2452,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Subsetting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a mechanism by which only the glyphs used in the contents of this WordprocessingML document are stored in an embedded font, in order to prevent the file from becoming unnecessarily large from the use of a small number of glyphs from a large embedded font.&lt;p/&gt;If this element is omitted, then the set of fonts should not be subsetted in the current document when font embedded is turned on. If the embedTrueTypeFonts element is omitted or </t>
+      <t>Podzbiór</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to mechanizm, w którym tylko glify używane w zawartości tego dokumentu WordprocessingML są przechowywane w czcionce osadzonej, aby zapobiec niepotrzebnemu powiększaniu pliku w wyniku użycia niewielkiej liczby glifów z dużej czcionki osadzonej.&lt;p/&gt;Jeśli ten element zostanie pominięty, zestaw czcionek nie powinien być podzbiorem w bieżącym dokumencie, gdy włączona jest czcionka osadzona. Jeśli element embedTrueTypeFonts zostanie pominięty lub </t>
     </r>
     <r>
       <rPr>
@@ -1715,45 +2471,45 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, then this setting has no effect.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the set of XML namespaces which have been associated with the contents of the custom XML markup within the current Office Open XML document. Each unique namespace which is referenced within the document can be referenced within this element by a single schema element, regardless of the number of constituent XML schemas which comprise that namespace.</t>
-  </si>
-  <si>
-    <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the body (the main document story, comments, footnotes, and endnotes) of the WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Specifies that an e-mail message header shall be displayed when this document is opened, if an e-mail header is supported by the application opening the file.</t>
-  </si>
-  <si>
-    <t>Specifies that some visual indicator shall be provided for the start and end locations of custom XML markup present in this document, if any.</t>
-  </si>
-  <si>
-    <t>Specifies that the strict set of Kinsoku rules shall be applied to Japanese text in this document when the kinsoku element (§17.3.1.16) is applied to that text. The resulting line breaking rules are provided on the kinsoku element.</t>
-  </si>
-  <si>
-    <t>Specifies whether applications shall prevent the replacement of the complete set of styles stored in the Styles part when editing this document. This setting should not preclude the editing or removal of individual styles, instead, it should only prevent the removal and replacement of the entire styles part in a single operation (either through a user interface or a programmatic operation).</t>
-  </si>
-  <si>
-    <t>Specifies whether applications shall prevent the modification of the document's theme information stored in the Theme part when editing this document. This setting should not preclude the use of the theme information, instead, it should only prevent the modification of the theme part in a single operation (either through a user interface or a programmatic operation).</t>
-  </si>
-  <si>
-    <t>Specifies a sorting which should be applied to the list of styles in this document if the styles are displayed in a user interface.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the size for automatic document summaries performed on the content of a WordprocessingML document. An </t>
+      <t>będzie fałszywy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, to ustawienie nie będzie miało żadnego wpływu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Określa zestaw przestrzeni nazw XML, które zostały skojarzone z zawartością niestandardowych znaczników XML w bieżącym dokumencie Office Open XML. Do każdej unikatowej przestrzeni nazw, do której odwołuje się dokument, można odwoływać się w tym elemencie za pomocą pojedynczego elementu schematu, niezależnie od liczby składowych schematów XML, które składają się na tę przestrzeń nazw.</t>
+  </si>
+  <si>
+    <t>Określa, że nagłówek wiadomości e-mail ma być wyświetlany po otwarciu tego dokumentu, jeśli nagłówek wiadomości e-mail jest obsługiwany przez aplikację otwierającą plik.</t>
+  </si>
+  <si>
+    <t>Określa, że należy zapewnić pewien wskaźnik wizualny dla lokalizacji początkowej i końcowej niestandardowych znaczników XML obecnych w tym dokumencie, jeśli takie istnieją.</t>
+  </si>
+  <si>
+    <t>Określa, że ścisły zestaw reguł kinsoku ma być stosowany do tekstu japońskiego w tym dokumencie, gdy element kinsoku (§17.3.1.16) jest stosowany do tego tekstu. Wynikowe reguły łamania wierszy są dostępne w elemencie kinsoku.</t>
+  </si>
+  <si>
+    <t>Określa, czy aplikacje powinny uniemożliwiać zastąpienie całego zestawu stylów przechowywanych w części Style podczas edycji tego dokumentu. To ustawienie nie powinno wykluczać edycji lub usuwania poszczególnych stylów, a jedynie uniemożliwiać usuwanie i zastępowanie całej części stylów w jednej operacji (za pomocą interfejsu użytkownika lub operacji programowej).</t>
+  </si>
+  <si>
+    <t>Określa, czy aplikacje mają uniemożliwiać modyfikację informacji o motywie dokumentu przechowywanych w części Motyw podczas edycji tego dokumentu. To ustawienie nie powinno wykluczać korzystania z informacji o motywie, zamiast tego powinno uniemożliwiać modyfikację części motywu w pojedynczej operacji (za pomocą interfejsu użytkownika lub operacji programowej).</t>
+  </si>
+  <si>
+    <t>Określa sortowanie, które powinno być stosowane do listy stylów w tym dokumencie, jeśli style są wyświetlane w interfejsie użytkownika.</t>
+  </si>
+  <si>
+    <t>Określa język, który ma być używany do określania odpowiednich czcionek motywu w części Motyw dokumentu, które są odwzorowywane na czcionki motywu głównego/pomocniczego. W szczególności atrybut bidi służy do określania czcionki motywu zastosowanej do złożonego tekstu skryptu, atrybut eastAsia służy do określania czcionki motywu zastosowanej do tekstu wschodnioazjatyckiego, a atrybut val służy do określania czcionki motywu zastosowanej do całego innego tekstu.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa, że aplikacje powinny śledzić poprawki wprowadzone w dokumencie WordprocessingML. </t>
     </r>
     <r>
       <rPr>
@@ -1763,24 +2519,27 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>automatic document summary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a subset of text contained in a document deemed by the hosting application to summarize the content of the WordprocessingML document. The val attribute of this element specifies the size of an automatic document summary to be performed on a given WordprocessingML document as a percentage of the total size of the given WordprocessingML document. Performing an automatic document summary is a runtime operation outside the scope of /IEC 29500.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies the language which shall be used to determine the appropriate theme fonts in the document's Theme part which map to the major/minor theme fonts. Specifically, the bidi attribute is used to determine the theme font applied to complex script text, the eastAsia attribute is used to determine the theme font applied to East Asian text, and the val attribute is used to determine the theme font applied to all other text.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications shall track revisions made to the WordprocessingML document. </t>
+      <t>Poprawki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to zmiany w dokumencie WordprocessingML, które są rejestrowane w taki sposób, że można je przeglądać niezależnie, akceptować lub usuwać i w razie potrzeby przywracać. Gdy poprawki są śledzone, wynikowy znacznik WordprocessingML w podpunkcie Wersje tego dokumentu opisuje niezbędną składnię.</t>
+    </r>
+  </si>
+  <si>
+    <t>Wyłącza funkcje niezgodne z wcześniejszymi formatami edytora tekstu.</t>
+  </si>
+  <si>
+    <t>Określa sposób, w jaki zawartość tego dokumentu powinna być wyświetlana po otwarciu przez aplikację.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa ustawienia ochrony przed zapisem, które zostały zastosowane do dokumentu WordprocessingML. </t>
     </r>
     <r>
       <rPr>
@@ -1790,27 +2549,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Revisions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> are changes to a WordprocessingML document which are recorded such that they can be viewed independently, accepted or removed, and reverted if needed. When revisions are tracked, the resulting WordprocessingML markup in the Revisions subclause of this document describes the necessary syntax.</t>
-    </r>
-  </si>
-  <si>
-    <t>Disables features incompatible with earlier word processing formats.</t>
-  </si>
-  <si>
-    <t>Specifies the manner in which the contents of this document should be displayed when opened by an application.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the write protection settings which have been applied to a WordprocessingML document. </t>
+      <t xml:space="preserve">Ochrona przed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> zapisem odnosi się do trybu, w którym nie można edytować zawartości dokumentu, a dokument nie może być ponownie zapisany przy użyciu tej samej nazwy pliku. To ustawienie jest niezależne od elementu documentProtection (§17.15.1.29), ale podobnie jak w przypadku ochrony dokumentów, to ustawienie nie jest przeznaczone jako funkcja zabezpieczeń i można je zignorować.&lt;p/&gt;Jeśli jest obecna, ochrona przed zapisem powinna powodować jedno z dwóch zachowań ochrony przed zapisem:&lt;p/&gt;• Jeśli atrybut hasła jest obecny lub oba atrybuty są pominięte, aplikacja poprosi o podanie hasła, aby zakończyć ochronę przed zapisem. Jeśli podane hasło nie jest zgodne z wartością skrótu w tym atrybucie, należy włączyć ochronę przed zapisem.&lt;p/&gt;• Jeśli obecny jest tylko zalecany atrybut, aplikacja powinna udostępnić interfejs użytkownika zalecający użytkownikowi otwarcie tego dokumentu w stanie chronionym przed zapisem. Jeśli użytkownik zdecyduje się to zrobić, dokument będzie chroniony przed zapisem, w przeciwnym razie zostanie otwarty w pełni edytowalny.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Określa poziom powiększenia, który powinien być stosowany do dokumentu po jego wyświetleniu przez aplikację. Poziom powiększenia jest określany za pomocą dwóch atrybutów zapisanych na tym elemencie:&lt;p/&gt;• val, w którym przechowywane są informacje o typie powiększenia zastosowanym do dokumentu&lt;p/&gt;• procent, w którym przechowywana jest wartość procentowa powiększenia, która ma być używana podczas renderowania dokumentu&lt;p/&gt;Jeśli oba atrybuty są obecne, atrybut percent jest traktowany jako wartość §zapisana w pamięci podręcznej§ i używany tylko wtedy, gdy dla </t>
     </r>
     <r>
       <rPr>
@@ -1820,21 +2573,675 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Write protection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refers to a mode in which the document's contents cannot be edited, and the document cannot be resaved using the same file name. This setting is independent of the documentProtection (§17.15.1.29) element, but like document protection, this setting is not intended as a security feature and can be ignored.&lt;p/&gt;When present, the write protection shall result in one of two write protection behaviors:&lt;p/&gt;• If the password attribute is present, or both attributes are omitted, then the application shall prompt for a password to exit write protection. If the supplied password does not match the hash value in this attribute, then write protection shall be enabled.&lt;p/&gt;• If only the recommended attribute is present, the application should provide user interface recommending that the user open this document in write protected state. If the user chooses to do so, the document shall be write protected, otherwise, it shall be opened fully editable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the magnification level which should be applied to a document when it is displayed by an application. The zoom level is specified with the use of two attributes stored on this element:&lt;p/&gt;• val, which stores the type of zoom applied to the document&lt;p/&gt;• percent, which stores the zoom percentage to be used when rendering the document&lt;p/&gt;If both attributes are present, then the percent attribute shall be treated as a 'cached' value and only used when the value </t>
+      <t xml:space="preserve"> atrybutu val określono</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> wartość non.&lt;p/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>SettingsDescriptions</t>
+  </si>
+  <si>
+    <t>Grammar checking settings</t>
+  </si>
+  <si>
+    <t>Align paragraph and table borders with page border</t>
+  </si>
+  <si>
+    <t>Do not mark custom XML elements with no namespace as invalid</t>
+  </si>
+  <si>
+    <t>Use custom XML element names as default placeholder text</t>
+  </si>
+  <si>
+    <t>Attached custom XML schema</t>
+  </si>
+  <si>
+    <t>Attached document template</t>
+  </si>
+  <si>
+    <t>Allow automatic formatting to override formatting protection settings</t>
+  </si>
+  <si>
+    <t>Automatically hyphenate document contents when displayed</t>
+  </si>
+  <si>
+    <t>Number of pages per booklet</t>
+  </si>
+  <si>
+    <t>Reverse book fold printing</t>
+  </si>
+  <si>
+    <t>Page border excludes footer</t>
+  </si>
+  <si>
+    <t>Page border excludes header</t>
+  </si>
+  <si>
+    <t>Caption settings</t>
+  </si>
+  <si>
+    <t>Character-level whitespace compression</t>
+  </si>
+  <si>
+    <t>Paragraph style applied to automatically generated paragraphs</t>
+  </si>
+  <si>
+    <t>Theme color mappings</t>
+  </si>
+  <si>
+    <t>Compatibility settings</t>
+  </si>
+  <si>
+    <t>Maximum number of consecutively hyphenated lines</t>
+  </si>
+  <si>
+    <t>Radix point for field code evaluation</t>
+  </si>
+  <si>
+    <t>Default table style for newly inserted tables</t>
+  </si>
+  <si>
+    <t>Distance between automatic tab stops</t>
+  </si>
+  <si>
+    <t>Display background objects when displaying document</t>
+  </si>
+  <si>
+    <t>Distance between horizontal gridlines</t>
+  </si>
+  <si>
+    <t>Distance between vertical gridlines</t>
+  </si>
+  <si>
+    <t>Document editing restrictions</t>
+  </si>
+  <si>
+    <t>Document classification</t>
+  </si>
+  <si>
+    <t>Do not automatically compress images</t>
+  </si>
+  <si>
+    <t>Do not show visual indicator for invalid custom XML markup</t>
+  </si>
+  <si>
+    <t>Do not display visual boundary for header/footer or between pages</t>
+  </si>
+  <si>
+    <t>Do not hyphenate words in all capital letters</t>
+  </si>
+  <si>
+    <t>Do not include content in text boxes, footnotes, and endnotes in document statistics</t>
+  </si>
+  <si>
+    <t>Do not show visual indicator for form fields</t>
+  </si>
+  <si>
+    <t>Do not track formatting revisions when tracking revisions</t>
+  </si>
+  <si>
+    <t>Do not use move syntax when tracking revisions</t>
+  </si>
+  <si>
+    <t>Do not validate custom XML markup against schemas</t>
+  </si>
+  <si>
+    <t>Drawing grid horizontal origin point</t>
+  </si>
+  <si>
+    <t>Drawing grid horizontal grid unit size</t>
+  </si>
+  <si>
+    <t>Drawing grid vertical origin point</t>
+  </si>
+  <si>
+    <t>Drawing grid vertical grid unit size</t>
+  </si>
+  <si>
+    <t>Embed common system fonts</t>
+  </si>
+  <si>
+    <t>Embed truetype fonts</t>
+  </si>
+  <si>
+    <t>Document-wide endnote properties</t>
+  </si>
+  <si>
+    <t>Different even/odd page headers and footers</t>
+  </si>
+  <si>
+    <t>Document-wide footnote properties</t>
+  </si>
+  <si>
+    <t>Upgrade document on open</t>
+  </si>
+  <si>
+    <t>Structured document tag placeholder text should be resaved</t>
+  </si>
+  <si>
+    <t>Position gutter at top of page</t>
+  </si>
+  <si>
+    <t>Do not display visual indication of grammatical errors</t>
+  </si>
+  <si>
+    <t>Do not display visual indication of spelling errors</t>
+  </si>
+  <si>
+    <t>Ignore mixed content when validating custom XML markup</t>
+  </si>
+  <si>
+    <t>Automatically update styles from document template</t>
+  </si>
+  <si>
+    <t>List separator for field code evaluation</t>
+  </si>
+  <si>
+    <t>Mail merge settings</t>
+  </si>
+  <si>
+    <t>Mirror page margins</t>
+  </si>
+  <si>
+    <t>Custom set of characters which cannot end a line</t>
+  </si>
+  <si>
+    <t>Custom set of characters which cannot begin a line</t>
+  </si>
+  <si>
+    <t>Never kern punctuation characters</t>
+  </si>
+  <si>
+    <t>Only print form field content</t>
+  </si>
+  <si>
+    <t>Print fractional character widths</t>
+  </si>
+  <si>
+    <t>Print postscript codes with document text</t>
+  </si>
+  <si>
+    <t>Print two pages per sheet</t>
+  </si>
+  <si>
+    <t>Spelling and grammatical checking state</t>
+  </si>
+  <si>
+    <t>Freeze document layout</t>
+  </si>
+  <si>
+    <t>Remove date and time from annotations</t>
+  </si>
+  <si>
+    <t>Visibility of annotation types</t>
+  </si>
+  <si>
+    <t>Only save form field content</t>
+  </si>
+  <si>
+    <t>Generate thumbnail for document on save</t>
+  </si>
+  <si>
+    <t>Subset fonts when embedding</t>
+  </si>
+  <si>
+    <t>Custom XSL transform to use when saving as XML file</t>
+  </si>
+  <si>
+    <t>Only save custom XML markup</t>
+  </si>
+  <si>
+    <t>Embedded custom XML schema supplementary data</t>
+  </si>
+  <si>
+    <t>Show e-mail message header</t>
+  </si>
+  <si>
+    <t>Use strict kinsoku rules for japanese text</t>
+  </si>
+  <si>
+    <t>Prevent replacement of styles part</t>
+  </si>
+  <si>
+    <t>Prevent modification of themes part</t>
+  </si>
+  <si>
+    <t>Suggested filtering for list of document styles</t>
+  </si>
+  <si>
+    <t>Suggested sorting for list of document styles</t>
+  </si>
+  <si>
+    <t>Percentage of document to use when generating summary</t>
+  </si>
+  <si>
+    <t>Track revisions to document</t>
+  </si>
+  <si>
+    <t>Automatically recalculate fields on open</t>
+  </si>
+  <si>
+    <t>Save document as XML file through custom XSL transform</t>
+  </si>
+  <si>
+    <t>Document view setting</t>
+  </si>
+  <si>
+    <t>Magnification setting</t>
+  </si>
+  <si>
+    <t>Ustawienia sprawdzania gramatyki</t>
+  </si>
+  <si>
+    <t>Wyrównywanie obramowań akapitu i tabeli do obramowania strony</t>
+  </si>
+  <si>
+    <t>Nie oznaczaj niestandardowych elementów XML bez przestrzeni nazw jako nieprawidłowych</t>
+  </si>
+  <si>
+    <t>Używanie niestandardowych nazw elementów XML jako domyślnego tekstu zastępczego</t>
+  </si>
+  <si>
+    <t>Dołączony niestandardowy schemat XML</t>
+  </si>
+  <si>
+    <t>Załączony szablon dokumentu</t>
+  </si>
+  <si>
+    <t>Zezwalaj na zastępowanie ustawień ochrony formatowania automatycznego formatowania</t>
+  </si>
+  <si>
+    <t>Automatyczne dzielenie wyrazów zawartości dokumentu po wyświetleniu</t>
+  </si>
+  <si>
+    <t>Liczba stron w broszurze</t>
+  </si>
+  <si>
+    <t>Drukowanie odwróconego składania książek</t>
+  </si>
+  <si>
+    <t>Obramowanie strony nie obejmuje stopki</t>
+  </si>
+  <si>
+    <t>Obramowanie strony nie obejmuje nagłówka</t>
+  </si>
+  <si>
+    <t>Ustawienia napisów</t>
+  </si>
+  <si>
+    <t>Kompresja białych znaków na poziomie znaku</t>
+  </si>
+  <si>
+    <t>Styl akapitu zastosowany do akapitów generowanych automatycznie</t>
+  </si>
+  <si>
+    <t>Mapowania kolorów motywu</t>
+  </si>
+  <si>
+    <t>Ustawienia zgodności</t>
+  </si>
+  <si>
+    <t>Maksymalna liczba kolejno podzielonych wierszy</t>
+  </si>
+  <si>
+    <t>Punkt podstawy do oceny kodu pola</t>
+  </si>
+  <si>
+    <t>Domyślny styl tabeli dla nowo wstawionych tabel</t>
+  </si>
+  <si>
+    <t>Odległość między automatycznymi zakładkami</t>
+  </si>
+  <si>
+    <t>Wyświetlanie obiektów tła podczas wyświetlania dokumentu</t>
+  </si>
+  <si>
+    <t>Odległość między poziomymi liniami siatki</t>
+  </si>
+  <si>
+    <t>Odległość między pionowymi liniami siatki</t>
+  </si>
+  <si>
+    <t>Ograniczenia edycji dokumentu</t>
+  </si>
+  <si>
+    <t>Klasyfikacja dokumentów</t>
+  </si>
+  <si>
+    <t>Nie kompresuj obrazów automatycznie</t>
+  </si>
+  <si>
+    <t>Nie pokazuj wizualnego wskaźnika dla nieprawidłowych niestandardowych znaczników XML</t>
+  </si>
+  <si>
+    <t>Nie wyświetlaj wizualnej granicy nagłówka/stopki ani między stronami</t>
+  </si>
+  <si>
+    <t>Nie dziel wyrazów wielkimi literami</t>
+  </si>
+  <si>
+    <t>Nie uwzględniaj zawartości pól tekstowych, przypisów dolnych i końcowych w statystykach dokumentu</t>
+  </si>
+  <si>
+    <t>Nie pokazuj wskaźnika wizualnego dla pól formularza</t>
+  </si>
+  <si>
+    <t>Nie śledź poprawek formatowania podczas śledzenia poprawek</t>
+  </si>
+  <si>
+    <t>Nie używaj składni przenoszenia podczas śledzenia poprawek</t>
+  </si>
+  <si>
+    <t>Nie używaj marginesów do rysowania początku siatki</t>
+  </si>
+  <si>
+    <t>Nie weryfikuj niestandardowych znaczników XML względem schematów</t>
+  </si>
+  <si>
+    <t>Poziomy punkt początkowy siatki rysunku</t>
+  </si>
+  <si>
+    <t>Rozmiar jednostki siatki poziomej siatki rysunku</t>
+  </si>
+  <si>
+    <t>Pionowy punkt początkowy siatki rysunku</t>
+  </si>
+  <si>
+    <t>Rozmiar jednostki siatki rysunkowej w pionie</t>
+  </si>
+  <si>
+    <t>Osadzanie typowych czcionek systemowych</t>
+  </si>
+  <si>
+    <t>Osadzanie czcionek truetype</t>
+  </si>
+  <si>
+    <t>Właściwości przypisu końcowego dla całego dokumentu</t>
+  </si>
+  <si>
+    <t>Różne parzyste/nieparzyste nagłówki i stopki stron</t>
+  </si>
+  <si>
+    <t>Właściwości przypisu dolnego dla całego dokumentu</t>
+  </si>
+  <si>
+    <t>Uaktualnij dokument po otwarciu</t>
+  </si>
+  <si>
+    <t>Tekst zastępczy znacznika dokumentu strukturalnego powinien zostać ponownie zapisany</t>
+  </si>
+  <si>
+    <t>Umieść margines na oprawę u góry strony</t>
+  </si>
+  <si>
+    <t>Nie wyświetlaj wizualnego wskazania błędów gramatycznych</t>
+  </si>
+  <si>
+    <t>Nie wyświetlaj wizualnego wskazania błędów ortograficznych</t>
+  </si>
+  <si>
+    <t>Ignoruj zawartość mieszaną podczas sprawdzania poprawności niestandardowych znaczników XML</t>
+  </si>
+  <si>
+    <t>Automatyczne aktualizowanie stylów z szablonu dokumentu</t>
+  </si>
+  <si>
+    <t>Separator listy do oceny kodu pola</t>
+  </si>
+  <si>
+    <t>Ustawienia korespondencji seryjnej</t>
+  </si>
+  <si>
+    <t>Odbicie lustrzane marginesów strony</t>
+  </si>
+  <si>
+    <t>Niestandardowy zestaw znaków, który nie może kończyć wiersza</t>
+  </si>
+  <si>
+    <t>Niestandardowy zestaw znaków, który nie może rozpoczynać wiersza</t>
+  </si>
+  <si>
+    <t>Znaki interpunkcyjne nigdy nie kernowane</t>
+  </si>
+  <si>
+    <t>Drukuj tylko zawartość pola formularza</t>
+  </si>
+  <si>
+    <t>Drukowanie szerokości znaków ułamkowych</t>
+  </si>
+  <si>
+    <t>Drukowanie kodów postscript z tekstem dokumentu</t>
+  </si>
+  <si>
+    <t>Drukowanie dwóch stron na arkuszu</t>
+  </si>
+  <si>
+    <t>Sprawdzanie pisowni i gramatyki</t>
+  </si>
+  <si>
+    <t>Blokowanie układu dokumentu</t>
+  </si>
+  <si>
+    <t>Usuwanie daty i godziny z adnotacji</t>
+  </si>
+  <si>
+    <t>Usuwanie informacji osobistych z właściwości dokumentu</t>
+  </si>
+  <si>
+    <t>Widoczność typów adnotacji</t>
+  </si>
+  <si>
+    <t>Lista wszystkich wartości identyfikatorów zapisu wersji</t>
+  </si>
+  <si>
+    <t>Zapisuj tylko zawartość pola formularza</t>
+  </si>
+  <si>
+    <t>Wygeneruj miniaturę dokumentu przy zapisywaniu</t>
+  </si>
+  <si>
+    <t>Podzbiór czcionek podczas osadzania</t>
+  </si>
+  <si>
+    <t>Niestandardowe przekształcenie XSL do użycia podczas zapisywania jako pliku XML</t>
+  </si>
+  <si>
+    <t>Zapisuj tylko niestandardowe znaczniki XML</t>
+  </si>
+  <si>
+    <t>Osadzone niestandardowe dane uzupełniające schematu XML</t>
+  </si>
+  <si>
+    <t>Pokaż nagłówek wiadomości e-mail</t>
+  </si>
+  <si>
+    <t>Używanie ścisłych reguł kinsoku dla tekstu japońskiego</t>
+  </si>
+  <si>
+    <t>Zapobieganie zamianie części stylów</t>
+  </si>
+  <si>
+    <t>Zapobiegaj modyfikacjom części motywów</t>
+  </si>
+  <si>
+    <t>Sugerowane filtrowanie listy stylów dokumentu</t>
+  </si>
+  <si>
+    <t>Sugerowane sortowanie dla listy stylów dokumentu</t>
+  </si>
+  <si>
+    <t>Procent dokumentu do użycia podczas generowania podsumowania</t>
+  </si>
+  <si>
+    <t>Śledzenie poprawek w dokumencie</t>
+  </si>
+  <si>
+    <t>Automatyczne ponowne obliczanie pól przy otwieraniu</t>
+  </si>
+  <si>
+    <t>Zapisz dokument jako plik XML za pomocą niestandardowego przekształcenia XSL</t>
+  </si>
+  <si>
+    <t>Ustawienia widoku dokumentu</t>
+  </si>
+  <si>
+    <t>Ustawienie powiększenia</t>
+  </si>
+  <si>
+    <t>Datapoint properties and datalabels behavior</t>
+  </si>
+  <si>
+    <t>User was resolving conflicting edits when the document was saved</t>
+  </si>
+  <si>
+    <t>Resolution in dots per inch (DPI) at which images in the document will be saved</t>
+  </si>
+  <si>
+    <t>Cropped-out areas of the images are not to be saved</t>
+  </si>
+  <si>
+    <t>Arbitrary identifier for the context of the paragraph identifiers in the document</t>
+  </si>
+  <si>
+    <t>Default parameters for object using the VML syntax inserted in the header and footer</t>
+  </si>
+  <si>
+    <t>Unique identifier for a set of documents derived from a common source</t>
+  </si>
+  <si>
+    <t>Remove personal information from document properties</t>
+  </si>
+  <si>
+    <t>Listing of all revision save id values</t>
+  </si>
+  <si>
+    <t>Allow saving document as XML file when custom XML markup is invalid</t>
+  </si>
+  <si>
+    <t>Default parameters for object using the VML syntax inserted in the body</t>
+  </si>
+  <si>
+    <t>Show visual indicators for custom XML markup start/end locations</t>
+  </si>
+  <si>
+    <t>User interface compatible with old Word versions</t>
+  </si>
+  <si>
+    <t>Właściwości punktu danych i zachowanie etykiet danych</t>
+  </si>
+  <si>
+    <t>Użytkownik usuwał zmiany powodujące konflikt podczas zapisywania dokumentu</t>
+  </si>
+  <si>
+    <t>Rozdzielczość w punktach na cal (DPI), z jaką zostaną zapisane obrazy w dokumencie</t>
+  </si>
+  <si>
+    <t>Przycięte obszary obrazów nie mogą być zapisywane</t>
+  </si>
+  <si>
+    <t>Dowolny identyfikator dla kontekstu identyfikatorów akapitów w dokumencie</t>
+  </si>
+  <si>
+    <t>Domyślne parametry obiektu korzystającego ze składni VML wstawionej w nagłówku i stopce</t>
+  </si>
+  <si>
+    <t>Niepowtarzalny identyfikator zestawu dokumentów pochodzących ze wspólnego źródła</t>
+  </si>
+  <si>
+    <t>Zezwalaj na zapisywanie dokumentu jako pliku XML, gdy niestandardowe znaczniki XML są nieprawidłowe</t>
+  </si>
+  <si>
+    <t>Domyślne parametry obiektu korzystającego ze składni VML wstawionej w treści</t>
+  </si>
+  <si>
+    <t>Pokazywanie wskaźników wizualnych dla niestandardowych lokalizacji początkowych/końcowych znaczników XML</t>
+  </si>
+  <si>
+    <t>Interfejs użytkownika kompatybilny ze starszymi wersjami Worda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, czy zawartość dokumentu zawarta w polach tekstowych, przypisach dolnych i końcowych ma być wykluczana, gdy aplikacja oblicza statystyki danego dokumentu, gdy te wartości są obliczane i/lub wyświetlane przez aplikację.&lt;p/&gt;Uwaga: Oto kilka przykładów statystyk dokumentów, które aplikacja może wybrać do obliczenia: liczba słów, liczba znaków, liczba akapitów, liczba stron, liczba wierszy i tak dalej. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że zawartość tego dokumentu powinna być drukowana z szerokością ułamkową. Ułamkowe szerokości znaków występują, gdy odstępy między znakami nie są stałe (tj. używany jest proporcjonalny krój czcionki).&lt;p/&gt;Uwaga: Ułamkowe szerokości znaków są zwykle używane w połączeniu z dużymi rozmiarami czcionek, aby zapobiec zbieganiu się znaków lub zbyt dużej odległości między nimi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, czy aparaty sprawdzania gramatyki i pisowni ostatniej aplikacji, która przetwarzała ten dokument, zakończyły sprawdzanie gramatyki i pisowni dokumentu przed jego ostatnim zapisaniem. Aplikacje, które modyfikują zawartość dokumentu bez sprawdzania pisowni lub gramatyki, powinny w razie potrzeby zresetować te stany.&lt;p/&gt;Uwaga: Jeśli ten element określa, że mechanizmy sprawdzania gramatyki i pisowni aplikacji zakończyły sprawdzanie gramatyki i pisowni dokumentu podczas ostatniego zapisywania dokumentu, kolejne aplikacje mogą zdecydować się nie uruchamiać swoich aparatów sprawdzania gramatyki i pisowni po załadowaniu danego dokumentu WordprocessingML.&lt;p/&gt;Może to zwiększyć szybkość, z jaką aplikacja hostująca ładuje plik i nie wpływa negatywnie na stan sprawdzania gramatyki lub pisowni dokumentu, ponieważ wszystkie błędy zostały już znalezione i oznaczone za pomocą elementu proofErr (§17.13.8.1), ponieważ dokument nie był edytowany, a jedynie załadowany, od czasu ostatniego zapisanego. </t>
+  </si>
+  <si>
+    <t>Określa rozdzielczość w punktach na cal (DPI), z jaką będą zapisywane obrazy w dokumencie.&lt;p/&gt;To ustawienie jest ignorowane przez obrazy, które mają punkty na cal (DPI) określone przez useLocalDpi. To ustawienie jest również ignorowane, gdy parametr doNotAutoCompressPictures jest ustawiony na wartość "true".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa informacje o parametrach sprawdzania gramatyki, które zostało wykonane na zawartości bieżącego dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Te informacje mogą być używane przez aplikacje w różny sposób, na przykład do określenia, czy bieżący stan sprawdzania gramatyki, określony przez element proofState (§17.15.1.65) jest wystarczający. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że niestandardowy schemat XML, którego docelowa przestrzeń nazw jest zgodna z wartością określoną w atrybucie val, powinien być skojarzony z tym dokumentem podczas ładowania, jeśli taki schemat jest dostępny dla aplikacji hostującej. Aplikacje mogą również ładować i wykorzystywać wszelkie dodatkowe schematy, a także te wyraźnie wymienione w tym miejscu. &lt;p/&gt;Uwaga: Te niestandardowe schematy XML mogą być następnie używane do sprawdzania poprawności struktury niestandardowych znaczników XML w dokumencie itp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa obecność informacji o podpisach w danym dokumencie WordprocessingML. Informacje te są podzielone na dwa komponenty:&lt;p/&gt;• Podpis elementu podrzędnego określa format pojedynczego typu podpisu, który ma być automatycznie dodawany do dokumentu.&lt;p/&gt;• Element podrzędny autoCaptions definiuje typy obiektów, do których format napisów ma być automatycznie stosowany.&lt;p/&gt;Te informacje powinny być używane do określania podpisów, które są automatycznie dodawane do obiektów po ich wstawieniu do dokumentu WordprocessingML. &lt;p/&gt;Uwaga: To ustawienie jest zwykle ignorowane, chyba że jest określone w domyślnym szablonie aplikacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, w jaki sposób znaki o pełnej szerokości w bieżącym dokumencie WordprocessingML powinny być kompresowane w celu usunięcia dodatkowych białych znaków podczas wyświetlania zawartości tego dokumentu, w szczególności przez określenie zestawów znaków, które można skompresować w celu usunięcia dodatkowych białych znaków. &lt;p/&gt;Uwaga: Zachowanie tego elementu jest funkcjonalnie identyczne z właściwością text-justify-trim . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa zestaw ograniczeń ochrony dokumentów, które zostały zastosowane do zawartości dokumentu WordprocessingML. Te ograniczenia powinny być wymuszane przez aplikacje edytujące ten dokument, gdy atrybut wymuszania jest włączony i ignorowane (ale utrwalane) w przeciwnym razie. Ochrona dokumentów to zestaw ograniczeń używanych w celu zapobiegania niezamierzonym zmianom w całości lub części dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Ta ochrona nie szyfruje dokumentu, a złośliwe aplikacje mogą obejść jego użycie. Ta ochrona nie jest przeznaczona jako funkcja bezpieczeństwa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, czy wyniki pól zawartych w tym dokumencie powinny być automatycznie przeliczane na podstawie kodów pól, gdy ten dokument jest otwierany przez aplikację obsługującą obliczenia pól. &lt;p/&gt;Uwaga: Niektóre pola są zawsze przeliczane (np. numeracja stron), dlatego ten element dotyczy tylko pól, które zazwyczaj nie są automatycznie przeliczane po otwarciu dokumentu. Należy również pamiętać, że to ustawienie nie może zastępować żadnych ustawień ochrony dokumentów (§17.15.1.29) ani ochrony przed zapisem (§17.15.1.93). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies information about the parameters of the grammar checking which was performed on the contents of the current WordprocessingML document. &lt;p/&gt;Note: This information can be used as desired by applications; for example, to determine if the current grammar checking state, specified by the proofState element (§17.15.1.65) is sufficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that the custom XML schema whose target namespace matches the value specified in the val attribute should be associated with this document when it is loaded, if such a schema is available to the hosting application. Applications can also load and utilize any additional schemas as well as those explicitly mentioned here. &lt;p/&gt;Note: These custom XML schemas can then be used to validate the structure of the custom XML markup in the document, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the presence of information about captionsin a given WordprocessingML document. This information is divided into two components:&lt;p/&gt;• The child element caption defines the format for a single type of caption to be automatically added to the document.&lt;p/&gt;•  The child element autoCaptions defines the types of objects to which a caption format shall automatically be applied.&lt;p/&gt;This information should be used to determine the captions which are automatically added to objects when they are inserted into a WordprocessingML document. &lt;p/&gt;Note: This setting is typically ignored unless it is specified in an application's default template. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies how full-width characters in the current WordprocessingML document should be compressed to remove additional whitespace when the contents of this document are displayed, specifically by specifying the set(s) of characters which can be compressed to remove additional whitespace. &lt;p/&gt;Note: The behavior of this element is functionally identical to the text-justify-trim property. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the set of document protection restrictions which have been applied to the contents of a WordprocessingML document. These restrictions should be enforced by applications editing this document when the enforcement attribute is turned on, and ignored (but persisted) otherwise. Document protection is a set of restrictions used to prevent unintentional changes to all or part of a WordprocessingML document. &lt;p/&gt;Note: This protection does not encrypt the document, and malicious applications might circumvent its use. This protection is not intended as a security feature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether the fields contained in this document should automatically have their field result recalculated from the field codes when this document is opened by an application which supports field calculations. &lt;p/&gt;Note: Some fields are always recalculated (e.g. the page numbering), therefore this element only affects fields which are typically not automatically recalculated on opening the document. Also note that this setting must not supersede any document protection (§17.15.1.29) or write protection (§17.15.1.93) settings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether formatting automatically applied by an application (i.e. not explicitly applied by a use or an application) shall be allowed to override formatting protection enabled via the formatting attribute on the documentProtection element (§17.15.1.9) when those formatting operations would add formatting which has been explicitly disabled. &lt;p/&gt;Example: Automatically adding superscript to the st in the string 1st. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, czy formatowanie automatycznie stosowane przez aplikację (tj. niezastosowane jawnie przez użycie lub aplikację) powinno mieć możliwość zastąpienia ochrony formatowania włączonej za pośrednictwem atrybutu formatowania w elemencie documentProtection (§17.15.1.9), gdy te operacje formatowania dodałyby formatowanie, które zostało jawnie wyłączone. &lt;p/&gt;Przykład: Automatyczne dodawanie indeksu górnego do st w ciągu 1st. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether applications displaying this document should display the contents of the header and footer when displaying the document in print layout view (§17.15.1.92) or should collapse those areas as well as the whitespace on all displayed pages so that the text extents are directly following one another. &lt;p/&gt;Rationale: Collapsing the ends of pages makes it easier to read the contents of the document, since the text flows between pages without whitespace, while maintaining the WYSIWYG functionality of print layout view for the document's main content. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that applications shall not track revisions made to this WordprocessingML document as moves when the trackRevisions element (§17.15.1.89) is turned on, even when that syntax is appropriate. Instead, applications should use a standard insertion and deletion annotation syntax. Existing moves shall not be modified. &lt;p/&gt;Rationale: This element is provided to enable interoperability with earlier word processing applications which do not understand moves. </t>
+  </si>
+  <si>
+    <t>Specifies the exact set of page and text sizing parameters which shall be used to display the contents of a WordprocessingML document. &lt;p/&gt;Rationale: This setting is typically used for documents that have been annotated using ink. This setting freezes the document's presentation such that the ink annotations must exist at the same position of the WordprocessingML document irrespective of the monitor on which the WordprocessingML document is rendered. &lt;p/&gt;This element shall only affect the display of WordprocessingML documents as follows:&lt;p/&gt;• When the actualPage attribute is specified with a value of true, the given WordprocessingML document's pages shall be rendered as they would normally be displayed. The resulting pages can have their magnification setting changed as desired. All other attributes shall be ignored.&lt;p/&gt;• When the actualPage attribute is specified with a value of false, the given WordprocessingML document's pages shall be rendered as virtual pages when loaded by a conforming hosting application irrespective of the given WordprocessingML document's view (§17.15.1.92). Virtual pages are pages with no correlation with the printed layout of a given WordprocessingML document that have been scaled by a conforming hosting application to improve the readability of a given WordprocessingML document when it is displayed. Specifically, the w and h attributes specify the width and height of the virtual pages, and the fontSz attribute specifies the scaling to be applied to text within the given WordprocessingML document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, czy aplikacje wyświetlające ten dokument powinny wyświetlać zawartość nagłówka i stopki podczas wyświetlania dokumentu w widoku układu wydruku (§17.15.1.92), czy też powinny zwijać te obszary, a także białe znaki na wszystkich wyświetlanych stronach, tak aby zakresy tekstu znajdowały się bezpośrednio po sobie. &lt;p/&gt;Uzasadnienie: Zwijanie końców stron ułatwia odczytywanie zawartości dokumentu, ponieważ tekst przepływa między stronami bez białych znaków, przy jednoczesnym zachowaniu funkcji WYSIWYG widoku układu wydruku dla głównej zawartości dokumentu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych do tego dokumentu WordprocessingML podczas ruchu, gdy element trackRevisions (§17.15.1.89) jest włączony, nawet jeśli ta składnia jest odpowiednia. Zamiast tego aplikacje powinny używać standardowej składni adnotacji wstawiania i usuwania. Istniejące ruchy nie mogą być modyfikowane. &lt;p/&gt;Uzasadnienie: Ten element został dostarczony, aby umożliwić interoperacyjność z wcześniejszymi aplikacjami do edycji tekstu, które nie rozumieją ruchów. </t>
+  </si>
+  <si>
+    <t>Określa dokładny zestaw parametrów zmiany rozmiaru strony i tekstu, które mają być używane do wyświetlania zawartości dokumentu WordprocessingML. &lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane w przypadku dokumentów, które zostały opatrzone adnotacjami przy użyciu pisma odręcznego. To ustawienie powoduje zablokowanie prezentacji dokumentu w taki sposób, że adnotacje odręczne muszą znajdować się w tym samym miejscu co dokument WordprocessingML, niezależnie od monitora, na którym jest renderowany dokument WordprocessingML. &lt;p/&gt;Ten element ma wpływ na wyświetlanie dokumentów WordprocessingML tylko w następujący sposób:&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością true, strony danego dokumentu WordprocessingML są renderowane tak, jak normalnie byłyby wyświetlane. Powstałe strony mogą mieć dowolne zmiany ustawień powiększenia. Wszystkie inne atrybuty nie są brane pod uwagę.&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością false, strony danego dokumentu WordprocessingML będą renderowane jako strony wirtualne po załadowaniu przez zgodną aplikację hostingową, niezależnie od widoku danego dokumentu WordprocessingML (§17.15.1.92). Strony wirtualne to strony, które nie są skorelowane z wydrukowanym układem danego dokumentu WordprocessingML, które zostały przeskalowane przez zgodną aplikację hostingową w celu poprawy czytelności danego dokumentu WordprocessingML po jego wyświetleniu. W szczególności atrybuty w i h określają szerokość i wysokość stron wirtualnych, a atrybut fontSz określa skalowanie, które ma zostać zastosowane do tekstu w danym dokumencie WordprocessingML.</t>
+  </si>
+  <si>
+    <r>
+      <t>Określa, że lewy i prawy margines zdefiniowany we właściwościach sekcji mają być zamienione miejscami na stronach sąsiadujących.&lt;p/&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1844,36 +3251,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is specified for the val attribute.&lt;p/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że obramowania akapitów określone za pomocą elementu pBdr (§17.3.1.24) i obramowania tabeli za pomocą elementu tblBorders (§17.4.40) powinny zostać dostosowane w celu wyrównania do zakresów obramowania strony zdefiniowanego za pomocą elementu pgBorders (§17.6.10), jeśli odstęp między tymi obramowaniami jest mniejszy lub równy 10,5 punktu (szerokość jednego znaku) lub mniejsza od obramowania strony. Obecność tego ustawienia zapewni, że między sąsiednią stroną a obramowaniem akapitu/tabeli nie będzie przerw o szerokości jednego znaku lub mniejszej, ponieważ obramowania, które są idealnie wyrównane, nie będą wyświetlane na korzyść krawędzi strony znajdującej się między nimi.</t>
-  </si>
-  <si>
-    <t>Określa, czy niestandardowy znacznik XML określony za pomocą elementu customXml, który nie ma skojarzonej przestrzeni nazw, powinien być traktowany jako błąd i przenoszony do specjalnej przestrzeni nazw błędów (na potrzeby walidacji schematu XML) po otwarciu dokumentu. Jeśli ten element jest włączony, gdy aplikacja stwierdzi, że bieżący znacznik XML znajduje się w pustej przestrzeni nazw, elementy te nie zostaną automatycznie przeniesione do przestrzeni nazw błędów.</t>
-  </si>
-  <si>
-    <t>Określa, że każdy niestandardowy element XML określony za pomocą elementu customXml w tym dokumencie zawsze powinien pokazywać jakąś formę prezentacji tekstu zastępczego w dokumencie, jeśli nie zawiera zawartości uruchamiania. Jeśli element zastępczy (§17.5.2.25) jest obecny we właściwościach niestandardowego elementu XML, oznacza to, że jest to tekst zastępczy i ten efekt nie ma żadnego wpływu. Jeśli element zastępczy zostanie pominięty, aplikacja użyje nazwy elementu do wygenerowania domyślnego tekstu zastępczego w jego miejsce.</t>
-  </si>
-  <si>
-    <t>Określa lokalizację szablonu dokumentu, który powinien być dołączony do bieżącego dokumentu WordprocessingML, jeśli jest dostępny i ma format obsługiwany przez aplikację. W szczególności atrybut val tego elementu  powinien zawierać ścieżkę do pliku powiązanego szablonu dokumentu.</t>
-  </si>
-  <si>
-    <t>Określa, czy zawartość danego dokumentu WordprocessingML powinna być automatycznie dzielona wyrazami wyrazów wyrazów przez aplikację hostującą przed jego wyświetleniem, jeśli aplikacja obsługuje tę funkcję.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, czy zawartość danego dokumentu WordprocessingML powinna być drukowana jako podpisy. </t>
+      <t>Wskazówka: To ustawienie jest zwykle używane podczas drukowania na obu stronach stron i oprawiania ich jak książki.</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies that the left and right margins defined in the section properties shall be swapped on facing pages.&lt;p/&gt;Guidance: This setting is generally used when printing on both sides of pages and binding them like a book.</t>
+  </si>
+  <si>
+    <t>Określa zestaw wartości identyfikatora zapisu poprawki dla bieżącego dokumentu. Wartości identyfikatora zapisu wersji odnoszą się do czterocyfrowych wartości szesnastkowych, które jednoznacznie identyfikują sesję edycji w czasie życia bieżącego dokumentu. Sesja edycji to okres czasu między dwiema kolejnymi operacjami składowania przez aplikację.&lt;p/&gt;Wskazówka: Zestaw identyfikatorów zapisu wersji przechowywanych z dokumentem zawiera tylko informacje o sesji edycji, w której składniki dokumentu zostały ostatnio zapisane, które mogą być używane przez aplikacje w dowolny sposób.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies the set of revision save ID values for the current document. </t>
     </r>
     <r>
       <rPr>
@@ -1883,16 +3272,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Podpisy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to drukowane </t>
+      <t>Revision save ID values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> refer to four digit hexadecimal values which uniquely identify an editing session in the life of the current document. An </t>
     </r>
     <r>
       <rPr>
@@ -1902,21 +3291,16 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które są składane i oprawiane innymi podpisami w celu utworzenia broszury, której zestaw można związać ze sobą, tworząc publikację przypominającą książkę. W szczególności ten element określa, że każda strona w danym dokumencie WordprocessingML powinna być zorientowana w orientacji poziomej, podzielona na pół w pionie z dwoma lewymi marginesami wychodzącymi z dwusiecznej strony i dwoma prawymi marginesami utworzonymi po lewej i prawej stronie każdej strony.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Element ten powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
+      <t>editing session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the period of time between two subsequent save operations by an application.&lt;p/&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1926,1519 +3310,6 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości stopki.</t>
-  </si>
-  <si>
-    <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości nagłówka.</t>
-  </si>
-  <si>
-    <t>Określa sposób zachowania właściwości punktu danych i etykiet danych na wszystkich wykresach w tym dokumencie. Znaczenie tego ustawienia jest następujące:&lt;p/&gt;True  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich odwołaniem.&lt;p/&gt;False  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich położeniem na wykresie.</t>
-  </si>
-  <si>
-    <t>Określa styl akapitu, określony za pomocą elementu style, który ma być stosowany do akapitów tworzonych automatycznie po wstawieniu tekstu do dokumentu WordprocessingML w obszarze dokumentu, z którym nie jest skojarzony żaden inny styl. Do tego stylu odwołuje się atrybut val, który przechowuje identyfikator stylu (przechowywany w atrybucie styleId w definicji stylu).</t>
-  </si>
-  <si>
-    <t>Określa kolor motywu przechowywany w części Motyw dokumentu, do której ma być odwzorowana wartość tego koloru motywu. To mapowanie umożliwia łączenie ze sobą wielu kolorów motywu.</t>
-  </si>
-  <si>
-    <t>Określa zestaw opcjonalnych opcji zgodności dla bieżącego dokumentu.</t>
-  </si>
-  <si>
-    <t>W przypadku wartości true określa, że użytkownik rozwiązywał problemy ze zmianami w momencie zapisywania dokumentu.</t>
-  </si>
-  <si>
-    <t>Określa maksymalną liczbę kolejnych wierszy tekstu, które mogą kończyć się łącznikiem podczas wyświetlania zawartości tego dokumentu. Po osiągnięciu tego limitu następujący wiersz nie może być dzielony wyrazami, niezależnie od tego, czy spełnia kryteria niezbędne do dzielenia wyrazów.</t>
-  </si>
-  <si>
-    <t>Określa styl tabeli, który ma być automatycznie stosowany do właściwości tabel dodanych do tego dokumentu przez aplikację. Należy zauważyć, że nie zmienia stylu tabeli zastosowanego do tabel, które nie odwołują się do stylu, zamiast tego automatycznie stosuje styl do tej tabeli za pośrednictwem elementu tblStyle (§17.4.63). To łącze jest tworzone przez odwołanie się do wartości atrybutu styleId stylu tabeli, który powinien być używany do formatowania nowo wstawionych tabel.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa wartość, która ma być używana jako mnożnik do generowania automatycznych tabulatorów w tym dokumencie. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabulatory automatyczne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnoszą się do lokalizacji tabulatorów, które występują po przekroczeniu wszystkich niestandardowych tabulatorów w bieżącym akapicie.</t>
-    </r>
-  </si>
-  <si>
-    <t>W przypadku wartości true określa, że przycięte obszary obrazów nie mają być zapisywane. Zapisane obrazy są raczej wynikiem zastosowania imgProps na oryginalnych obrazach. &lt;p/&gt;Jeśli ten element jest nieobecny lub ma wartość §false§, przycięte obszary obrazów są zapisywane.</t>
-  </si>
-  <si>
-    <t>Określa, czy obrazy i kolory zdefiniowane w tle dokumentu za pomocą elementu tła (§17.2.1) mają być wyświetlane, gdy dokument jest wyświetlany w widoku układu wydruku, jak określono w elemencie widoku (§17.15.1.92).</t>
-  </si>
-  <si>
-    <t>Określa dowolny identyfikator dla kontekstu identyfikatorów akapitów w dokumencie. Wartości MUSZĄ być większe niż 0 i mniejsze niż 0x80000000.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa obecność zmiennych dokumentu w języku WordprocessingML. Zmienna </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>dokumentu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to lokalizacja przechowywania dowolnych danych klienta w parach nazwa/wartość, która jest utrwalana w danym dokumencie WordprocessingML.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że obrazy w tym dokumencie nie są automatycznie kompresowane podczas zapisywania dokumentu w celu zmniejszenia ogólnego rozmiaru wynikowego dokumentu WordprocessingML.</t>
-  </si>
-  <si>
-    <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół zawartości zawartej w dokumencie WordprocessingML, która jest zawarta z niestandardowym znacznikiem XML określonym za pomocą elementu customXml, gdy aplikacja stwierdzi, że bieżący znacznik XML (lub jego zawartość) narusza ograniczenia dołączonych schematów XML.</t>
-  </si>
-  <si>
-    <t>Określa, czy wyrazy składające się wyłącznie z wielkich liter mają być dzielone w danym dokumencie, gdy automatyczne dzielenie wyrazów jest określone za pomocą elementu autoHyphenation (§17.15.1.10).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, czy podpowiedź wizualna powinna być wyświetlana wokół pól formularza zawartych w dokumencie WordprocessingML określonym za pomocą </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pól FORMTEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMCHECKBOX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lub </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMDROPDOWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych w formatowaniu tego dokumentu WordprocessingML, gdy element trackRevisions (§17.15.1.89) jest włączony.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że lewy górny róg strony nie może być używany jako początek siatki rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Jeśli ten element jest obecny, siatka powinna zaczynać się od lewej górnej krawędzi strony, a nie od zakresu tekstu.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że aplikacje nie mogą weryfikować niestandardowych znaczników XML w tym dokumencie względem odpowiednich niestandardowych schematów XML, nawet jeśli te schematy są dostępne. Aplikacja powinna zachowywać się po cichu tak, jakby nie była w stanie zapewnić tej funkcji.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa odległość od lewej krawędzi strony, która ma być używana jako początek poziomych linii siatki używanych przez siatkę rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (np. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien wpływać tylko na krawędź początkową pierwszej wyświetlanej poziomej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa szerokość poziomych jednostek siatki w tym dokumencie. Siatka </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>rysunku</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pozioma jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa odległość od górnej krawędzi strony, która ma być używana jako początek pionowych linii siatki używanych przez siatkę rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien mieć wpływ tylko na krawędź początkową pierwszej wyświetlanej pionowej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa szerokość pionowych jednostek siatki w tym dokumencie. Siatka </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>rysunku</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pionowa jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny osadzać popularne czcionki systemowe, gdy są używane, a osadzanie czcionek jest włączone dla tego dokumentu za pomocą elementu embedTrueTypeFonts (§17.8.3.8). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Typowe czcionki systemowe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnoszą się do zestawu czcionek, które zazwyczaj są zawsze obecne na komputerze i nie są zdefiniowane w normie IEEE/IEC 29500.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że aplikacje powinny osadzać czcionki używane w tym dokumencie podczas jego zapisywania. Czcionki te są osadzane zgodnie z algorytmem określonym w §17.8.1.</t>
-  </si>
-  <si>
-    <t>Określa właściwości przypisu końcowego dla bieżącego dokumentu. Każda z tych właściwości jest przechowywana jako element podrzędny w elemencie endnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu endnotePr dla całej sekcji (§17.11.5).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, czy sekcje w tym dokumencie mają mieć różne nagłówki i stopki dla stron parzystych i nieparzystych (nagłówek/stopka strony nieparzystej i nagłówek/stopka strony parzystej).&lt;p/&gt;Jeśli atrybut val jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>wartość true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, to każda sekcja w dokumencie powinna używać nieparzystego nagłówka strony dla wszystkich stron o numerach nieparzystych w sekcji i nagłówka strony parzystej dla wszystkich stron o numerach parzystych w sekcji (licząc każdą stronę w sekcji zaczynając od jednej, niezależnie od ustawień numeracji stron dla sekcji). Jeśli atrybut val jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, to wszystkie strony w sekcji powinny używać nieparzystego nagłówka strony.&lt;p/&gt;To ustawienie nie ma wpływu na obecność nagłówka pierwszej strony w każdej sekcji, który jest określony za pomocą elementu titlePg (§17.10.6). Jeśli określono nagłówek pierwszej strony, to ustawienie to zostanie zastosowane na wszystkich kolejnych stronach, w tym na pierwszej stronie w liczbie stron parzystych/nieparzystych.&lt;p/&gt;Jeśli ten element jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> i określony jest nagłówek strony parzystej , to zostanie zignorowany i zostanie wyświetlony tylko nagłówek strony nieparzystej. I odwrotnie, jeśli ten element jest ustawiony na true i któryś z typów nagłówka zostanie pominięty dla danej sekcji, to w razie potrzeby zostanie utworzony pusty nagłówek (w jego miejsce nie należy używać innego typu nagłówka).</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa właściwości przypisu dolnego dla tego dokumentu. Każda właściwość jest przechowywana jako unikatowy element w elemencie footnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu footnotePr dla całej sekcji (§17.11.11).</t>
-  </si>
-  <si>
-    <t>Określa, że dokument został ostatnio zapisany w czasie, gdy edytowany był tekst zastępczy wszystkich znaczników dokumentu strukturalnego w tym dokumencie. Oznacza to, że tekst zastępczy aktualnie wyświetlany we wszystkich znacznikach dokumentu strukturalnego, w których wyświetlany jest element showingPlcHdr (§17.5.2.39), zostanie przypisany do odpowiedniego wpisu dokumentu glosariusza, jak określono za pomocą elementu docPart (§17.12.5) po otwarciu tego dokumentu, aby zapewnić, że najnowszy tekst zastępczy zostanie zapisany we wpisie dokumentu glosariusza. Jeśli bieżącego tekstu zastępczego nie można zapisać jako pozycji dokumentu glosariusza, należy go zmodyfikować zgodnie z potrzebami przed zapisaniem.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że margines na oprawę danego dokumentu WordprocessingML powinien być umieszczony u góry stron dokumentu podczas wyświetlania dokumentu. Margines </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> na oprawę</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to biały obszar utworzony przez wewnętrzne marginesy dwóch stron zwróconych do siebie, na przykład biały obszar między tekstem na stronach książki, gdy książka jest otwarta.&lt;p/&gt;Jeśli ten element zostanie pominięty, to margines na oprawę nie zostanie umieszczony u góry strony. Jeśli w danym dokumencie używane są elementy mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13) lub printTwoOnOne (§17.15.1.64), element gutterAtTop nie będzie używany. Zamiast tego margines na oprawę powinien być ustawiany automatycznie, jeśli jest to konieczne, aby umożliwić drukowanie i układ strony w tych ustawieniach.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa domyślne parametry obiektu przy użyciu składni VML (§14.1) wstawionej w nagłówku i stopce dokumentu WordprocessingML. Definicja i semantyka tych parametrów jest opisana w podpunkcie VML - Office Drawing (§14.2) normy /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd gramatyczny przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego aparatu gramatycznego aplikacji.</t>
-  </si>
-  <si>
-    <t>Określa, czy wizualna wskazówka powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd pisowni przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego silnika sprawdzania pisowni aplikacji.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa strefę dzielenia wyrazów, która ma być używana podczas automatycznego lub ręcznego dzielenia wyrazów w zawartości tego dokumentu. Strefa </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>dzielenia wyrazów</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ilość białych znaków, którą można pozostawić na końcu wiersza (lub dodać do wyjustowanych wierszy) przed próbą dzielenia wyrazów w następnym słowie w dokumencie (w celu zmniejszenia ilości białych znaków w wierszu). Mniejsza strefa dzielenia wyrazów powinna zmniejszyć nierówność prawej krawędzi tekstu podstawowego danego dokumentu, ponieważ dzielenie wyrazów jest większą liczbą wyrazów. I odwrotnie, większa strefa dzielenia wyrazów powinna zwiększyć nierówność prawej krawędzi tekstu danego dokumentu, ponieważ dzieli się mniej wyrazów.&lt;p/&gt;Jeśli ten element zostanie pominięty, podczas dzielenia wyrazów w tym dokumencie zostanie zastosowana domyślna strefa dzielenia wyrazów wynosząca 360 dwudziestych punktu (0,25§).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny ignorować całą zawartość tekstową, która nie jest zawarta w niestandardowym elemencie znacznika XML liścia, podczas sprawdzania poprawności zawartości niestandardowego znacznika XML w tym dokumencie względem co najmniej jednego dołączonego niestandardowego schematu XML. Element </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>liścia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to niestandardowy element XML, który nie ma podrzędnych niestandardowych elementów XML (jest to liść w niestandardowym drzewie XML).</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, że style w danym dokumencie są aktualizowane tak, aby były zgodne ze stylami w dołączonym szablonie określonym za pomocą elementu attachedTemplate (§17.15.1.6), gdy dokument jest otwierany przez aplikację hostingową. To ustawienie umożliwia synchronizację stylów zawartych w dokumentach z dołączonymi szablonami ze stylami używanymi w dołączonym szablonie.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa wszystkie informacje dotyczące korespondencji seryjnej dla dokumentu, który został połączony z zewnętrznym źródłem danych w ramach operacji korespondencji seryjnej.&lt;p/&gt;Dokument zawierający dane korespondencji seryjnej może być jednego z dwóch typów:&lt;p/&gt;• Dokument źródłowy, czyli dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, używany w połączeniu z aplikacją do łączenia się z zewnętrznym źródłem danych i tworzenia jednego dokumentu dla każdego rekordu w tym źródle danych.&lt;p/&gt;• </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scalony dokument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, a także odniesienie do pojedynczego konkretnego rekordu, który zostanie użyty do wypełnienia wartości wszystkich pól korespondencji seryjnej w tym dokumencie.&lt;p/&gt;Informacje w tym elemencie zawierają wszystkie dane potrzebne do nawiązania połączenia ze źródłem danych i wypełnienia wszelkich pól scalanych w dokumencie danymi z tego źródła danych.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa właściwości na poziomie dokumentu dla wszystkich elementów matematycznych w dokumencie.</t>
-  </si>
-  <si>
-    <t>Określa zestaw znaków, który nie może kończyć wiersza dla ciągów tekstu, które podlegają niestandardowej logice dzielenia wierszy przy użyciu elementu kinsoku (§17.3.1.16) podczas wyświetlania zawartości dokumentu. To ograniczenie ma zastosowanie tylko do tekstu, który został oznaczony w języku tej reguły za pomocą elementu lang (§17.3.2.20) lub metod automatycznego wykrywania poza zakresem /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Określa zestaw znaków, który powinien być ograniczony od początku nowego wiersza dla przebiegów tekstu, które podlegają niestandardowej logice dzielenia wierszy przy użyciu elementu kinsoku (§17.3.1.16) podczas wyświetlania zawartości dokumentu. To ograniczenie ma zastosowanie tylko do tekstu, który został oznaczony w języku tej reguły za pomocą elementu lang (§17.3.2.20) lub metod automatycznego wykrywania poza zakresem /IEC 29500.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że znaki interpunkcyjne nie mogą być kerowane w bieżącym dokumencie, gdy kerning jest włączony w przebiegu przy użyciu elementu kern (§17.3.2.19). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kerning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnosi się do procesu, w którym aplikacja hostująca zmniejsza odstępy między sąsiadującymi znakami i/lub interpunkcją w celu poprawy wyglądu tekstu. Tekst o dobrym kerze ma podobną ilość spacji między każdą parą znaków i/lub każdym zestawem znaku i symbolu interpunkcyjnego. Gdy kerning jest włączony, tekst łaciński jest zawsze kerningowany, a opcja ta określa, czy kerningowane są również znaki interpunkcyjne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa unikatowy identyfikator zestawu dokumentów pochodzących ze wspólnego źródła. Możliwe wartości tego atrybutu są definiowane przez </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>ST_Guid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> typ simple</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa, czy podczas drukowania tego dokumentu na jednym arkuszu papieru powinny być drukowane dwie strony. W szczególności ten element określa, że każda strona wyświetlana dla zawartości w danym dokumencie WordprocessingML powinna mieć rozmiar strony określony w ustawieniach sekcji podzielony na pół z dwoma górnymi marginesami pochodzącymi z dwusiecznej strony i dolnymi marginesami utworzonymi u góry i u dołu każdej strony.</t>
-  </si>
-  <si>
-    <t>Określa, że informacje o dacie i godzinie mają być usuwane ze wszystkich adnotacji, które znajdują się w bieżącym dokumencie w momencie jego zapisywania. Adnotacje przechowują te informacje w atrybucie date w elemencie XML adnotacji.</t>
-  </si>
-  <si>
-    <t>Określa, że aplikacje hostujące powinny usuwać wszystkie dane osobowe autorów dokumentów po zapisaniu danego dokumentu WordprocessingML. Definicja i zakres danych osobowych nie są zdefiniowane w normie /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Określa, które formy adnotacji powinny być widoczne dla dokumentu WordprocessingML po jego wyświetleniu. To ustawienie nie ma wpływu na to, czy adnotacje są dodawane, czy utrwalane, ma wpływ tylko na wyświetlanie adnotacji, które istnieją w treści dokumentu (trwałe lub w pamięci).</t>
-  </si>
-  <si>
-    <t>Określa, czy część miniatury dokumentu powinna być generowana dla zawartości pierwszej strony tego dokumentu po zapisaniu przez aplikację obsługującą generowanie miniatur dokumentów.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje mogą zdecydować się na zapisanie miniatury, jednak takie zachowanie nie jest wymagane. Jeżeli ten element jest określony, tworzona jest miniatura, jeżeli ta funkcja jest obsługiwana.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny tworzyć podzbiór czcionek, gdy dla tego dokumentu jest włączone osadzanie czcionek przy użyciu elementu embedTrueTypeFonts (§17.8.3.8). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Podzbiór</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to mechanizm, w którym tylko glify używane w zawartości tego dokumentu WordprocessingML są przechowywane w czcionce osadzonej, aby zapobiec niepotrzebnemu powiększaniu pliku w wyniku użycia niewielkiej liczby glifów z dużej czcionki osadzonej.&lt;p/&gt;Jeśli ten element zostanie pominięty, zestaw czcionek nie powinien być podzbiorem w bieżącym dokumencie, gdy włączona jest czcionka osadzona. Jeśli element embedTrueTypeFonts zostanie pominięty lub </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>będzie fałszywy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, to ustawienie nie będzie miało żadnego wpływu.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa zestaw przestrzeni nazw XML, które zostały skojarzone z zawartością niestandardowych znaczników XML w bieżącym dokumencie Office Open XML. Do każdej unikatowej przestrzeni nazw, do której odwołuje się dokument, można odwoływać się w tym elemencie za pomocą pojedynczego elementu schematu, niezależnie od liczby składowych schematów XML, które składają się na tę przestrzeń nazw.</t>
-  </si>
-  <si>
-    <t>Określa domyślne parametry obiektu przy użyciu składni VML (§14.1) wstawionej w treści (główny wątek dokumentu, komentarze, przypisy dolne i końcowe) dokumentu WordprocessingML. Definicja i semantyka tych parametrów jest opisana w podpunkcie VML - Office Drawing (§14.2) normy /IEC 29500.</t>
-  </si>
-  <si>
-    <t>Określa, że nagłówek wiadomości e-mail ma być wyświetlany po otwarciu tego dokumentu, jeśli nagłówek wiadomości e-mail jest obsługiwany przez aplikację otwierającą plik.</t>
-  </si>
-  <si>
-    <t>Określa, że należy zapewnić pewien wskaźnik wizualny dla lokalizacji początkowej i końcowej niestandardowych znaczników XML obecnych w tym dokumencie, jeśli takie istnieją.</t>
-  </si>
-  <si>
-    <t>Określa, że ścisły zestaw reguł kinsoku ma być stosowany do tekstu japońskiego w tym dokumencie, gdy element kinsoku (§17.3.1.16) jest stosowany do tego tekstu. Wynikowe reguły łamania wierszy są dostępne w elemencie kinsoku.</t>
-  </si>
-  <si>
-    <t>Określa, czy aplikacje powinny uniemożliwiać zastąpienie całego zestawu stylów przechowywanych w części Style podczas edycji tego dokumentu. To ustawienie nie powinno wykluczać edycji lub usuwania poszczególnych stylów, a jedynie uniemożliwiać usuwanie i zastępowanie całej części stylów w jednej operacji (za pomocą interfejsu użytkownika lub operacji programowej).</t>
-  </si>
-  <si>
-    <t>Określa, czy aplikacje mają uniemożliwiać modyfikację informacji o motywie dokumentu przechowywanych w części Motyw podczas edycji tego dokumentu. To ustawienie nie powinno wykluczać korzystania z informacji o motywie, zamiast tego powinno uniemożliwiać modyfikację części motywu w pojedynczej operacji (za pomocą interfejsu użytkownika lub operacji programowej).</t>
-  </si>
-  <si>
-    <t>Określa sortowanie, które powinno być stosowane do listy stylów w tym dokumencie, jeśli style są wyświetlane w interfejsie użytkownika.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa rozmiar automatycznych podsumowań dokumentów wykonywanych na zawartości dokumentu WordprocessingML. Automatyczne </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>podsumowanie dokumentu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to podzbiór tekstu zawartego w dokumencie uznanym przez aplikację hostującą za podsumowujący zawartość dokumentu WordprocessingML. Atrybut val tego elementu określa rozmiar automatycznego podsumowania dokumentu, które ma zostać wykonane na danym dokumencie WordprocessingML jako procent całkowitego rozmiaru danego dokumentu WordprocessingML. Wykonywanie automatycznego podsumowania dokumentu jest operacją wykonawczą wykraczającą poza zakres normy /IEC 29500.</t>
-    </r>
-  </si>
-  <si>
-    <t>Określa język, który ma być używany do określania odpowiednich czcionek motywu w części Motyw dokumentu, które są odwzorowywane na czcionki motywu głównego/pomocniczego. W szczególności atrybut bidi służy do określania czcionki motywu zastosowanej do złożonego tekstu skryptu, atrybut eastAsia służy do określania czcionki motywu zastosowanej do tekstu wschodnioazjatyckiego, a atrybut val służy do określania czcionki motywu zastosowanej do całego innego tekstu.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny śledzić poprawki wprowadzone w dokumencie WordprocessingML. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Poprawki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to zmiany w dokumencie WordprocessingML, które są rejestrowane w taki sposób, że można je przeglądać niezależnie, akceptować lub usuwać i w razie potrzeby przywracać. Gdy poprawki są śledzone, wynikowy znacznik WordprocessingML w podpunkcie Wersje tego dokumentu opisuje niezbędną składnię.</t>
-    </r>
-  </si>
-  <si>
-    <t>Wyłącza funkcje niezgodne z wcześniejszymi formatami edytora tekstu.</t>
-  </si>
-  <si>
-    <t>Określa sposób, w jaki zawartość tego dokumentu powinna być wyświetlana po otwarciu przez aplikację.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa ustawienia ochrony przed zapisem, które zostały zastosowane do dokumentu WordprocessingML. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ochrona przed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> zapisem odnosi się do trybu, w którym nie można edytować zawartości dokumentu, a dokument nie może być ponownie zapisany przy użyciu tej samej nazwy pliku. To ustawienie jest niezależne od elementu documentProtection (§17.15.1.29), ale podobnie jak w przypadku ochrony dokumentów, to ustawienie nie jest przeznaczone jako funkcja zabezpieczeń i można je zignorować.&lt;p/&gt;Jeśli jest obecna, ochrona przed zapisem powinna powodować jedno z dwóch zachowań ochrony przed zapisem:&lt;p/&gt;• Jeśli atrybut hasła jest obecny lub oba atrybuty są pominięte, aplikacja poprosi o podanie hasła, aby zakończyć ochronę przed zapisem. Jeśli podane hasło nie jest zgodne z wartością skrótu w tym atrybucie, należy włączyć ochronę przed zapisem.&lt;p/&gt;• Jeśli obecny jest tylko zalecany atrybut, aplikacja powinna udostępnić interfejs użytkownika zalecający użytkownikowi otwarcie tego dokumentu w stanie chronionym przed zapisem. Jeśli użytkownik zdecyduje się to zrobić, dokument będzie chroniony przed zapisem, w przeciwnym razie zostanie otwarty w pełni edytowalny.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa poziom powiększenia, który powinien być stosowany do dokumentu po jego wyświetleniu przez aplikację. Poziom powiększenia jest określany za pomocą dwóch atrybutów zapisanych na tym elemencie:&lt;p/&gt;• val, w którym przechowywane są informacje o typie powiększenia zastosowanym do dokumentu&lt;p/&gt;• procent, w którym przechowywana jest wartość procentowa powiększenia, która ma być używana podczas renderowania dokumentu&lt;p/&gt;Jeśli oba atrybuty są obecne, atrybut percent jest traktowany jako wartość §zapisana w pamięci podręcznej§ i używany tylko wtedy, gdy dla </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> atrybutu val określono</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> wartość non.&lt;p/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>SettingsDescriptions</t>
-  </si>
-  <si>
-    <t>Grammar checking settings</t>
-  </si>
-  <si>
-    <t>Align paragraph and table borders with page border</t>
-  </si>
-  <si>
-    <t>Do not mark custom XML elements with no namespace as invalid</t>
-  </si>
-  <si>
-    <t>Use custom XML element names as default placeholder text</t>
-  </si>
-  <si>
-    <t>Attached custom XML schema</t>
-  </si>
-  <si>
-    <t>Attached document template</t>
-  </si>
-  <si>
-    <t>Allow automatic formatting to override formatting protection settings</t>
-  </si>
-  <si>
-    <t>Automatically hyphenate document contents when displayed</t>
-  </si>
-  <si>
-    <t>Number of pages per booklet</t>
-  </si>
-  <si>
-    <t>Reverse book fold printing</t>
-  </si>
-  <si>
-    <t>Page border excludes footer</t>
-  </si>
-  <si>
-    <t>Page border excludes header</t>
-  </si>
-  <si>
-    <t>Caption settings</t>
-  </si>
-  <si>
-    <t>Character-level whitespace compression</t>
-  </si>
-  <si>
-    <t>Paragraph style applied to automatically generated paragraphs</t>
-  </si>
-  <si>
-    <t>Theme color mappings</t>
-  </si>
-  <si>
-    <t>Compatibility settings</t>
-  </si>
-  <si>
-    <t>Maximum number of consecutively hyphenated lines</t>
-  </si>
-  <si>
-    <t>Radix point for field code evaluation</t>
-  </si>
-  <si>
-    <t>Default table style for newly inserted tables</t>
-  </si>
-  <si>
-    <t>Distance between automatic tab stops</t>
-  </si>
-  <si>
-    <t>Display background objects when displaying document</t>
-  </si>
-  <si>
-    <t>Distance between horizontal gridlines</t>
-  </si>
-  <si>
-    <t>Distance between vertical gridlines</t>
-  </si>
-  <si>
-    <t>Document editing restrictions</t>
-  </si>
-  <si>
-    <t>Document classification</t>
-  </si>
-  <si>
-    <t>Do not automatically compress images</t>
-  </si>
-  <si>
-    <t>Do not show visual indicator for invalid custom XML markup</t>
-  </si>
-  <si>
-    <t>Do not display visual boundary for header/footer or between pages</t>
-  </si>
-  <si>
-    <t>Do not hyphenate words in all capital letters</t>
-  </si>
-  <si>
-    <t>Do not include content in text boxes, footnotes, and endnotes in document statistics</t>
-  </si>
-  <si>
-    <t>Do not show visual indicator for form fields</t>
-  </si>
-  <si>
-    <t>Do not track formatting revisions when tracking revisions</t>
-  </si>
-  <si>
-    <t>Do not use move syntax when tracking revisions</t>
-  </si>
-  <si>
-    <t>Do not validate custom XML markup against schemas</t>
-  </si>
-  <si>
-    <t>Drawing grid horizontal origin point</t>
-  </si>
-  <si>
-    <t>Drawing grid horizontal grid unit size</t>
-  </si>
-  <si>
-    <t>Drawing grid vertical origin point</t>
-  </si>
-  <si>
-    <t>Drawing grid vertical grid unit size</t>
-  </si>
-  <si>
-    <t>Embed common system fonts</t>
-  </si>
-  <si>
-    <t>Embed truetype fonts</t>
-  </si>
-  <si>
-    <t>Document-wide endnote properties</t>
-  </si>
-  <si>
-    <t>Different even/odd page headers and footers</t>
-  </si>
-  <si>
-    <t>Document-wide footnote properties</t>
-  </si>
-  <si>
-    <t>Upgrade document on open</t>
-  </si>
-  <si>
-    <t>Structured document tag placeholder text should be resaved</t>
-  </si>
-  <si>
-    <t>Position gutter at top of page</t>
-  </si>
-  <si>
-    <t>Do not display visual indication of grammatical errors</t>
-  </si>
-  <si>
-    <t>Do not display visual indication of spelling errors</t>
-  </si>
-  <si>
-    <t>Ignore mixed content when validating custom XML markup</t>
-  </si>
-  <si>
-    <t>Automatically update styles from document template</t>
-  </si>
-  <si>
-    <t>List separator for field code evaluation</t>
-  </si>
-  <si>
-    <t>Mail merge settings</t>
-  </si>
-  <si>
-    <t>Mirror page margins</t>
-  </si>
-  <si>
-    <t>Custom set of characters which cannot end a line</t>
-  </si>
-  <si>
-    <t>Custom set of characters which cannot begin a line</t>
-  </si>
-  <si>
-    <t>Never kern punctuation characters</t>
-  </si>
-  <si>
-    <t>Only print form field content</t>
-  </si>
-  <si>
-    <t>Print fractional character widths</t>
-  </si>
-  <si>
-    <t>Print postscript codes with document text</t>
-  </si>
-  <si>
-    <t>Print two pages per sheet</t>
-  </si>
-  <si>
-    <t>Spelling and grammatical checking state</t>
-  </si>
-  <si>
-    <t>Freeze document layout</t>
-  </si>
-  <si>
-    <t>Remove date and time from annotations</t>
-  </si>
-  <si>
-    <t>Visibility of annotation types</t>
-  </si>
-  <si>
-    <t>Only save form field content</t>
-  </si>
-  <si>
-    <t>Generate thumbnail for document on save</t>
-  </si>
-  <si>
-    <t>Subset fonts when embedding</t>
-  </si>
-  <si>
-    <t>Custom XSL transform to use when saving as XML file</t>
-  </si>
-  <si>
-    <t>Only save custom XML markup</t>
-  </si>
-  <si>
-    <t>Embedded custom XML schema supplementary data</t>
-  </si>
-  <si>
-    <t>Show e-mail message header</t>
-  </si>
-  <si>
-    <t>Use strict kinsoku rules for japanese text</t>
-  </si>
-  <si>
-    <t>Prevent replacement of styles part</t>
-  </si>
-  <si>
-    <t>Prevent modification of themes part</t>
-  </si>
-  <si>
-    <t>Suggested filtering for list of document styles</t>
-  </si>
-  <si>
-    <t>Suggested sorting for list of document styles</t>
-  </si>
-  <si>
-    <t>Percentage of document to use when generating summary</t>
-  </si>
-  <si>
-    <t>Track revisions to document</t>
-  </si>
-  <si>
-    <t>Automatically recalculate fields on open</t>
-  </si>
-  <si>
-    <t>Save document as XML file through custom XSL transform</t>
-  </si>
-  <si>
-    <t>Document view setting</t>
-  </si>
-  <si>
-    <t>Magnification setting</t>
-  </si>
-  <si>
-    <t>Ustawienia sprawdzania gramatyki</t>
-  </si>
-  <si>
-    <t>Wyrównywanie obramowań akapitu i tabeli do obramowania strony</t>
-  </si>
-  <si>
-    <t>Nie oznaczaj niestandardowych elementów XML bez przestrzeni nazw jako nieprawidłowych</t>
-  </si>
-  <si>
-    <t>Używanie niestandardowych nazw elementów XML jako domyślnego tekstu zastępczego</t>
-  </si>
-  <si>
-    <t>Dołączony niestandardowy schemat XML</t>
-  </si>
-  <si>
-    <t>Załączony szablon dokumentu</t>
-  </si>
-  <si>
-    <t>Zezwalaj na zastępowanie ustawień ochrony formatowania automatycznego formatowania</t>
-  </si>
-  <si>
-    <t>Automatyczne dzielenie wyrazów zawartości dokumentu po wyświetleniu</t>
-  </si>
-  <si>
-    <t>Liczba stron w broszurze</t>
-  </si>
-  <si>
-    <t>Drukowanie odwróconego składania książek</t>
-  </si>
-  <si>
-    <t>Obramowanie strony nie obejmuje stopki</t>
-  </si>
-  <si>
-    <t>Obramowanie strony nie obejmuje nagłówka</t>
-  </si>
-  <si>
-    <t>Ustawienia napisów</t>
-  </si>
-  <si>
-    <t>Kompresja białych znaków na poziomie znaku</t>
-  </si>
-  <si>
-    <t>Styl akapitu zastosowany do akapitów generowanych automatycznie</t>
-  </si>
-  <si>
-    <t>Mapowania kolorów motywu</t>
-  </si>
-  <si>
-    <t>Ustawienia zgodności</t>
-  </si>
-  <si>
-    <t>Maksymalna liczba kolejno podzielonych wierszy</t>
-  </si>
-  <si>
-    <t>Punkt podstawy do oceny kodu pola</t>
-  </si>
-  <si>
-    <t>Domyślny styl tabeli dla nowo wstawionych tabel</t>
-  </si>
-  <si>
-    <t>Odległość między automatycznymi zakładkami</t>
-  </si>
-  <si>
-    <t>Wyświetlanie obiektów tła podczas wyświetlania dokumentu</t>
-  </si>
-  <si>
-    <t>Odległość między poziomymi liniami siatki</t>
-  </si>
-  <si>
-    <t>Odległość między pionowymi liniami siatki</t>
-  </si>
-  <si>
-    <t>Ograniczenia edycji dokumentu</t>
-  </si>
-  <si>
-    <t>Klasyfikacja dokumentów</t>
-  </si>
-  <si>
-    <t>Nie kompresuj obrazów automatycznie</t>
-  </si>
-  <si>
-    <t>Nie pokazuj wizualnego wskaźnika dla nieprawidłowych niestandardowych znaczników XML</t>
-  </si>
-  <si>
-    <t>Nie wyświetlaj wizualnej granicy nagłówka/stopki ani między stronami</t>
-  </si>
-  <si>
-    <t>Nie dziel wyrazów wielkimi literami</t>
-  </si>
-  <si>
-    <t>Nie uwzględniaj zawartości pól tekstowych, przypisów dolnych i końcowych w statystykach dokumentu</t>
-  </si>
-  <si>
-    <t>Nie pokazuj wskaźnika wizualnego dla pól formularza</t>
-  </si>
-  <si>
-    <t>Nie śledź poprawek formatowania podczas śledzenia poprawek</t>
-  </si>
-  <si>
-    <t>Nie używaj składni przenoszenia podczas śledzenia poprawek</t>
-  </si>
-  <si>
-    <t>Nie używaj marginesów do rysowania początku siatki</t>
-  </si>
-  <si>
-    <t>Nie weryfikuj niestandardowych znaczników XML względem schematów</t>
-  </si>
-  <si>
-    <t>Poziomy punkt początkowy siatki rysunku</t>
-  </si>
-  <si>
-    <t>Rozmiar jednostki siatki poziomej siatki rysunku</t>
-  </si>
-  <si>
-    <t>Pionowy punkt początkowy siatki rysunku</t>
-  </si>
-  <si>
-    <t>Rozmiar jednostki siatki rysunkowej w pionie</t>
-  </si>
-  <si>
-    <t>Osadzanie typowych czcionek systemowych</t>
-  </si>
-  <si>
-    <t>Osadzanie czcionek truetype</t>
-  </si>
-  <si>
-    <t>Właściwości przypisu końcowego dla całego dokumentu</t>
-  </si>
-  <si>
-    <t>Różne parzyste/nieparzyste nagłówki i stopki stron</t>
-  </si>
-  <si>
-    <t>Właściwości przypisu dolnego dla całego dokumentu</t>
-  </si>
-  <si>
-    <t>Uaktualnij dokument po otwarciu</t>
-  </si>
-  <si>
-    <t>Tekst zastępczy znacznika dokumentu strukturalnego powinien zostać ponownie zapisany</t>
-  </si>
-  <si>
-    <t>Umieść margines na oprawę u góry strony</t>
-  </si>
-  <si>
-    <t>Nie wyświetlaj wizualnego wskazania błędów gramatycznych</t>
-  </si>
-  <si>
-    <t>Nie wyświetlaj wizualnego wskazania błędów ortograficznych</t>
-  </si>
-  <si>
-    <t>Ignoruj zawartość mieszaną podczas sprawdzania poprawności niestandardowych znaczników XML</t>
-  </si>
-  <si>
-    <t>Automatyczne aktualizowanie stylów z szablonu dokumentu</t>
-  </si>
-  <si>
-    <t>Separator listy do oceny kodu pola</t>
-  </si>
-  <si>
-    <t>Ustawienia korespondencji seryjnej</t>
-  </si>
-  <si>
-    <t>Odbicie lustrzane marginesów strony</t>
-  </si>
-  <si>
-    <t>Niestandardowy zestaw znaków, który nie może kończyć wiersza</t>
-  </si>
-  <si>
-    <t>Niestandardowy zestaw znaków, który nie może rozpoczynać wiersza</t>
-  </si>
-  <si>
-    <t>Znaki interpunkcyjne nigdy nie kernowane</t>
-  </si>
-  <si>
-    <t>Drukuj tylko zawartość pola formularza</t>
-  </si>
-  <si>
-    <t>Drukowanie szerokości znaków ułamkowych</t>
-  </si>
-  <si>
-    <t>Drukowanie kodów postscript z tekstem dokumentu</t>
-  </si>
-  <si>
-    <t>Drukowanie dwóch stron na arkuszu</t>
-  </si>
-  <si>
-    <t>Sprawdzanie pisowni i gramatyki</t>
-  </si>
-  <si>
-    <t>Blokowanie układu dokumentu</t>
-  </si>
-  <si>
-    <t>Usuwanie daty i godziny z adnotacji</t>
-  </si>
-  <si>
-    <t>Usuwanie informacji osobistych z właściwości dokumentu</t>
-  </si>
-  <si>
-    <t>Widoczność typów adnotacji</t>
-  </si>
-  <si>
-    <t>Lista wszystkich wartości identyfikatorów zapisu wersji</t>
-  </si>
-  <si>
-    <t>Zapisuj tylko zawartość pola formularza</t>
-  </si>
-  <si>
-    <t>Wygeneruj miniaturę dokumentu przy zapisywaniu</t>
-  </si>
-  <si>
-    <t>Podzbiór czcionek podczas osadzania</t>
-  </si>
-  <si>
-    <t>Niestandardowe przekształcenie XSL do użycia podczas zapisywania jako pliku XML</t>
-  </si>
-  <si>
-    <t>Zapisuj tylko niestandardowe znaczniki XML</t>
-  </si>
-  <si>
-    <t>Osadzone niestandardowe dane uzupełniające schematu XML</t>
-  </si>
-  <si>
-    <t>Pokaż nagłówek wiadomości e-mail</t>
-  </si>
-  <si>
-    <t>Używanie ścisłych reguł kinsoku dla tekstu japońskiego</t>
-  </si>
-  <si>
-    <t>Zapobieganie zamianie części stylów</t>
-  </si>
-  <si>
-    <t>Zapobiegaj modyfikacjom części motywów</t>
-  </si>
-  <si>
-    <t>Sugerowane filtrowanie listy stylów dokumentu</t>
-  </si>
-  <si>
-    <t>Sugerowane sortowanie dla listy stylów dokumentu</t>
-  </si>
-  <si>
-    <t>Procent dokumentu do użycia podczas generowania podsumowania</t>
-  </si>
-  <si>
-    <t>Śledzenie poprawek w dokumencie</t>
-  </si>
-  <si>
-    <t>Automatyczne ponowne obliczanie pól przy otwieraniu</t>
-  </si>
-  <si>
-    <t>Zapisz dokument jako plik XML za pomocą niestandardowego przekształcenia XSL</t>
-  </si>
-  <si>
-    <t>Ustawienia widoku dokumentu</t>
-  </si>
-  <si>
-    <t>Ustawienie powiększenia</t>
-  </si>
-  <si>
-    <t>Datapoint properties and datalabels behavior</t>
-  </si>
-  <si>
-    <t>User was resolving conflicting edits when the document was saved</t>
-  </si>
-  <si>
-    <t>Resolution in dots per inch (DPI) at which images in the document will be saved</t>
-  </si>
-  <si>
-    <t>Cropped-out areas of the images are not to be saved</t>
-  </si>
-  <si>
-    <t>Arbitrary identifier for the context of the paragraph identifiers in the document</t>
-  </si>
-  <si>
-    <t>Default parameters for object using the VML syntax inserted in the header and footer</t>
-  </si>
-  <si>
-    <t>Unique identifier for a set of documents derived from a common source</t>
-  </si>
-  <si>
-    <t>Remove personal information from document properties</t>
-  </si>
-  <si>
-    <t>Listing of all revision save id values</t>
-  </si>
-  <si>
-    <t>Allow saving document as XML file when custom XML markup is invalid</t>
-  </si>
-  <si>
-    <t>Default parameters for object using the VML syntax inserted in the body</t>
-  </si>
-  <si>
-    <t>Show visual indicators for custom XML markup start/end locations</t>
-  </si>
-  <si>
-    <t>User interface compatible with old Word versions</t>
-  </si>
-  <si>
-    <t>Właściwości punktu danych i zachowanie etykiet danych</t>
-  </si>
-  <si>
-    <t>Użytkownik usuwał zmiany powodujące konflikt podczas zapisywania dokumentu</t>
-  </si>
-  <si>
-    <t>Rozdzielczość w punktach na cal (DPI), z jaką zostaną zapisane obrazy w dokumencie</t>
-  </si>
-  <si>
-    <t>Przycięte obszary obrazów nie mogą być zapisywane</t>
-  </si>
-  <si>
-    <t>Dowolny identyfikator dla kontekstu identyfikatorów akapitów w dokumencie</t>
-  </si>
-  <si>
-    <t>Domyślne parametry obiektu korzystającego ze składni VML wstawionej w nagłówku i stopce</t>
-  </si>
-  <si>
-    <t>Niepowtarzalny identyfikator zestawu dokumentów pochodzących ze wspólnego źródła</t>
-  </si>
-  <si>
-    <t>Zezwalaj na zapisywanie dokumentu jako pliku XML, gdy niestandardowe znaczniki XML są nieprawidłowe</t>
-  </si>
-  <si>
-    <t>Domyślne parametry obiektu korzystającego ze składni VML wstawionej w treści</t>
-  </si>
-  <si>
-    <t>Pokazywanie wskaźników wizualnych dla niestandardowych lokalizacji początkowych/końcowych znaczników XML</t>
-  </si>
-  <si>
-    <t>Interfejs użytkownika kompatybilny ze starszymi wersjami Worda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa klasyfikację danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: Ten element może być używany przez aplikacje hostingowe w celu ułatwienia dostosowania interfejsu użytkownika i/lub automatycznego formatowania w oparciu o §typ§ danego dokumentu WordprocessingML. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy zawartość dokumentu zawarta w polach tekstowych, przypisach dolnych i końcowych ma być wykluczana, gdy aplikacja oblicza statystyki danego dokumentu, gdy te wartości są obliczane i/lub wyświetlane przez aplikację.&lt;p/&gt;Uwaga: Oto kilka przykładów statystyk dokumentów, które aplikacja może wybrać do obliczenia: liczba słów, liczba znaków, liczba akapitów, liczba stron, liczba wierszy i tak dalej. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu może być uaktualniana i że jego funkcjonalność dokumentu wynikowego nie może być ograniczona tylko do tych funkcji, które są zgodne z wcześniejszymi edytorami tekstu. Jedynymi czynnościami wymaganymi w ramach uaktualniania dokumentu są:&lt;p/&gt;• Usunięcie tego elementu. Jeśli aplikacja nie wie, jak uaktualnić dokument, ten element powinien zostać zignorowany i utrwalony.&lt;p/&gt;• Usunięcie wszystkich opcji kompatybilności (§17.15.1.21) w dokumencie, które zachowują kompatybilność z poprzednimi edytorami tekstu. Ustawienia kompatybilności, które po prostu wpływają na dane zachowanie, nie mogą być wyłączone.&lt;p/&gt;Uwaga: Pozostałe operacje, które muszą zostać wykonane w ramach aktualizacji dokumentu, są zdefiniowane przez aplikację i nie wchodzą w zakres normy /IEC 29500. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu powinna być drukowana z szerokością ułamkową. Ułamkowe szerokości znaków występują, gdy odstępy między znakami nie są stałe (tj. używany jest proporcjonalny krój czcionki).&lt;p/&gt;Uwaga: Ułamkowe szerokości znaków są zwykle używane w połączeniu z dużymi rozmiarami czcionek, aby zapobiec zbieganiu się znaków lub zbyt dużej odległości między nimi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że kody PostScript określone w dokumentach WordprocessingML zawierających  pola PRINT mają być dołączane na pierwszym planie (w tej samej kolejności Z co tekst) z danymi drukowanymi w treści danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: To ustawienie jest zachowywane w celu zapewnienia zgodności starszych dokumentów edytora tekstu. Pole PRINT nie powinno być używane zamiast nowszych technologii w /IEC 29500. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy aparaty sprawdzania gramatyki i pisowni ostatniej aplikacji, która przetwarzała ten dokument, zakończyły sprawdzanie gramatyki i pisowni dokumentu przed jego ostatnim zapisaniem. Aplikacje, które modyfikują zawartość dokumentu bez sprawdzania pisowni lub gramatyki, powinny w razie potrzeby zresetować te stany.&lt;p/&gt;Uwaga: Jeśli ten element określa, że mechanizmy sprawdzania gramatyki i pisowni aplikacji zakończyły sprawdzanie gramatyki i pisowni dokumentu podczas ostatniego zapisywania dokumentu, kolejne aplikacje mogą zdecydować się nie uruchamiać swoich aparatów sprawdzania gramatyki i pisowni po załadowaniu danego dokumentu WordprocessingML.&lt;p/&gt;Może to zwiększyć szybkość, z jaką aplikacja hostująca ładuje plik i nie wpływa negatywnie na stan sprawdzania gramatyki lub pisowni dokumentu, ponieważ wszystkie błędy zostały już znalezione i oznaczone za pomocą elementu proofErr (§17.13.8.1), ponieważ dokument nie był edytowany, a jedynie załadowany, od czasu ostatniego zapisanego. </t>
-  </si>
-  <si>
-    <t>Określa liczbę jednostek siatki poziomej zdefiniowanych za pomocą elementu drawingGridHorizontalSpacing (§17.15.1.45), która powinna być dozwolona między kolejnymi widocznymi liniami siatki poziomej w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie /IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
-  </si>
-  <si>
-    <t>Określa liczbę pionowych jednostek siatki zdefiniowanych za pomocą elementu drawingGridVerticalSpacing (§17.15.1.47), które powinny być dozwolone między kolejnymi pionowymi liniami siatki w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie /IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
-  </si>
-  <si>
-    <t>Określa rozdzielczość w punktach na cal (DPI), z jaką będą zapisywane obrazy w dokumencie.&lt;p/&gt;To ustawienie jest ignorowane przez obrazy, które mają punkty na cal (DPI) określone przez useLocalDpi. To ustawienie jest również ignorowane, gdy parametr doNotAutoCompressPictures jest ustawiony na wartość "true".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa informacje o parametrach sprawdzania gramatyki, które zostało wykonane na zawartości bieżącego dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Te informacje mogą być używane przez aplikacje w różny sposób, na przykład do określenia, czy bieżący stan sprawdzania gramatyki, określony przez element proofState (§17.15.1.65) jest wystarczający. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że niestandardowy schemat XML, którego docelowa przestrzeń nazw jest zgodna z wartością określoną w atrybucie val, powinien być skojarzony z tym dokumentem podczas ładowania, jeśli taki schemat jest dostępny dla aplikacji hostującej. Aplikacje mogą również ładować i wykorzystywać wszelkie dodatkowe schematy, a także te wyraźnie wymienione w tym miejscu. &lt;p/&gt;Uwaga: Te niestandardowe schematy XML mogą być następnie używane do sprawdzania poprawności struktury niestandardowych znaczników XML w dokumencie itp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa obecność informacji o podpisach w danym dokumencie WordprocessingML. Informacje te są podzielone na dwa komponenty:&lt;p/&gt;• Podpis elementu podrzędnego określa format pojedynczego typu podpisu, który ma być automatycznie dodawany do dokumentu.&lt;p/&gt;• Element podrzędny autoCaptions definiuje typy obiektów, do których format napisów ma być automatycznie stosowany.&lt;p/&gt;Te informacje powinny być używane do określania podpisów, które są automatycznie dodawane do obiektów po ich wstawieniu do dokumentu WordprocessingML. &lt;p/&gt;Uwaga: To ustawienie jest zwykle ignorowane, chyba że jest określone w domyślnym szablonie aplikacji. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, w jaki sposób znaki o pełnej szerokości w bieżącym dokumencie WordprocessingML powinny być kompresowane w celu usunięcia dodatkowych białych znaków podczas wyświetlania zawartości tego dokumentu, w szczególności przez określenie zestawów znaków, które można skompresować w celu usunięcia dodatkowych białych znaków. &lt;p/&gt;Uwaga: Zachowanie tego elementu jest funkcjonalnie identyczne z właściwością text-justify-trim . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa zestaw ograniczeń ochrony dokumentów, które zostały zastosowane do zawartości dokumentu WordprocessingML. Te ograniczenia powinny być wymuszane przez aplikacje edytujące ten dokument, gdy atrybut wymuszania jest włączony i ignorowane (ale utrwalane) w przeciwnym razie. Ochrona dokumentów to zestaw ograniczeń używanych w celu zapobiegania niezamierzonym zmianom w całości lub części dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Ta ochrona nie szyfruje dokumentu, a złośliwe aplikacje mogą obejść jego użycie. Ta ochrona nie jest przeznaczona jako funkcja bezpieczeństwa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy wyniki pól zawartych w tym dokumencie powinny być automatycznie przeliczane na podstawie kodów pól, gdy ten dokument jest otwierany przez aplikację obsługującą obliczenia pól. &lt;p/&gt;Uwaga: Niektóre pola są zawsze przeliczane (np. numeracja stron), dlatego ten element dotyczy tylko pól, które zazwyczaj nie są automatycznie przeliczane po otwarciu dokumentu. Należy również pamiętać, że to ustawienie nie może zastępować żadnych ustawień ochrony dokumentów (§17.15.1.29) ani ochrony przed zapisem (§17.15.1.93). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies information about the parameters of the grammar checking which was performed on the contents of the current WordprocessingML document. &lt;p/&gt;Note: This information can be used as desired by applications; for example, to determine if the current grammar checking state, specified by the proofState element (§17.15.1.65) is sufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that the custom XML schema whose target namespace matches the value specified in the val attribute should be associated with this document when it is loaded, if such a schema is available to the hosting application. Applications can also load and utilize any additional schemas as well as those explicitly mentioned here. &lt;p/&gt;Note: These custom XML schemas can then be used to validate the structure of the custom XML markup in the document, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the presence of information about captionsin a given WordprocessingML document. This information is divided into two components:&lt;p/&gt;• The child element caption defines the format for a single type of caption to be automatically added to the document.&lt;p/&gt;•  The child element autoCaptions defines the types of objects to which a caption format shall automatically be applied.&lt;p/&gt;This information should be used to determine the captions which are automatically added to objects when they are inserted into a WordprocessingML document. &lt;p/&gt;Note: This setting is typically ignored unless it is specified in an application's default template. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies how full-width characters in the current WordprocessingML document should be compressed to remove additional whitespace when the contents of this document are displayed, specifically by specifying the set(s) of characters which can be compressed to remove additional whitespace. &lt;p/&gt;Note: The behavior of this element is functionally identical to the text-justify-trim property. </t>
-  </si>
-  <si>
-    <t>Specifies the number of horizontal grid units defined using the drawingGridHorizontalSpacing element (§17.15.1.45) which shall be allowed between subsequent visible horizontal drawing grid lines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in /IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
-  </si>
-  <si>
-    <t>Specifies the number of vertical grid units defined using the drawingGridVerticalSpacing element (§17.15.1.47) which shall be allowed between subsequent vertical gridlines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in /IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the set of document protection restrictions which have been applied to the contents of a WordprocessingML document. These restrictions should be enforced by applications editing this document when the enforcement attribute is turned on, and ignored (but persisted) otherwise. Document protection is a set of restrictions used to prevent unintentional changes to all or part of a WordprocessingML document. &lt;p/&gt;Note: This protection does not encrypt the document, and malicious applications might circumvent its use. This protection is not intended as a security feature. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether the fields contained in this document should automatically have their field result recalculated from the field codes when this document is opened by an application which supports field calculations. &lt;p/&gt;Note: Some fields are always recalculated (e.g. the page numbering), therefore this element only affects fields which are typically not automatically recalculated on opening the document. Also note that this setting must not supersede any document protection (§17.15.1.29) or write protection (§17.15.1.93) settings. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether formatting automatically applied by an application (i.e. not explicitly applied by a use or an application) shall be allowed to override formatting protection enabled via the formatting attribute on the documentProtection element (§17.15.1.9) when those formatting operations would add formatting which has been explicitly disabled. &lt;p/&gt;Example: Automatically adding superscript to the st in the string 1st. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy formatowanie automatycznie stosowane przez aplikację (tj. niezastosowane jawnie przez użycie lub aplikację) powinno mieć możliwość zastąpienia ochrony formatowania włączonej za pośrednictwem atrybutu formatowania w elemencie documentProtection (§17.15.1.9), gdy te operacje formatowania dodałyby formatowanie, które zostało jawnie wyłączone. &lt;p/&gt;Przykład: Automatyczne dodawanie indeksu górnego do st w ciągu 1st. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether applications displaying this document should display the contents of the header and footer when displaying the document in print layout view (§17.15.1.92) or should collapse those areas as well as the whitespace on all displayed pages so that the text extents are directly following one another. &lt;p/&gt;Rationale: Collapsing the ends of pages makes it easier to read the contents of the document, since the text flows between pages without whitespace, while maintaining the WYSIWYG functionality of print layout view for the document's main content. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that applications shall not track revisions made to this WordprocessingML document as moves when the trackRevisions element (§17.15.1.89) is turned on, even when that syntax is appropriate. Instead, applications should use a standard insertion and deletion annotation syntax. Existing moves shall not be modified. &lt;p/&gt;Rationale: This element is provided to enable interoperability with earlier word processing applications which do not understand moves. </t>
-  </si>
-  <si>
-    <t>Specifies the exact set of page and text sizing parameters which shall be used to display the contents of a WordprocessingML document. &lt;p/&gt;Rationale: This setting is typically used for documents that have been annotated using ink. This setting freezes the document's presentation such that the ink annotations must exist at the same position of the WordprocessingML document irrespective of the monitor on which the WordprocessingML document is rendered. &lt;p/&gt;This element shall only affect the display of WordprocessingML documents as follows:&lt;p/&gt;• When the actualPage attribute is specified with a value of true, the given WordprocessingML document's pages shall be rendered as they would normally be displayed. The resulting pages can have their magnification setting changed as desired. All other attributes shall be ignored.&lt;p/&gt;• When the actualPage attribute is specified with a value of false, the given WordprocessingML document's pages shall be rendered as virtual pages when loaded by a conforming hosting application irrespective of the given WordprocessingML document's view (§17.15.1.92). Virtual pages are pages with no correlation with the printed layout of a given WordprocessingML document that have been scaled by a conforming hosting application to improve the readability of a given WordprocessingML document when it is displayed. Specifically, the w and h attributes specify the width and height of the virtual pages, and the fontSz attribute specifies the scaling to be applied to text within the given WordprocessingML document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy aplikacje wyświetlające ten dokument powinny wyświetlać zawartość nagłówka i stopki podczas wyświetlania dokumentu w widoku układu wydruku (§17.15.1.92), czy też powinny zwijać te obszary, a także białe znaki na wszystkich wyświetlanych stronach, tak aby zakresy tekstu znajdowały się bezpośrednio po sobie. &lt;p/&gt;Uzasadnienie: Zwijanie końców stron ułatwia odczytywanie zawartości dokumentu, ponieważ tekst przepływa między stronami bez białych znaków, przy jednoczesnym zachowaniu funkcji WYSIWYG widoku układu wydruku dla głównej zawartości dokumentu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych do tego dokumentu WordprocessingML podczas ruchu, gdy element trackRevisions (§17.15.1.89) jest włączony, nawet jeśli ta składnia jest odpowiednia. Zamiast tego aplikacje powinny używać standardowej składni adnotacji wstawiania i usuwania. Istniejące ruchy nie mogą być modyfikowane. &lt;p/&gt;Uzasadnienie: Ten element został dostarczony, aby umożliwić interoperacyjność z wcześniejszymi aplikacjami do edycji tekstu, które nie rozumieją ruchów. </t>
-  </si>
-  <si>
-    <t>Określa dokładny zestaw parametrów zmiany rozmiaru strony i tekstu, które mają być używane do wyświetlania zawartości dokumentu WordprocessingML. &lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane w przypadku dokumentów, które zostały opatrzone adnotacjami przy użyciu pisma odręcznego. To ustawienie powoduje zablokowanie prezentacji dokumentu w taki sposób, że adnotacje odręczne muszą znajdować się w tym samym miejscu co dokument WordprocessingML, niezależnie od monitora, na którym jest renderowany dokument WordprocessingML. &lt;p/&gt;Ten element ma wpływ na wyświetlanie dokumentów WordprocessingML tylko w następujący sposób:&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością true, strony danego dokumentu WordprocessingML są renderowane tak, jak normalnie byłyby wyświetlane. Powstałe strony mogą mieć dowolne zmiany ustawień powiększenia. Wszystkie inne atrybuty nie są brane pod uwagę.&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością false, strony danego dokumentu WordprocessingML będą renderowane jako strony wirtualne po załadowaniu przez zgodną aplikację hostingową, niezależnie od widoku danego dokumentu WordprocessingML (§17.15.1.92). Strony wirtualne to strony, które nie są skorelowane z wydrukowanym układem danego dokumentu WordprocessingML, które zostały przeskalowane przez zgodną aplikację hostingową w celu poprawy czytelności danego dokumentu WordprocessingML po jego wyświetleniu. W szczególności atrybuty w i h określają szerokość i wysokość stron wirtualnych, a atrybut fontSz określa skalowanie, które ma zostać zastosowane do tekstu w danym dokumencie WordprocessingML.</t>
-  </si>
-  <si>
-    <r>
-      <t>Określa, że lewy i prawy margines zdefiniowany we właściwościach sekcji mają być zamienione miejscami na stronach sąsiadujących.&lt;p/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wskazówka: To ustawienie jest zwykle używane podczas drukowania na obu stronach stron i oprawiania ich jak książki.</t>
-    </r>
-  </si>
-  <si>
-    <t>Specifies that the left and right margins defined in the section properties shall be swapped on facing pages.&lt;p/&gt;Guidance: This setting is generally used when printing on both sides of pages and binding them like a book.</t>
-  </si>
-  <si>
-    <t>Określa zestaw wartości identyfikatora zapisu poprawki dla bieżącego dokumentu. Wartości identyfikatora zapisu wersji odnoszą się do czterocyfrowych wartości szesnastkowych, które jednoznacznie identyfikują sesję edycji w czasie życia bieżącego dokumentu. Sesja edycji to okres czasu między dwiema kolejnymi operacjami składowania przez aplikację.&lt;p/&gt;Wskazówka: Zestaw identyfikatorów zapisu wersji przechowywanych z dokumentem zawiera tylko informacje o sesji edycji, w której składniki dokumentu zostały ostatnio zapisane, które mogą być używane przez aplikacje w dowolny sposób.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the set of revision save ID values for the current document. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revision save ID values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refer to four digit hexadecimal values which uniquely identify an editing session in the life of the current document. An </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>editing session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the period of time between two subsequent save operations by an application.&lt;p/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
       <t>Guidance</t>
     </r>
     <r>
@@ -3452,24 +3323,6 @@
     </r>
   </si>
   <si>
-    <t>Specifies that this document should be capable of being saved into a format consisting of a single XML file (not defined by /IEC 29500) when its contents are invalid based XML schema validation of the custom XML markup contained in the document. This setting has no effect on documents that do not contain custom XML markup, or that do contain custom XML markup but do not have a schema attached. &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by /IEC 29500, this behavior is optional. &lt;p/&gt;If this element is omitted, then applications should not allow this document to be saved into a single XML file when its contents are invalid based on the custom XML markup contained in the document. If the doNotValidateAgainstSchema element (§17.15.1.43) is set, then the XML is never "invalid" and this property is ignored.</t>
-  </si>
-  <si>
-    <t>Określa, że powinno być możliwe zapisanie tego dokumentu w formacie składającym się z pojedynczego pliku XML (niezdefiniowanego przez /IEC 29500), gdy jego zawartość jest nieprawidłowa na podstawie walidacji schematu XML niestandardowego znacznika XML zawartego w dokumencie. To ustawienie nie ma wpływu na dokumenty, które nie zawierają niestandardowych znaczników XML lub zawierają niestandardowe znaczniki XML, ale nie mają dołączonego schematu. &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez /IEC 29500, to zachowanie jest opcjonalne.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje nie powinny zezwalać na zapisanie tego dokumentu w pojedynczym pliku XML, jeśli jego zawartość jest nieprawidłowa na podstawie niestandardowego znacznika XML zawartego w dokumencie. Jeśli element doNotValidateAgainstSchema (§17.15.1.43) jest ustawiony, kod XML nigdy nie jest "nieprawidłowy" i ta właściwość jest ignorowana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the location of a custom XSL transform which shall be used when this document is saved as a single XML file (in a format not defined by /IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by /IEC 29500, this behavior is optional. </t>
-  </si>
-  <si>
-    <t>Specifies that this document should be saved through the custom XSLT transform defined by the saveThroughXslt element (§17.15.1.76) in this document when it is saved as a single XML file (not defined by /IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by /IEC 29500, this behavior is optional. &lt;p/&gt;If the saveXmlDataOnly element (§17.15.1.77) is specified, then the single XML file to be transformed is the custom XML markup of the document, otherwise, it a format outside the scope of /IEC 29500. If the XSL transform specified by the saveThroughXslt element is not present, then this setting should be ignored.</t>
-  </si>
-  <si>
-    <t>Określa lokalizację niestandardowego przekształcenia XSL, które ma być używane, gdy ten dokument jest zapisywany jako pojedynczy plik XML (w formacie niezdefiniowanym przez /IEC 29500). &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez /IEC 29500, to zachowanie jest opcjonalne.</t>
-  </si>
-  <si>
-    <t>Określa, że ten dokument powinien zostać zapisany za pomocą niestandardowego przekształcenia XSLT zdefiniowanego przez element saveThroughXslt (§17.15.1.76) w tym dokumencie, gdy jest zapisywany jako pojedynczy plik XML (niezdefiniowany przez /IEC 29500). &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez /IEC 29500, to zachowanie jest opcjonalne.&lt;p/&gt;Jeśli określono element saveXmlDataOnly (§17.15.1.77), pojedynczy plik XML do przekształcenia jest niestandardowym znacznikiem XML dokumentu, w przeciwnym razie jest to format spoza zakresu /IEC 29500. Jeśli transformacja XSL określona przez element saveThroughXslt nie jest obecna, to ustawienie powinno zostać zignorowane.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Specifies the character that shall be interpreted as the radix point when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the radix point in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the radix point which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file. </t>
   </si>
   <si>
@@ -3482,9 +3335,6 @@
     <t xml:space="preserve">Specifies if document content contained in text boxes, footnotes, and endnotes shall be excluded when an application calculates a given document’s statistics when these values are calculated and/or displayed by an application.&lt;p/&gt;Note: Some examples of document statistics that an application might chose to calculate are: number of words, number of characters, number of paragraphs, number of pages, number of lines, and so on. </t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that the contents of this document can be upgraded and that the resulting document shall not have its functionality limited to only those functions compatible with earlier word processing applications. The only actions required as part of upgrading the document are:&lt;p/&gt;• The removal of this element. If an application does not know how to upgrade a document, this element should be ignored and persisted.&lt;p/&gt;• The removal of all compatibility options (§17.15.1.21) on the document which maintain compatibility with previous word processing applications. The compatibility settings which simply affect a given behavior shall not be turned off.&lt;p/&gt;Note: The remaining operations which must be performed as part of upgrading the document are application-defined and outside the scope of /IEC 29500. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Specifies the character that shall be interpreted as a list item separator when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the list separator in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the list separator which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file. </t>
   </si>
   <si>
@@ -3500,22 +3350,109 @@
     <t xml:space="preserve">Specifies the contents of this document shall be printed with fractional character widths. Fractional character widths exist when the spacing between characters is not constant (i.e. a proportional font face is used).&lt;p/&gt;Note: Fractional character widths are generally used in conjunction with large font sizes to prevent characters from running together or having too much space between one another. </t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that the PostScript codes specified in WordprocessingML documents containing PRINT fields shall be included in foreground (on the same Z-order as text) with the data printed in the contents of a given WordprocessingML document.&lt;p/&gt;Note: This setting is maintained to ensure compatibility of legacy word processing documents. The PRINT field should not be used in lieu of newer technologies in /IEC 29500. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Specifies if the grammar and spell checking engines of the last application to process this document completed checking the grammar and spelling of a the document before the document was last saved. Applications which modify the document contents without checking spelling or grammar should reset these states as needed.&lt;p/&gt;Note: If this element specifies that an application's grammar and spell checking engines completed checking the grammar and spelling of the document when the document was last saved, then subsequent applications might elect to not run their grammar and spell checking engines when the given WordprocessingML document is loaded.&lt;p/&gt;This might increase the speed with which the hosting application loads the file, and does not compromise the state of the grammar or spell checking of the document, as all errors have already been found and flagged with the proofErr element (§17.13.8.1) as the document has not been edited, only loaded, since it was last saved. </t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that saving the contents of this document shall only save the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in a comma-delimited text format which does not conform to /IEC 29500 (i.e. it is a one-way export from a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting content to be extracted as a comma-delimited text file. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zapisanie zawartości tego dokumentu spowoduje zapisanie tylko zawartości pól formularza WordprocessingML zdefiniowanych przy użyciu  kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w formacie tekstowym rozdzielanym przecinkami, który nie jest zgodny z normą /IEC 29500 (tj. jest to jednokierunkowy eksport z dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wyodrębnienie wynikowej zawartości jako pliku tekstowego rozdzielanego przecinkami. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that the contents of this document shall be saved as an XML file containing only the custom XML markup in this document in its regular form. The resulting document does not conform to /IEC 29500 (i.e. this is an export-only save option for a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to extract custom XML markup from a WordprocessingML document for further processing by XML-enabled applications. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu zostanie zapisana jako plik XML zawierający tylko niestandardowe znaczniki XML w tym dokumencie w jego zwykłej formie. Wynikowy dokument nie jest zgodny z normą /IEC 29500 (tj. jest to opcja zapisywania tylko do eksportu dla dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane do wyodrębniania niestandardowych znaczników XML z dokumentu WordprocessingML w celu dalszego przetwarzania przez aplikacje obsługujące XML. </t>
+    <t>Specifies the number of horizontal grid units defined using the drawingGridHorizontalSpacing element (§17.15.1.45) which shall be allowed between subsequent visible horizontal drawing grid lines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
+  </si>
+  <si>
+    <t>Określa liczbę jednostek siatki poziomej zdefiniowanych za pomocą elementu drawingGridHorizontalSpacing (§17.15.1.45), która powinna być dozwolona między kolejnymi widocznymi liniami siatki poziomej w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie IEEE/IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
+  </si>
+  <si>
+    <t>Specifies the number of vertical grid units defined using the drawingGridVerticalSpacing element (§17.15.1.47) which shall be allowed between subsequent vertical gridlines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
+  </si>
+  <si>
+    <t>Określa liczbę pionowych jednostek siatki zdefiniowanych za pomocą elementu drawingGridVerticalSpacing (§17.15.1.47), które powinny być dozwolone między kolejnymi pionowymi liniami siatki w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie IEEE/IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
+  </si>
+  <si>
+    <t>Specifies that applications shall embed common system fonts when they are in use and font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). Common system fonts refer to a set of fonts which are typically always present on a machine, and are not defined by IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that the contents of this document can be upgraded and that the resulting document shall not have its functionality limited to only those functions compatible with earlier word processing applications. The only actions required as part of upgrading the document are:&lt;p/&gt;• The removal of this element. If an application does not know how to upgrade a document, this element should be ignored and persisted.&lt;p/&gt;• The removal of all compatibility options (§17.15.1.21) on the document which maintain compatibility with previous word processing applications. The compatibility settings which simply affect a given behavior shall not be turned off.&lt;p/&gt;Note: The remaining operations which must be performed as part of upgrading the document are application-defined and outside the scope of IEEE/IEC 29500. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że zawartość tego dokumentu może być uaktualniana i że jego funkcjonalność dokumentu wynikowego nie może być ograniczona tylko do tych funkcji, które są zgodne z wcześniejszymi edytorami tekstu. Jedynymi czynnościami wymaganymi w ramach uaktualniania dokumentu są:&lt;p/&gt;• Usunięcie tego elementu. Jeśli aplikacja nie wie, jak uaktualnić dokument, ten element powinien zostać zignorowany i utrwalony.&lt;p/&gt;• Usunięcie wszystkich opcji kompatybilności (§17.15.1.21) w dokumencie, które zachowują kompatybilność z poprzednimi edytorami tekstu. Ustawienia kompatybilności, które po prostu wpływają na dane zachowanie, nie mogą być wyłączone.&lt;p/&gt;Uwaga: Pozostałe operacje, które muszą zostać wykonane w ramach aktualizacji dokumentu, są zdefiniowane przez aplikację i nie wchodzą w zakres normy IEEE/IEC 29500. </t>
+  </si>
+  <si>
+    <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the header and footer of a WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa domyślne parametry obiektu przy użyciu składni VML (§14.1) wstawionej w nagłówku i stopce dokumentu WordprocessingML. Definicja i semantyka tych parametrów jest opisana w podpunkcie VML - Office Drawing (§14.2) normy IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies the set of characters which shall be restricted from ending a line for runs of text which shall be subject to custom line breaking logic using the kinsoku element (§17.3.1.16) when the contents of the document are displayed. This constraint shall only apply to text which has been flagged in the language of this rule via the lang element (§17.3.2.20) or automatic detection methods outside the scope of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa zestaw znaków, który nie może kończyć wiersza dla ciągów tekstu, które podlegają niestandardowej logice dzielenia wierszy przy użyciu elementu kinsoku (§17.3.1.16) podczas wyświetlania zawartości dokumentu. To ograniczenie ma zastosowanie tylko do tekstu, który został oznaczony w języku tej reguły za pomocą elementu lang (§17.3.2.20) lub metod automatycznego wykrywania poza zakresem IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies the set of characters which shall be restricted from beginning a new line for runs of text which shall be subject to custom line breaking logic using the kinsoku element (§17.3.1.16) when the contents of the document are displayed. This constraint shall only apply to text which has been flagged in the language of this rule via the lang element (§17.3.2.20) or automatic detection methods outside the scope of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa zestaw znaków, który powinien być ograniczony od początku nowego wiersza dla przebiegów tekstu, które podlegają niestandardowej logice dzielenia wierszy przy użyciu elementu kinsoku (§17.3.1.16) podczas wyświetlania zawartości dokumentu. To ograniczenie ma zastosowanie tylko do tekstu, który został oznaczony w języku tej reguły za pomocą elementu lang (§17.3.2.20) lub metod automatycznego wykrywania poza zakresem IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that the PostScript codes specified in WordprocessingML documents containing PRINT fields shall be included in foreground (on the same Z-order as text) with the data printed in the contents of a given WordprocessingML document.&lt;p/&gt;Note: This setting is maintained to ensure compatibility of legacy word processing documents. The PRINT field should not be used in lieu of newer technologies in IEEE/IEC 29500. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że kody PostScript określone w dokumentach WordprocessingML zawierających  pola PRINT mają być dołączane na pierwszym planie (w tej samej kolejności Z co tekst) z danymi drukowanymi w treści danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: To ustawienie jest zachowywane w celu zapewnienia zgodności starszych dokumentów edytora tekstu. Pole PRINT nie powinno być używane zamiast nowszych technologii w IEEE/IEC 29500. </t>
+  </si>
+  <si>
+    <t>Specifies that hosting applications shall remove all personal information of document authors upon saving a given WordprocessingML document. The definition and extent of personal information is not defined by IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje hostujące powinny usuwać wszystkie dane osobowe autorów dokumentów po zapisaniu danego dokumentu WordprocessingML. Definicja i zakres danych osobowych nie są zdefiniowane w normie IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that saving the contents of this document shall only save the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in a comma-delimited text format which does not conform to IEEE/IEC 29500 (i.e. it is a one-way export from a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting content to be extracted as a comma-delimited text file. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że zapisanie zawartości tego dokumentu spowoduje zapisanie tylko zawartości pól formularza WordprocessingML zdefiniowanych przy użyciu  kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w formacie tekstowym rozdzielanym przecinkami, który nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to jednokierunkowy eksport z dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wyodrębnienie wynikowej zawartości jako pliku tekstowego rozdzielanego przecinkami. </t>
+  </si>
+  <si>
+    <t>Specifies that this document should be capable of being saved into a format consisting of a single XML file (not defined by IEEE/IEC 29500) when its contents are invalid based XML schema validation of the custom XML markup contained in the document. This setting has no effect on documents that do not contain custom XML markup, or that do contain custom XML markup but do not have a schema attached. &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional. &lt;p/&gt;If this element is omitted, then applications should not allow this document to be saved into a single XML file when its contents are invalid based on the custom XML markup contained in the document. If the doNotValidateAgainstSchema element (§17.15.1.43) is set, then the XML is never "invalid" and this property is ignored.</t>
+  </si>
+  <si>
+    <t>Określa, że powinno być możliwe zapisanie tego dokumentu w formacie składającym się z pojedynczego pliku XML (niezdefiniowanego przez IEEE/IEC 29500), gdy jego zawartość jest nieprawidłowa na podstawie walidacji schematu XML niestandardowego znacznika XML zawartego w dokumencie. To ustawienie nie ma wpływu na dokumenty, które nie zawierają niestandardowych znaczników XML lub zawierają niestandardowe znaczniki XML, ale nie mają dołączonego schematu. &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez IEEE/IEC 29500, to zachowanie jest opcjonalne.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje nie powinny zezwalać na zapisanie tego dokumentu w pojedynczym pliku XML, jeśli jego zawartość jest nieprawidłowa na podstawie niestandardowego znacznika XML zawartego w dokumencie. Jeśli element doNotValidateAgainstSchema (§17.15.1.43) jest ustawiony, kod XML nigdy nie jest "nieprawidłowy" i ta właściwość jest ignorowana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the location of a custom XSL transform which shall be used when this document is saved as a single XML file (in a format not defined by IEEE/IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional. </t>
+  </si>
+  <si>
+    <t>Określa lokalizację niestandardowego przekształcenia XSL, które ma być używane, gdy ten dokument jest zapisywany jako pojedynczy plik XML (w formacie niezdefiniowanym przez IEEE/IEC 29500). &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez IEEE/IEC 29500, to zachowanie jest opcjonalne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that the contents of this document shall be saved as an XML file containing only the custom XML markup in this document in its regular form. The resulting document does not conform to IEEE/IEC 29500 (i.e. this is an export-only save option for a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to extract custom XML markup from a WordprocessingML document for further processing by XML-enabled applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa, że zawartość tego dokumentu zostanie zapisana jako plik XML zawierający tylko niestandardowe znaczniki XML w tym dokumencie w jego zwykłej formie. Wynikowy dokument nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to opcja zapisywania tylko do eksportu dla dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane do wyodrębniania niestandardowych znaczników XML z dokumentu WordprocessingML w celu dalszego przetwarzania przez aplikacje obsługujące XML. </t>
+  </si>
+  <si>
+    <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the body (the main document story, comments, footnotes, and endnotes) of the WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa domyślne parametry obiektu przy użyciu składni VML (§14.1) wstawionej w treści (główny wątek dokumentu, komentarze, przypisy dolne i końcowe) dokumentu WordprocessingML. Definicja i semantyka tych parametrów jest opisana w podpunkcie VML - Office Drawing (§14.2) normy IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies the size for automatic document summaries performed on the content of a WordprocessingML document. An automatic document summary is a subset of text contained in a document deemed by the hosting application to summarize the content of the WordprocessingML document. The val attribute of this element specifies the size of an automatic document summary to be performed on a given WordprocessingML document as a percentage of the total size of the given WordprocessingML document. Performing an automatic document summary is a runtime operation outside the scope of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa rozmiar automatycznych podsumowań dokumentów wykonywanych na zawartości dokumentu WordprocessingML. Automatyczne podsumowanie dokumentu to podzbiór tekstu zawartego w dokumencie uznanym przez aplikację hostującą za podsumowujący zawartość dokumentu WordprocessingML. Atrybut val tego elementu określa rozmiar automatycznego podsumowania dokumentu, które ma zostać wykonane na danym dokumencie WordprocessingML jako procent całkowitego rozmiaru danego dokumentu WordprocessingML. Wykonywanie automatycznego podsumowania dokumentu jest operacją wykonawczą wykraczającą poza zakres normy IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies that this document should be saved through the custom XSLT transform defined by the saveThroughXslt element (§17.15.1.76) in this document when it is saved as a single XML file (not defined by IEEE/IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional. &lt;p/&gt;If the saveXmlDataOnly element (§17.15.1.77) is specified, then the single XML file to be transformed is the custom XML markup of the document, otherwise, it a format outside the scope of IEEE/IEC 29500. If the XSL transform specified by the saveThroughXslt element is not present, then this setting should be ignored.</t>
+  </si>
+  <si>
+    <t>Określa, że ten dokument powinien zostać zapisany za pomocą niestandardowego przekształcenia XSLT zdefiniowanego przez element saveThroughXslt (§17.15.1.76) w tym dokumencie, gdy jest zapisywany jako pojedynczy plik XML (niezdefiniowany przez IEEE/IEC 29500). &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez IEEE/IEC 29500, to zachowanie jest opcjonalne.&lt;p/&gt;Jeśli określono element saveXmlDataOnly (§17.15.1.77), pojedynczy plik XML do przekształcenia jest niestandardowym znacznikiem XML dokumentu, w przeciwnym razie jest to format spoza zakresu IEEE/IEC 29500. Jeśli transformacja XSL określona przez element saveThroughXslt nie jest obecna, to ustawienie powinno zostać zignorowane.</t>
+  </si>
+  <si>
+    <t>W przypadku wartości true określa, że przycięte obszary obrazów nie mają być zapisywane. Zapisane obrazy są raczej wynikiem zastosowania imgProps na oryginalnych obrazach. &lt;p/&gt;Jeśli ten element jest nieobecny lub ma wartość "false", przycięte obszary obrazów są zapisywane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Określa klasyfikację danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: Ten element może być używany przez aplikacje hostingowe w celu ułatwienia dostosowania interfejsu użytkownika i/lub automatycznego formatowania w oparciu o "typ" danego dokumentu WordprocessingML. </t>
+  </si>
+  <si>
+    <t>Zapisywanie tylko danych XML</t>
   </si>
 </sst>
 </file>
@@ -3968,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E202" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G205" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -4035,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -4052,7 +3989,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -4069,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -4086,7 +4023,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4103,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -4120,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4137,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -4154,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -4171,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -4180,7 +4117,7 @@
         <v>122</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4188,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -4197,7 +4134,7 @@
         <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,7 +4142,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
@@ -4222,7 +4159,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
@@ -4239,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -4256,7 +4193,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -4273,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
@@ -4290,7 +4227,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -4307,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -4324,7 +4261,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -4341,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>30</v>
@@ -4358,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -4375,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>32</v>
@@ -4392,7 +4329,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
@@ -4409,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>34</v>
@@ -4426,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
@@ -4443,7 +4380,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -4460,16 +4397,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4477,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -4494,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>39</v>
@@ -4511,7 +4448,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -4528,7 +4465,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -4545,7 +4482,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>41</v>
@@ -4562,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
@@ -4579,7 +4516,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>43</v>
@@ -4596,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -4613,7 +4550,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -4630,7 +4567,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>46</v>
@@ -4647,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -4664,7 +4601,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>48</v>
@@ -4681,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -4698,7 +4635,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>50</v>
@@ -4715,16 +4652,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,7 +4669,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>52</v>
@@ -4749,7 +4686,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>53</v>
@@ -4758,7 +4695,7 @@
         <v>151</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4766,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -4783,16 +4720,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4800,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -4817,7 +4754,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>57</v>
@@ -4834,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -4851,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>59</v>
@@ -4860,7 +4797,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>60</v>
@@ -4885,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -4894,7 +4831,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4902,7 +4839,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>62</v>
@@ -4919,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>63</v>
@@ -4936,7 +4873,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>64</v>
@@ -4945,7 +4882,7 @@
         <v>161</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4953,7 +4890,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -4970,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>66</v>
@@ -4987,7 +4924,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>67</v>
@@ -5004,7 +4941,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>68</v>
@@ -5021,7 +4958,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>69</v>
@@ -5038,7 +4975,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -5055,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -5072,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>72</v>
@@ -5089,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>73</v>
@@ -5106,7 +5043,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>74</v>
@@ -5123,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
@@ -5140,7 +5077,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>76</v>
@@ -5157,7 +5094,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
@@ -5174,7 +5111,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>78</v>
@@ -5191,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>79</v>
@@ -5208,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>80</v>
@@ -5225,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>81</v>
@@ -5234,7 +5171,7 @@
         <v>177</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5242,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>82</v>
@@ -5259,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>83</v>
@@ -5276,7 +5213,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>84</v>
@@ -5293,7 +5230,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>85</v>
@@ -5310,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>86</v>
@@ -5327,7 +5264,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>87</v>
@@ -5344,7 +5281,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -5361,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>89</v>
@@ -5378,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>90</v>
@@ -5395,7 +5332,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>91</v>
@@ -5412,7 +5349,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>92</v>
@@ -5429,16 +5366,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5446,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>94</v>
@@ -5455,7 +5392,7 @@
         <v>188</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>276</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5463,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>95</v>
@@ -5472,7 +5409,7 @@
         <v>189</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5480,7 +5417,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>96</v>
@@ -5489,7 +5426,7 @@
         <v>190</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5497,7 +5434,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
@@ -5506,7 +5443,7 @@
         <v>191</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,16 +5451,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5531,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>99</v>
@@ -5540,7 +5477,7 @@
         <v>192</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5548,7 +5485,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>100</v>
@@ -5557,7 +5494,7 @@
         <v>193</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5565,7 +5502,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>101</v>
@@ -5574,7 +5511,7 @@
         <v>194</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5582,7 +5519,7 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>102</v>
@@ -5591,7 +5528,7 @@
         <v>195</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,7 +5536,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>103</v>
@@ -5608,7 +5545,7 @@
         <v>196</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>104</v>
@@ -5625,7 +5562,7 @@
         <v>197</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5633,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>105</v>
@@ -5642,7 +5579,7 @@
         <v>198</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5650,7 +5587,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>106</v>
@@ -5659,7 +5596,7 @@
         <v>199</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5667,7 +5604,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>107</v>
@@ -5676,7 +5613,7 @@
         <v>200</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5684,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -5693,7 +5630,7 @@
         <v>201</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5701,16 +5638,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,7 +5655,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>110</v>
@@ -5727,7 +5664,7 @@
         <v>110</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5735,7 +5672,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>111</v>
@@ -5744,7 +5681,7 @@
         <v>202</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5752,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>112</v>
@@ -5761,15 +5698,15 @@
         <v>112</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>12</v>
@@ -5778,10 +5715,10 @@
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -5789,16 +5726,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5806,16 +5743,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5823,16 +5760,16 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5840,16 +5777,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5857,33 +5794,33 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5891,16 +5828,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -5908,16 +5845,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5925,16 +5862,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5942,16 +5879,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5959,16 +5896,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5976,16 +5913,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5993,16 +5930,16 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6010,16 +5947,16 @@
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6027,16 +5964,16 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6044,16 +5981,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6061,16 +5998,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6078,16 +6015,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6095,16 +6032,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6112,16 +6049,16 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6129,16 +6066,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6146,16 +6083,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6163,16 +6100,16 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6180,16 +6117,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6197,16 +6134,16 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>406</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6214,16 +6151,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6231,16 +6168,16 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6248,16 +6185,16 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6265,16 +6202,16 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6282,33 +6219,33 @@
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6316,16 +6253,16 @@
         <v>7</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6333,16 +6270,16 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6350,16 +6287,16 @@
         <v>7</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -6367,16 +6304,16 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6384,16 +6321,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6401,16 +6338,16 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6418,16 +6355,16 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6435,16 +6372,16 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6452,16 +6389,16 @@
         <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6469,16 +6406,16 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6486,16 +6423,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6503,16 +6440,16 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6520,16 +6457,16 @@
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6537,16 +6474,16 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6554,16 +6491,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6571,16 +6508,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>348</v>
+        <v>682</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6588,16 +6525,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6605,16 +6542,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="270" x14ac:dyDescent="0.25">
@@ -6622,16 +6559,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6639,16 +6576,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -6656,16 +6593,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -6673,16 +6610,16 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -6690,16 +6627,16 @@
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6707,16 +6644,16 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>355</v>
+        <v>685</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>428</v>
+        <v>686</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6724,16 +6661,16 @@
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6741,16 +6678,16 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -6758,16 +6695,16 @@
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6775,16 +6712,16 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6792,16 +6729,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6809,16 +6746,16 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -6826,16 +6763,16 @@
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6843,16 +6780,16 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6860,16 +6797,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6877,16 +6814,16 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>363</v>
+        <v>687</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>436</v>
+        <v>688</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6894,16 +6831,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>364</v>
+        <v>689</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>437</v>
+        <v>690</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -6911,16 +6848,16 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6928,33 +6865,33 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6962,33 +6899,33 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6996,16 +6933,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -7013,16 +6950,16 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -7030,16 +6967,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7047,16 +6984,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7064,16 +7001,16 @@
         <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>369</v>
+        <v>693</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>442</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7081,16 +7018,16 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -7098,33 +7035,33 @@
         <v>7</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -7132,16 +7069,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7149,16 +7086,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -7166,16 +7103,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7183,16 +7120,16 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -7200,16 +7137,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7217,16 +7154,16 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7234,16 +7171,16 @@
         <v>7</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>374</v>
+        <v>703</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>447</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7251,16 +7188,16 @@
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7268,16 +7205,16 @@
         <v>7</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7285,16 +7222,16 @@
         <v>7</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7302,16 +7239,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7319,16 +7256,16 @@
         <v>7</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7336,16 +7273,16 @@
         <v>7</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7353,16 +7290,16 @@
         <v>7</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -7370,16 +7307,16 @@
         <v>7</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>381</v>
+        <v>705</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>454</v>
+        <v>706</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -7387,16 +7324,16 @@
         <v>7</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -7404,16 +7341,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -7421,16 +7358,16 @@
         <v>7</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -7438,16 +7375,16 @@
         <v>7</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -7455,16 +7392,16 @@
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7472,16 +7409,16 @@
         <v>7</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="240" x14ac:dyDescent="0.25">
@@ -7489,16 +7426,16 @@
         <v>7</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7506,16 +7443,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7523,16 +7460,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7540,16 +7477,16 @@
         <v>7</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7557,16 +7494,16 @@
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7574,16 +7511,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7591,16 +7528,16 @@
         <v>7</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7608,16 +7545,16 @@
         <v>7</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7625,16 +7562,16 @@
         <v>7</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7642,16 +7579,16 @@
         <v>7</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7659,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>20</v>
@@ -7676,16 +7613,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7693,16 +7630,16 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7710,16 +7647,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7727,16 +7664,16 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7744,16 +7681,16 @@
         <v>7</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7761,16 +7698,16 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7778,16 +7715,16 @@
         <v>7</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7795,16 +7732,16 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7812,16 +7749,16 @@
         <v>7</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7829,16 +7766,16 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7846,16 +7783,16 @@
         <v>7</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7863,16 +7800,16 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7880,16 +7817,16 @@
         <v>7</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7897,16 +7834,16 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7914,16 +7851,16 @@
         <v>7</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7931,16 +7868,16 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7948,16 +7885,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7965,16 +7902,16 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7982,16 +7919,16 @@
         <v>7</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7999,16 +7936,16 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8016,16 +7953,16 @@
         <v>7</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8033,16 +7970,16 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8050,16 +7987,16 @@
         <v>7</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8067,7 +8004,7 @@
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>42</v>
@@ -8084,16 +8021,16 @@
         <v>7</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8101,16 +8038,16 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8118,16 +8055,16 @@
         <v>7</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8135,16 +8072,16 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8152,16 +8089,16 @@
         <v>7</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8169,16 +8106,16 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8186,16 +8123,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8203,16 +8140,16 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8220,16 +8157,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8237,16 +8174,16 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8254,16 +8191,16 @@
         <v>7</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8271,16 +8208,16 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8288,16 +8225,16 @@
         <v>7</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8305,16 +8242,16 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8322,16 +8259,16 @@
         <v>7</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8339,16 +8276,16 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8356,16 +8293,16 @@
         <v>7</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8373,16 +8310,16 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8390,16 +8327,16 @@
         <v>7</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8407,16 +8344,16 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8424,16 +8361,16 @@
         <v>7</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8441,16 +8378,16 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8458,16 +8395,16 @@
         <v>7</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8475,16 +8412,16 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8492,16 +8429,16 @@
         <v>7</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8509,7 +8446,7 @@
         <v>7</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>68</v>
@@ -8526,16 +8463,16 @@
         <v>7</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8543,16 +8480,16 @@
         <v>7</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8560,16 +8497,16 @@
         <v>7</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8577,16 +8514,16 @@
         <v>7</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8594,7 +8531,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>73</v>
@@ -8611,16 +8548,16 @@
         <v>7</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8628,16 +8565,16 @@
         <v>7</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8645,16 +8582,16 @@
         <v>7</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8662,16 +8599,16 @@
         <v>7</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8679,16 +8616,16 @@
         <v>7</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8696,16 +8633,16 @@
         <v>7</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8713,16 +8650,16 @@
         <v>7</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8730,16 +8667,16 @@
         <v>7</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8747,16 +8684,16 @@
         <v>7</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8764,16 +8701,16 @@
         <v>7</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8781,16 +8718,16 @@
         <v>7</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8798,16 +8735,16 @@
         <v>7</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8815,16 +8752,16 @@
         <v>7</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8832,16 +8769,16 @@
         <v>7</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8849,16 +8786,16 @@
         <v>7</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8866,16 +8803,16 @@
         <v>7</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8883,16 +8820,16 @@
         <v>7</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8900,16 +8837,16 @@
         <v>7</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8917,16 +8854,16 @@
         <v>7</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8934,16 +8871,16 @@
         <v>7</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8951,16 +8888,16 @@
         <v>7</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8968,16 +8905,16 @@
         <v>7</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8985,16 +8922,16 @@
         <v>7</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9002,16 +8939,16 @@
         <v>7</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9019,16 +8956,16 @@
         <v>7</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9036,16 +8973,16 @@
         <v>7</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9053,16 +8990,16 @@
         <v>7</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9070,16 +9007,16 @@
         <v>7</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9087,16 +9024,16 @@
         <v>7</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9104,16 +9041,16 @@
         <v>7</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9121,16 +9058,16 @@
         <v>7</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9138,7 +9075,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>105</v>
@@ -9147,7 +9084,7 @@
         <v>198</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9155,16 +9092,16 @@
         <v>7</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9172,16 +9109,16 @@
         <v>7</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9189,16 +9126,16 @@
         <v>7</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9206,16 +9143,16 @@
         <v>7</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9223,16 +9160,16 @@
         <v>7</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9240,7 +9177,7 @@
         <v>7</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>111</v>
@@ -9249,7 +9186,7 @@
         <v>202</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9257,16 +9194,16 @@
         <v>7</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Qhta.OpenXmlTools/SettingsStrings.xlsx
+++ b/Qhta.OpenXmlTools/SettingsStrings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.OpenXmlTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A34097-05A0-4596-B9C7-7997C702F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2001CD-E95B-45E5-BD94-9DE3E9B19DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="712">
   <si>
     <t>Project</t>
   </si>
@@ -920,9 +920,6 @@
     <t>Wyświetlanie kształtu tła</t>
   </si>
   <si>
-    <t xml:space="preserve">Właściwości przypisów końcowych </t>
-  </si>
-  <si>
     <t>Właściwości przypisów dolnych</t>
   </si>
   <si>
@@ -935,12 +932,6 @@
     <t>Do not use margins for drawing grid origin</t>
   </si>
   <si>
-    <t>Początek  wsp. poziomych siatki rysunku</t>
-  </si>
-  <si>
-    <t>Początek  wsp. pionowych siatki rysunku</t>
-  </si>
-  <si>
     <t>Pomiń marginesy na początku siatki rysunku</t>
   </si>
   <si>
@@ -968,12 +959,6 @@
     <t>Użyj XSLT podczas zapisywania</t>
   </si>
   <si>
-    <t>SettingsTooltips</t>
-  </si>
-  <si>
-    <t>SettingsNames</t>
-  </si>
-  <si>
     <t>Specifies that paragraph borders specified using the pBdr element (§17.3.1.24) and table borders using the tblBorders element (§17.4.40) shall be adjusted to align with extents of the page border defined using the pgBorders element (§17.6.10) if the spacing between these borders is less than or equal to 10.5 points (one character width) or less from the page border. The presence of this setting shall ensure there are no gaps of one character width or less between adjoining page and paragraph/table borders, as borders which are perfectly aligning shall not be displayed in favor of the intervening page border.</t>
   </si>
   <si>
@@ -983,133 +968,15 @@
     <t>Specifies that each custom XML element specified using the customXml element within this document shall always show some form of in-document placeholder text presentation when it contains no run content. If the placeholder element (§17.5.2.25) is present in the custom XML element's properties, then this is the placeholder text displayed and this effect has no effect. If the placeholder element is omitted, then the application shall use the name of the element to generate default placeholder text in its place.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the location of a document template which shall be attached to the current WordprocessingML document if it is accessible and of a format supported by an application. Specifically, this element's </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>val</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> attribute shall contain the file path of the associated document template.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies whether the content of a given WordprocessingML document should automatically be hyphenated by the hosting application before it is displayed, if the application supports this functionality.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies if the contents of a given WordprocessingML document should be printed as signatures. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Signatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> are printed </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>sheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, which depict several pages of a document that are folded and bound with other signatures to form a booklet, a set of which can be bound together to form a book like publication. Specifically, this element specifies that each page in a given WordprocessingML document should be oriented in a landscape fashion, divided in half vertically with two left margins emanating from the bisector of the page, and two right margins instantiated at the left and right side of each page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This element shall be used in conjunction with the bookFoldPrinting (§17.15.1.11) and bookFoldRevPrinting (§17.15.1.13) elements to specify the number of pages to be included in each booklet when printing a series of signatures. Signatures are printed </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>sheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, which depict several pages of a document that are to be folded and bound with other signatures to form a booklet. Booklets can be bound together to form a book like publication.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shall be used in conjunction with the bookFoldPrinting (§17.15.1.11) and bookFoldRevPrinting (§17.15.1.13) elements to specify the number of pages to be included in each booklet when printing a series of signatures. Signatures are printed </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>sheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, which depict several pages of a document that are to be folded and bound with other signatures to form a booklet. Booklets can be bound together to form a book like publication.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that a given WordprocessingML document’s page border specified using the pgBorders element (§17.6.10) should not surround contents of the footer.</t>
   </si>
   <si>
     <t>Specifies that a given WordprocessingML document’s page border specified using the pgBorders element (§17.6.10) should not surround contents of the header.</t>
   </si>
   <si>
-    <t>Specifies how the datapoint properties and datalabels in all charts in this document behave. The meaning of the setting is as follows:&lt;p/&gt;True  Datapoint properties and datalabels in all charts in this document follow their reference.&lt;p/&gt;False  Datapoint properties and datalabels in all charts in this document follow their position in the chart.</t>
-  </si>
-  <si>
     <t>Specifies the paragraph style, specified using the style element, which shall be applied to paragraphs which are automatically created when text is inserted into a WordprocessingML document in an area of the document that has no other style associated with it. This style is referenced via the val attribute, which stores the style ID of the style (stored in the styleId attribute on the style definition).</t>
   </si>
   <si>
@@ -1131,30 +998,6 @@
     <t>Specifies the table style which shall automatically be applied to the table properties of tables added to this document by an application. Note that it does not change the table style applied to tables which do not reference a style, instead, it automatically applies the style to that table via the tblStyle element (§17.4.63). This link is made by referencing the styleId attribute value of the table style which shall be used to format newly inserted tables.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the value which shall be used as the multiplier to generate automatic tab stops in this document. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatic tab stops</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refer to the tab stop locations which occur after all custom tab stops in the current paragraph have been surpassed.</t>
-    </r>
-  </si>
-  <si>
     <t>When true, specifies that the cropped-out areas of the images are not to be saved. Rather, the images saved are the results of applying imgProps on the original images. &lt;p/&gt;If this element is absent or if it has a value of "false", the cropped-out areas of images are saved.</t>
   </si>
   <si>
@@ -1164,30 +1007,6 @@
     <t>Specifies an arbitrary identifier for the context of the paragraph identifiers in the document. Values MUST be greater than 0 and less than 0x80000000.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the presence of documentvariables in a WordprocessingML. A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>document variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a storage location for arbitrary customer data in name/value pairs that is persisted in a given WordprocessingML document.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that pictures in this document shall not automatically be compressed when saving the document in order to reduce the overall size of the resulting WordprocessingML document.</t>
   </si>
   <si>
@@ -1197,443 +1016,36 @@
     <t>Specifies whether or not words comprised of all capital letters shall be hyphenated within a given document when automatic hyphenation is specified via the autoHyphenation element (§17.15.1.10).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies whether a visual cue should be displayed around form fields contained in a WordprocessingML document specified via the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMTEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMCHECKBOX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMDROPDOWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> fields.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that applications shall not track revisions made to the formatting of this WordprocessingML document when the trackRevisions element (§17.15.1.89) is turned on.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that the top-left corner of the page shall not be used as the origin for the drawing grid. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>drawing grid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a virtual grid which can be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). If this element is present the grid shall start at the top-left edge of the page and not the text extents.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that applications shall not validate the custom XML markup in this document against the applicable custom XML schema(s), even when those schemas are available. The application should silently behave as if it was unable to provide this functionality.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the distance from of the left edge of the page which shall be used as the origin for the horizontal gridlines used by the drawing grid. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>drawing grid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a virtual grid which might be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). Since the grid always covers the entire page when the doNotUseMarginsForDrawingGridOrigin element (§17.15.1.42) is specified, this element shall only affect the starting edge of the first horizontal gridline displayed (i.e. it only adjusts the grid by the modulus of the value against the width of one grid unit).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the width of horizontal grid units in this document. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>drawing grid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a grid which can be used by applications to help position floating objects in the document.&lt;p/&gt;If this element is omitted, then each horizontal grid unit shall be 180 twentieths of a point (0.125") in width.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the distance from of the top edge of the page which shall be used as the origin for the vertical gridlines used by the drawing grid. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>drawing grid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a virtual grid which can be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). Since the grid always covers the entire page when the doNotUseMarginsForDrawingGridOrigin element (§17.15.1.42) is specified, this element shall only affect the starting edge of the first vertical gridline displayed (i.e. it only adjusts the grid by the modulus of the value against the width of one grid unit).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the width of vertical grid units in this document. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>drawing grid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a grid which can be used by applications to help position floating objects in the document.&lt;p/&gt;If this element is omitted, then each vertical grid unit shall be 180 twentieths of a point (0.125") in width.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that applications shall embed the fonts in use in this document when it is saved. These fonts shall be embedded subject to the algorithm specified in §17.8.1.</t>
   </si>
   <si>
     <t>Specifies the endnote properties for the current document. Each of these properties are stored as a child element within the endnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide endnotePr element (§17.11.5).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies whether sections in this document shall have different headers and footers for even and odd pages (an odd page header/footer and an even page header/footer).&lt;p/&gt;If the val attribute is set to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, then each section in the document shall use an odd page header for all odd numbered pages in the section, and an even page header for all even numbered pages in the section (counting each page in the section starting from one, regardless of the page numbering settings for the section). If the val attribute is set to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, then all pages in a section shall use the odd page header.&lt;p/&gt;This setting does not affect the presence of a first page header on each section, which is specified using the titlePg element (§17.10.6). If a first page header is specified, then all subsequent pages shall have this setting applied, including the first page in the odd/even page count.&lt;p/&gt;If this element is set to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and an even page header is specified , then it shall be ignored and only the odd page header shall be displayed. Conversely, if this element is set to true and either header type is omitted for a given section, then a blank header shall be created as needed (another header type shall not be used in its place).</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies the footnote properties for this document. Each property is stored as a unique element within the footnotePr element.&lt;p/&gt;These properties can be overridden for a specific section via the section-wide footnotePr element (§17.11.11).</t>
   </si>
   <si>
     <t>Specifies that the document was last saved while the placeholder text of all structured document tags in this document were being edited. This means that the placeholder text currently displayed in all structured document tags which are displaying the showingPlcHdr element (§17.5.2.39) shall be committed to the corresponding glossary document entry as specified using the docPart element (§17.12.5) when this document is opened, in order to ensure that the most recent placeholder text is stored in the glossary document entry. If the current placeholder text cannot be saved as a glossary document entry, then it should be modified as needed before saving.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that a given WordprocessingML document’s gutter shall be positioned at the top of the document’s pages when the document is displayed. A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>gutter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the white space formed by the inner margins of two pages facing one another; such as the white space between the text on pages of a book when the book is opened.&lt;p/&gt;If this element is omitted, then the gutter shall not be positioned at the top of the page. If the mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13), or printTwoOnOne (§17.15.1.64) elements are used within a given document, the gutterAtTop element shall not be used. Rather, the gutter shall be positioned automatically as necessary to enable the printing and page layout capabilities of these settings.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible grammatical error using the proofErr element (§17.13.8.1) or via the application's own grammar engine.</t>
   </si>
   <si>
     <t>Specifies whether a visual cue should be displayed around run content contained in a WordprocessingML document which has been flagged as a possible spelling error using the proofErr element (§17.13.8.1) or via the application's own spelling engine.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the hyphenation zone which shall be used when automatically or manually hyphenating the contents of this document. The </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>hyphenation zone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the amount of whitespace which can be left at the end of a line (or added to justified lines) before hyphenation should be attempted on the next word in the document (in order to reduce the amount of whitespace on the line). A smaller hyphenation zone should reduce the raggedness of the right edge of a given document's body text, as more words is hyphenated. Conversely, a larger hyphenation zone should increase the raggedness of the right edge of a given document's text, as fewer words is hyphenated.&lt;p/&gt;If this element is omitted, then a default hyphenation zone of 360 twentieths of a point (0.25") shall be applied when performing hyphenation on this document.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications should ignore all text content which is not contained within a leaf custom XML markup element when validating the contents of the custom XML markup in this document against one or more attached custom XML schema(s). A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>leaf element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a custom XML element which has no child custom XML elements (it is a leaf in the custom XML tree).</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that styles in the given document shall be updated to match the styles in the attached template specified using the attachedTemplate element (§17.15.1.6) when the document is opened by a hosting application. This setting enables the styles contained in documents with attached templates to stay synchronized with the styles used in the attached template.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies all of the mail merge information for a document that has been connected to an external data source as part of a mail merge operation.&lt;p/&gt;The document which contains this mail merge data can be of one of two types:&lt;p/&gt;• A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>source document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, the document which contains all of the information for the mail merge, and is used in conjunction with an application to connect to an external data source and create one document for each record in that data source.&lt;p/&gt;• A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>merged document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, a document which contains all of the information for the mail merge as well as a reference to a single specific record which shall be used to populate the values of all of the merge fields in that document.&lt;p/&gt;The information in this element shall contain all data needed to connect to a data source and populate any merge fields in the document with data from that data source.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies the document-level properties for all math in the document.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that punctuation characters shall not be kerned in the current document when kerning is enabled on a run using the kern element (§17.3.2.19). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kerning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refers to a process by which a hosting application shall reduce the spacing of adjacent characters and/or punctuation to improve the visual appearance of text. Well kerned text has a similar amount of blank space between each pair of characters and/or each set of a character and punctuation symbol. When kerning is enabled, Latin text shall always be kerned, and this option shall control whether punctuation characters are also kerned.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies a unique identifier for a set of documents derived from a common source. The possible values for this attribute are defined by the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>ST_Guid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> simple type</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies whether two pages should be printed on one sheet of paper when this document is printed. Specifically, this element specifies that each page displayed for the contents in a given WordprocessingML document should be the page size specified in the section settings divided in half with two top margins originating from the bisector of the page, and bottom margins instantiated at the top and bottom of each page.</t>
   </si>
   <si>
@@ -1646,49 +1058,6 @@
     <t>Specifies if a document's Thumbnail part should be generated for the contents of the first page of this document when saved by application which support document thumbnail generation.&lt;p/&gt;If this element is omitted, then applications can choose to save a thumbnail, however, that behavior is not required. If this element is specified, a thumbnail shall be produced if that functionality is supported.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications shall subset fonts when font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Subsetting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a mechanism by which only the glyphs used in the contents of this WordprocessingML document are stored in an embedded font, in order to prevent the file from becoming unnecessarily large from the use of a small number of glyphs from a large embedded font.&lt;p/&gt;If this element is omitted, then the set of fonts should not be subsetted in the current document when font embedded is turned on. If the embedTrueTypeFonts element is omitted or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, then this setting has no effect.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies the set of XML namespaces which have been associated with the contents of the custom XML markup within the current Office Open XML document. Each unique namespace which is referenced within the document can be referenced within this element by a single schema element, regardless of the number of constituent XML schemas which comprise that namespace.</t>
   </si>
   <si>
@@ -1713,84 +1082,12 @@
     <t>Specifies the language which shall be used to determine the appropriate theme fonts in the document's Theme part which map to the major/minor theme fonts. Specifically, the bidi attribute is used to determine the theme font applied to complex script text, the eastAsia attribute is used to determine the theme font applied to East Asian text, and the val attribute is used to determine the theme font applied to all other text.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies that applications shall track revisions made to the WordprocessingML document. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revisions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> are changes to a WordprocessingML document which are recorded such that they can be viewed independently, accepted or removed, and reverted if needed. When revisions are tracked, the resulting WordprocessingML markup in the Revisions subclause of this document describes the necessary syntax.</t>
-    </r>
-  </si>
-  <si>
     <t>Disables features incompatible with earlier word processing formats.</t>
   </si>
   <si>
     <t>Specifies the manner in which the contents of this document should be displayed when opened by an application.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the write protection settings which have been applied to a WordprocessingML document. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Write protection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refers to a mode in which the document's contents cannot be edited, and the document cannot be resaved using the same file name. This setting is independent of the documentProtection (§17.15.1.29) element, but like document protection, this setting is not intended as a security feature and can be ignored.&lt;p/&gt;When present, the write protection shall result in one of two write protection behaviors:&lt;p/&gt;• If the password attribute is present, or both attributes are omitted, then the application shall prompt for a password to exit write protection. If the supplied password does not match the hash value in this attribute, then write protection shall be enabled.&lt;p/&gt;• If only the recommended attribute is present, the application should provide user interface recommending that the user open this document in write protected state. If the user chooses to do so, the document shall be write protected, otherwise, it shall be opened fully editable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifies the magnification level which should be applied to a document when it is displayed by an application. The zoom level is specified with the use of two attributes stored on this element:&lt;p/&gt;• val, which stores the type of zoom applied to the document&lt;p/&gt;• percent, which stores the zoom percentage to be used when rendering the document&lt;p/&gt;If both attributes are present, then the percent attribute shall be treated as a 'cached' value and only used when the value </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is specified for the val attribute.&lt;p/&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że obramowania akapitów określone za pomocą elementu pBdr (§17.3.1.24) i obramowania tabeli za pomocą elementu tblBorders (§17.4.40) powinny zostać dostosowane w celu wyrównania do zakresów obramowania strony zdefiniowanego za pomocą elementu pgBorders (§17.6.10), jeśli odstęp między tymi obramowaniami jest mniejszy lub równy 10,5 punktu (szerokość jednego znaku) lub mniejsza od obramowania strony. Obecność tego ustawienia zapewni, że między sąsiednią stroną a obramowaniem akapitu/tabeli nie będzie przerw o szerokości jednego znaku lub mniejszej, ponieważ obramowania, które są idealnie wyrównane, nie będą wyświetlane na korzyść krawędzi strony znajdującej się między nimi.</t>
   </si>
   <si>
@@ -1800,112 +1097,15 @@
     <t>Określa, że każdy niestandardowy element XML określony za pomocą elementu customXml w tym dokumencie zawsze powinien pokazywać jakąś formę prezentacji tekstu zastępczego w dokumencie, jeśli nie zawiera zawartości uruchamiania. Jeśli element zastępczy (§17.5.2.25) jest obecny we właściwościach niestandardowego elementu XML, oznacza to, że jest to tekst zastępczy i ten efekt nie ma żadnego wpływu. Jeśli element zastępczy zostanie pominięty, aplikacja użyje nazwy elementu do wygenerowania domyślnego tekstu zastępczego w jego miejsce.</t>
   </si>
   <si>
-    <t>Określa lokalizację szablonu dokumentu, który powinien być dołączony do bieżącego dokumentu WordprocessingML, jeśli jest dostępny i ma format obsługiwany przez aplikację. W szczególności atrybut val tego elementu  powinien zawierać ścieżkę do pliku powiązanego szablonu dokumentu.</t>
-  </si>
-  <si>
     <t>Określa, czy zawartość danego dokumentu WordprocessingML powinna być automatycznie dzielona wyrazami wyrazów wyrazów przez aplikację hostującą przed jego wyświetleniem, jeśli aplikacja obsługuje tę funkcję.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, czy zawartość danego dokumentu WordprocessingML powinna być drukowana jako podpisy. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Podpisy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to drukowane </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które są składane i oprawiane innymi podpisami w celu utworzenia broszury, której zestaw można związać ze sobą, tworząc publikację przypominającą książkę. W szczególności ten element określa, że każda strona w danym dokumencie WordprocessingML powinna być zorientowana w orientacji poziomej, podzielona na pół w pionie z dwoma lewymi marginesami wychodzącymi z dwusiecznej strony i dwoma prawymi marginesami utworzonymi po lewej i prawej stronie każdej strony.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Element ten powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>arkusze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości stopki.</t>
   </si>
   <si>
     <t>Określa, że obramowanie strony danego dokumentu WordprocessingML określone za pomocą elementu pgBorders (§17.6.10) nie powinno otaczać zawartości nagłówka.</t>
   </si>
   <si>
-    <t>Określa sposób zachowania właściwości punktu danych i etykiet danych na wszystkich wykresach w tym dokumencie. Znaczenie tego ustawienia jest następujące:&lt;p/&gt;True  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich odwołaniem.&lt;p/&gt;False  Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich położeniem na wykresie.</t>
-  </si>
-  <si>
     <t>Określa styl akapitu, określony za pomocą elementu style, który ma być stosowany do akapitów tworzonych automatycznie po wstawieniu tekstu do dokumentu WordprocessingML w obszarze dokumentu, z którym nie jest skojarzony żaden inny styl. Do tego stylu odwołuje się atrybut val, który przechowuje identyfikator stylu (przechowywany w atrybucie styleId w definicji stylu).</t>
   </si>
   <si>
@@ -1924,60 +1124,12 @@
     <t>Określa styl tabeli, który ma być automatycznie stosowany do właściwości tabel dodanych do tego dokumentu przez aplikację. Należy zauważyć, że nie zmienia stylu tabeli zastosowanego do tabel, które nie odwołują się do stylu, zamiast tego automatycznie stosuje styl do tej tabeli za pośrednictwem elementu tblStyle (§17.4.63). To łącze jest tworzone przez odwołanie się do wartości atrybutu styleId stylu tabeli, który powinien być używany do formatowania nowo wstawionych tabel.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa wartość, która ma być używana jako mnożnik do generowania automatycznych tabulatorów w tym dokumencie. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabulatory automatyczne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnoszą się do lokalizacji tabulatorów, które występują po przekroczeniu wszystkich niestandardowych tabulatorów w bieżącym akapicie.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, czy obrazy i kolory zdefiniowane w tle dokumentu za pomocą elementu tła (§17.2.1) mają być wyświetlane, gdy dokument jest wyświetlany w widoku układu wydruku, jak określono w elemencie widoku (§17.15.1.92).</t>
   </si>
   <si>
     <t>Określa dowolny identyfikator dla kontekstu identyfikatorów akapitów w dokumencie. Wartości MUSZĄ być większe niż 0 i mniejsze niż 0x80000000.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa obecność zmiennych dokumentu w języku WordprocessingML. Zmienna </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>dokumentu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to lokalizacja przechowywania dowolnych danych klienta w parach nazwa/wartość, która jest utrwalana w danym dokumencie WordprocessingML.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że obrazy w tym dokumencie nie są automatycznie kompresowane podczas zapisywania dokumentu w celu zmniejszenia ogólnego rozmiaru wynikowego dokumentu WordprocessingML.</t>
   </si>
   <si>
@@ -1987,448 +1139,36 @@
     <t>Określa, czy wyrazy składające się wyłącznie z wielkich liter mają być dzielone w danym dokumencie, gdy automatyczne dzielenie wyrazów jest określone za pomocą elementu autoHyphenation (§17.15.1.10).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, czy podpowiedź wizualna powinna być wyświetlana wokół pól formularza zawartych w dokumencie WordprocessingML określonym za pomocą </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pól FORMTEXT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMCHECKBOX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lub </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORMDROPDOWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych w formatowaniu tego dokumentu WordprocessingML, gdy element trackRevisions (§17.15.1.89) jest włączony.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, że lewy górny róg strony nie może być używany jako początek siatki rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Jeśli ten element jest obecny, siatka powinna zaczynać się od lewej górnej krawędzi strony, a nie od zakresu tekstu.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że aplikacje nie mogą weryfikować niestandardowych znaczników XML w tym dokumencie względem odpowiednich niestandardowych schematów XML, nawet jeśli te schematy są dostępne. Aplikacja powinna zachowywać się po cichu tak, jakby nie była w stanie zapewnić tej funkcji.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa odległość od lewej krawędzi strony, która ma być używana jako początek poziomych linii siatki używanych przez siatkę rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (np. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien wpływać tylko na krawędź początkową pierwszej wyświetlanej poziomej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa szerokość poziomych jednostek siatki w tym dokumencie. Siatka </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>rysunku</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pozioma jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa odległość od górnej krawędzi strony, która ma być używana jako początek pionowych linii siatki używanych przez siatkę rysunku. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siatka rysunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien mieć wpływ tylko na krawędź początkową pierwszej wyświetlanej pionowej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa szerokość pionowych jednostek siatki w tym dokumencie. Siatka </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>rysunku</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pionowa jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny osadzać popularne czcionki systemowe, gdy są używane, a osadzanie czcionek jest włączone dla tego dokumentu za pomocą elementu embedTrueTypeFonts (§17.8.3.8). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Typowe czcionki systemowe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnoszą się do zestawu czcionek, które zazwyczaj są zawsze obecne na komputerze i nie są zdefiniowane w normie IEEE/IEC 29500.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że aplikacje powinny osadzać czcionki używane w tym dokumencie podczas jego zapisywania. Czcionki te są osadzane zgodnie z algorytmem określonym w §17.8.1.</t>
   </si>
   <si>
     <t>Określa właściwości przypisu końcowego dla bieżącego dokumentu. Każda z tych właściwości jest przechowywana jako element podrzędny w elemencie endnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu endnotePr dla całej sekcji (§17.11.5).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, czy sekcje w tym dokumencie mają mieć różne nagłówki i stopki dla stron parzystych i nieparzystych (nagłówek/stopka strony nieparzystej i nagłówek/stopka strony parzystej).&lt;p/&gt;Jeśli atrybut val jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>wartość true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, to każda sekcja w dokumencie powinna używać nieparzystego nagłówka strony dla wszystkich stron o numerach nieparzystych w sekcji i nagłówka strony parzystej dla wszystkich stron o numerach parzystych w sekcji (licząc każdą stronę w sekcji zaczynając od jednej, niezależnie od ustawień numeracji stron dla sekcji). Jeśli atrybut val jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, to wszystkie strony w sekcji powinny używać nieparzystego nagłówka strony.&lt;p/&gt;To ustawienie nie ma wpływu na obecność nagłówka pierwszej strony w każdej sekcji, który jest określony za pomocą elementu titlePg (§17.10.6). Jeśli określono nagłówek pierwszej strony, to ustawienie to zostanie zastosowane na wszystkich kolejnych stronach, w tym na pierwszej stronie w liczbie stron parzystych/nieparzystych.&lt;p/&gt;Jeśli ten element jest ustawiony na </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> i określony jest nagłówek strony parzystej , to zostanie zignorowany i zostanie wyświetlony tylko nagłówek strony nieparzystej. I odwrotnie, jeśli ten element jest ustawiony na true i któryś z typów nagłówka zostanie pominięty dla danej sekcji, to w razie potrzeby zostanie utworzony pusty nagłówek (w jego miejsce nie należy używać innego typu nagłówka).</t>
-    </r>
-  </si>
-  <si>
     <t>Określa właściwości przypisu dolnego dla tego dokumentu. Każda właściwość jest przechowywana jako unikatowy element w elemencie footnotePr.&lt;p/&gt;Te właściwości można zastąpić dla określonej sekcji za pomocą elementu footnotePr dla całej sekcji (§17.11.11).</t>
   </si>
   <si>
     <t>Określa, że dokument został ostatnio zapisany w czasie, gdy edytowany był tekst zastępczy wszystkich znaczników dokumentu strukturalnego w tym dokumencie. Oznacza to, że tekst zastępczy aktualnie wyświetlany we wszystkich znacznikach dokumentu strukturalnego, w których wyświetlany jest element showingPlcHdr (§17.5.2.39), zostanie przypisany do odpowiedniego wpisu dokumentu glosariusza, jak określono za pomocą elementu docPart (§17.12.5) po otwarciu tego dokumentu, aby zapewnić, że najnowszy tekst zastępczy zostanie zapisany we wpisie dokumentu glosariusza. Jeśli bieżącego tekstu zastępczego nie można zapisać jako pozycji dokumentu glosariusza, należy go zmodyfikować zgodnie z potrzebami przed zapisaniem.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, że margines na oprawę danego dokumentu WordprocessingML powinien być umieszczony u góry stron dokumentu podczas wyświetlania dokumentu. Margines </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> na oprawę</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to biały obszar utworzony przez wewnętrzne marginesy dwóch stron zwróconych do siebie, na przykład biały obszar między tekstem na stronach książki, gdy książka jest otwarta.&lt;p/&gt;Jeśli ten element zostanie pominięty, to margines na oprawę nie zostanie umieszczony u góry strony. Jeśli w danym dokumencie używane są elementy mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13) lub printTwoOnOne (§17.15.1.64), element gutterAtTop nie będzie używany. Zamiast tego margines na oprawę powinien być ustawiany automatycznie, jeśli jest to konieczne, aby umożliwić drukowanie i układ strony w tych ustawieniach.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd gramatyczny przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego aparatu gramatycznego aplikacji.</t>
   </si>
   <si>
     <t>Określa, czy wizualna wskazówka powinna być wyświetlana wokół zawartości uruchamiania zawartej w dokumencie WordprocessingML, który został oznaczony jako możliwy błąd pisowni przy użyciu elementu proofErr (§17.13.8.1) lub za pośrednictwem własnego silnika sprawdzania pisowni aplikacji.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa strefę dzielenia wyrazów, która ma być używana podczas automatycznego lub ręcznego dzielenia wyrazów w zawartości tego dokumentu. Strefa </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>dzielenia wyrazów</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ilość białych znaków, którą można pozostawić na końcu wiersza (lub dodać do wyjustowanych wierszy) przed próbą dzielenia wyrazów w następnym słowie w dokumencie (w celu zmniejszenia ilości białych znaków w wierszu). Mniejsza strefa dzielenia wyrazów powinna zmniejszyć nierówność prawej krawędzi tekstu podstawowego danego dokumentu, ponieważ dzielenie wyrazów jest większą liczbą wyrazów. I odwrotnie, większa strefa dzielenia wyrazów powinna zwiększyć nierówność prawej krawędzi tekstu danego dokumentu, ponieważ dzieli się mniej wyrazów.&lt;p/&gt;Jeśli ten element zostanie pominięty, podczas dzielenia wyrazów w tym dokumencie zostanie zastosowana domyślna strefa dzielenia wyrazów wynosząca 360 dwudziestych punktu (0,25§).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny ignorować całą zawartość tekstową, która nie jest zawarta w niestandardowym elemencie znacznika XML liścia, podczas sprawdzania poprawności zawartości niestandardowego znacznika XML w tym dokumencie względem co najmniej jednego dołączonego niestandardowego schematu XML. Element </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>liścia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to niestandardowy element XML, który nie ma podrzędnych niestandardowych elementów XML (jest to liść w niestandardowym drzewie XML).</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, że style w danym dokumencie są aktualizowane tak, aby były zgodne ze stylami w dołączonym szablonie określonym za pomocą elementu attachedTemplate (§17.15.1.6), gdy dokument jest otwierany przez aplikację hostingową. To ustawienie umożliwia synchronizację stylów zawartych w dokumentach z dołączonymi szablonami ze stylami używanymi w dołączonym szablonie.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa wszystkie informacje dotyczące korespondencji seryjnej dla dokumentu, który został połączony z zewnętrznym źródłem danych w ramach operacji korespondencji seryjnej.&lt;p/&gt;Dokument zawierający dane korespondencji seryjnej może być jednego z dwóch typów:&lt;p/&gt;• Dokument źródłowy, czyli dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, używany w połączeniu z aplikacją do łączenia się z zewnętrznym źródłem danych i tworzenia jednego dokumentu dla każdego rekordu w tym źródle danych.&lt;p/&gt;• </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scalony dokument</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, a także odniesienie do pojedynczego konkretnego rekordu, który zostanie użyty do wypełnienia wartości wszystkich pól korespondencji seryjnej w tym dokumencie.&lt;p/&gt;Informacje w tym elemencie zawierają wszystkie dane potrzebne do nawiązania połączenia ze źródłem danych i wypełnienia wszelkich pól scalanych w dokumencie danymi z tego źródła danych.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa właściwości na poziomie dokumentu dla wszystkich elementów matematycznych w dokumencie.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, że znaki interpunkcyjne nie mogą być kerowane w bieżącym dokumencie, gdy kerning jest włączony w przebiegu przy użyciu elementu kern (§17.3.2.19). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kerning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> odnosi się do procesu, w którym aplikacja hostująca zmniejsza odstępy między sąsiadującymi znakami i/lub interpunkcją w celu poprawy wyglądu tekstu. Tekst o dobrym kerze ma podobną ilość spacji między każdą parą znaków i/lub każdym zestawem znaku i symbolu interpunkcyjnego. Gdy kerning jest włączony, tekst łaciński jest zawsze kerningowany, a opcja ta określa, czy kerningowane są również znaki interpunkcyjne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa unikatowy identyfikator zestawu dokumentów pochodzących ze wspólnego źródła. Możliwe wartości tego atrybutu są definiowane przez </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>ST_Guid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> typ simple</t>
-    </r>
-  </si>
-  <si>
     <t>Określa, czy podczas drukowania tego dokumentu na jednym arkuszu papieru powinny być drukowane dwie strony. W szczególności ten element określa, że każda strona wyświetlana dla zawartości w danym dokumencie WordprocessingML powinna mieć rozmiar strony określony w ustawieniach sekcji podzielony na pół z dwoma górnymi marginesami pochodzącymi z dwusiecznej strony i dolnymi marginesami utworzonymi u góry i u dołu każdej strony.</t>
   </si>
   <si>
@@ -2441,49 +1181,6 @@
     <t>Określa, czy część miniatury dokumentu powinna być generowana dla zawartości pierwszej strony tego dokumentu po zapisaniu przez aplikację obsługującą generowanie miniatur dokumentów.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje mogą zdecydować się na zapisanie miniatury, jednak takie zachowanie nie jest wymagane. Jeżeli ten element jest określony, tworzona jest miniatura, jeżeli ta funkcja jest obsługiwana.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny tworzyć podzbiór czcionek, gdy dla tego dokumentu jest włączone osadzanie czcionek przy użyciu elementu embedTrueTypeFonts (§17.8.3.8). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Podzbiór</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to mechanizm, w którym tylko glify używane w zawartości tego dokumentu WordprocessingML są przechowywane w czcionce osadzonej, aby zapobiec niepotrzebnemu powiększaniu pliku w wyniku użycia niewielkiej liczby glifów z dużej czcionki osadzonej.&lt;p/&gt;Jeśli ten element zostanie pominięty, zestaw czcionek nie powinien być podzbiorem w bieżącym dokumencie, gdy włączona jest czcionka osadzona. Jeśli element embedTrueTypeFonts zostanie pominięty lub </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>będzie fałszywy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>, to ustawienie nie będzie miało żadnego wpływu.</t>
-    </r>
-  </si>
-  <si>
     <t>Określa zestaw przestrzeni nazw XML, które zostały skojarzone z zawartością niestandardowych znaczników XML w bieżącym dokumencie Office Open XML. Do każdej unikatowej przestrzeni nazw, do której odwołuje się dokument, można odwoływać się w tym elemencie za pomocą pojedynczego elementu schematu, niezależnie od liczby składowych schematów XML, które składają się na tę przestrzeń nazw.</t>
   </si>
   <si>
@@ -2508,87 +1205,12 @@
     <t>Określa język, który ma być używany do określania odpowiednich czcionek motywu w części Motyw dokumentu, które są odwzorowywane na czcionki motywu głównego/pomocniczego. W szczególności atrybut bidi służy do określania czcionki motywu zastosowanej do złożonego tekstu skryptu, atrybut eastAsia służy do określania czcionki motywu zastosowanej do tekstu wschodnioazjatyckiego, a atrybut val służy do określania czcionki motywu zastosowanej do całego innego tekstu.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa, że aplikacje powinny śledzić poprawki wprowadzone w dokumencie WordprocessingML. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Poprawki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to zmiany w dokumencie WordprocessingML, które są rejestrowane w taki sposób, że można je przeglądać niezależnie, akceptować lub usuwać i w razie potrzeby przywracać. Gdy poprawki są śledzone, wynikowy znacznik WordprocessingML w podpunkcie Wersje tego dokumentu opisuje niezbędną składnię.</t>
-    </r>
-  </si>
-  <si>
     <t>Wyłącza funkcje niezgodne z wcześniejszymi formatami edytora tekstu.</t>
   </si>
   <si>
     <t>Określa sposób, w jaki zawartość tego dokumentu powinna być wyświetlana po otwarciu przez aplikację.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Określa ustawienia ochrony przed zapisem, które zostały zastosowane do dokumentu WordprocessingML. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ochrona przed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> zapisem odnosi się do trybu, w którym nie można edytować zawartości dokumentu, a dokument nie może być ponownie zapisany przy użyciu tej samej nazwy pliku. To ustawienie jest niezależne od elementu documentProtection (§17.15.1.29), ale podobnie jak w przypadku ochrony dokumentów, to ustawienie nie jest przeznaczone jako funkcja zabezpieczeń i można je zignorować.&lt;p/&gt;Jeśli jest obecna, ochrona przed zapisem powinna powodować jedno z dwóch zachowań ochrony przed zapisem:&lt;p/&gt;• Jeśli atrybut hasła jest obecny lub oba atrybuty są pominięte, aplikacja poprosi o podanie hasła, aby zakończyć ochronę przed zapisem. Jeśli podane hasło nie jest zgodne z wartością skrótu w tym atrybucie, należy włączyć ochronę przed zapisem.&lt;p/&gt;• Jeśli obecny jest tylko zalecany atrybut, aplikacja powinna udostępnić interfejs użytkownika zalecający użytkownikowi otwarcie tego dokumentu w stanie chronionym przed zapisem. Jeśli użytkownik zdecyduje się to zrobić, dokument będzie chroniony przed zapisem, w przeciwnym razie zostanie otwarty w pełni edytowalny.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Określa poziom powiększenia, który powinien być stosowany do dokumentu po jego wyświetleniu przez aplikację. Poziom powiększenia jest określany za pomocą dwóch atrybutów zapisanych na tym elemencie:&lt;p/&gt;• val, w którym przechowywane są informacje o typie powiększenia zastosowanym do dokumentu&lt;p/&gt;• procent, w którym przechowywana jest wartość procentowa powiększenia, która ma być używana podczas renderowania dokumentu&lt;p/&gt;Jeśli oba atrybuty są obecne, atrybut percent jest traktowany jako wartość §zapisana w pamięci podręcznej§ i używany tylko wtedy, gdy dla </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> atrybutu val określono</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> wartość non.&lt;p/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>SettingsDescriptions</t>
-  </si>
-  <si>
     <t>Grammar checking settings</t>
   </si>
   <si>
@@ -3168,212 +1790,30 @@
     <t>Interfejs użytkownika kompatybilny ze starszymi wersjami Worda</t>
   </si>
   <si>
-    <t xml:space="preserve">Określa, czy zawartość dokumentu zawarta w polach tekstowych, przypisach dolnych i końcowych ma być wykluczana, gdy aplikacja oblicza statystyki danego dokumentu, gdy te wartości są obliczane i/lub wyświetlane przez aplikację.&lt;p/&gt;Uwaga: Oto kilka przykładów statystyk dokumentów, które aplikacja może wybrać do obliczenia: liczba słów, liczba znaków, liczba akapitów, liczba stron, liczba wierszy i tak dalej. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu powinna być drukowana z szerokością ułamkową. Ułamkowe szerokości znaków występują, gdy odstępy między znakami nie są stałe (tj. używany jest proporcjonalny krój czcionki).&lt;p/&gt;Uwaga: Ułamkowe szerokości znaków są zwykle używane w połączeniu z dużymi rozmiarami czcionek, aby zapobiec zbieganiu się znaków lub zbyt dużej odległości między nimi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy aparaty sprawdzania gramatyki i pisowni ostatniej aplikacji, która przetwarzała ten dokument, zakończyły sprawdzanie gramatyki i pisowni dokumentu przed jego ostatnim zapisaniem. Aplikacje, które modyfikują zawartość dokumentu bez sprawdzania pisowni lub gramatyki, powinny w razie potrzeby zresetować te stany.&lt;p/&gt;Uwaga: Jeśli ten element określa, że mechanizmy sprawdzania gramatyki i pisowni aplikacji zakończyły sprawdzanie gramatyki i pisowni dokumentu podczas ostatniego zapisywania dokumentu, kolejne aplikacje mogą zdecydować się nie uruchamiać swoich aparatów sprawdzania gramatyki i pisowni po załadowaniu danego dokumentu WordprocessingML.&lt;p/&gt;Może to zwiększyć szybkość, z jaką aplikacja hostująca ładuje plik i nie wpływa negatywnie na stan sprawdzania gramatyki lub pisowni dokumentu, ponieważ wszystkie błędy zostały już znalezione i oznaczone za pomocą elementu proofErr (§17.13.8.1), ponieważ dokument nie był edytowany, a jedynie załadowany, od czasu ostatniego zapisanego. </t>
-  </si>
-  <si>
     <t>Określa rozdzielczość w punktach na cal (DPI), z jaką będą zapisywane obrazy w dokumencie.&lt;p/&gt;To ustawienie jest ignorowane przez obrazy, które mają punkty na cal (DPI) określone przez useLocalDpi. To ustawienie jest również ignorowane, gdy parametr doNotAutoCompressPictures jest ustawiony na wartość "true".</t>
   </si>
   <si>
-    <t xml:space="preserve">Określa informacje o parametrach sprawdzania gramatyki, które zostało wykonane na zawartości bieżącego dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Te informacje mogą być używane przez aplikacje w różny sposób, na przykład do określenia, czy bieżący stan sprawdzania gramatyki, określony przez element proofState (§17.15.1.65) jest wystarczający. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że niestandardowy schemat XML, którego docelowa przestrzeń nazw jest zgodna z wartością określoną w atrybucie val, powinien być skojarzony z tym dokumentem podczas ładowania, jeśli taki schemat jest dostępny dla aplikacji hostującej. Aplikacje mogą również ładować i wykorzystywać wszelkie dodatkowe schematy, a także te wyraźnie wymienione w tym miejscu. &lt;p/&gt;Uwaga: Te niestandardowe schematy XML mogą być następnie używane do sprawdzania poprawności struktury niestandardowych znaczników XML w dokumencie itp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa obecność informacji o podpisach w danym dokumencie WordprocessingML. Informacje te są podzielone na dwa komponenty:&lt;p/&gt;• Podpis elementu podrzędnego określa format pojedynczego typu podpisu, który ma być automatycznie dodawany do dokumentu.&lt;p/&gt;• Element podrzędny autoCaptions definiuje typy obiektów, do których format napisów ma być automatycznie stosowany.&lt;p/&gt;Te informacje powinny być używane do określania podpisów, które są automatycznie dodawane do obiektów po ich wstawieniu do dokumentu WordprocessingML. &lt;p/&gt;Uwaga: To ustawienie jest zwykle ignorowane, chyba że jest określone w domyślnym szablonie aplikacji. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, w jaki sposób znaki o pełnej szerokości w bieżącym dokumencie WordprocessingML powinny być kompresowane w celu usunięcia dodatkowych białych znaków podczas wyświetlania zawartości tego dokumentu, w szczególności przez określenie zestawów znaków, które można skompresować w celu usunięcia dodatkowych białych znaków. &lt;p/&gt;Uwaga: Zachowanie tego elementu jest funkcjonalnie identyczne z właściwością text-justify-trim . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa zestaw ograniczeń ochrony dokumentów, które zostały zastosowane do zawartości dokumentu WordprocessingML. Te ograniczenia powinny być wymuszane przez aplikacje edytujące ten dokument, gdy atrybut wymuszania jest włączony i ignorowane (ale utrwalane) w przeciwnym razie. Ochrona dokumentów to zestaw ograniczeń używanych w celu zapobiegania niezamierzonym zmianom w całości lub części dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Ta ochrona nie szyfruje dokumentu, a złośliwe aplikacje mogą obejść jego użycie. Ta ochrona nie jest przeznaczona jako funkcja bezpieczeństwa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy wyniki pól zawartych w tym dokumencie powinny być automatycznie przeliczane na podstawie kodów pól, gdy ten dokument jest otwierany przez aplikację obsługującą obliczenia pól. &lt;p/&gt;Uwaga: Niektóre pola są zawsze przeliczane (np. numeracja stron), dlatego ten element dotyczy tylko pól, które zazwyczaj nie są automatycznie przeliczane po otwarciu dokumentu. Należy również pamiętać, że to ustawienie nie może zastępować żadnych ustawień ochrony dokumentów (§17.15.1.29) ani ochrony przed zapisem (§17.15.1.93). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies information about the parameters of the grammar checking which was performed on the contents of the current WordprocessingML document. &lt;p/&gt;Note: This information can be used as desired by applications; for example, to determine if the current grammar checking state, specified by the proofState element (§17.15.1.65) is sufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that the custom XML schema whose target namespace matches the value specified in the val attribute should be associated with this document when it is loaded, if such a schema is available to the hosting application. Applications can also load and utilize any additional schemas as well as those explicitly mentioned here. &lt;p/&gt;Note: These custom XML schemas can then be used to validate the structure of the custom XML markup in the document, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the presence of information about captionsin a given WordprocessingML document. This information is divided into two components:&lt;p/&gt;• The child element caption defines the format for a single type of caption to be automatically added to the document.&lt;p/&gt;•  The child element autoCaptions defines the types of objects to which a caption format shall automatically be applied.&lt;p/&gt;This information should be used to determine the captions which are automatically added to objects when they are inserted into a WordprocessingML document. &lt;p/&gt;Note: This setting is typically ignored unless it is specified in an application's default template. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies how full-width characters in the current WordprocessingML document should be compressed to remove additional whitespace when the contents of this document are displayed, specifically by specifying the set(s) of characters which can be compressed to remove additional whitespace. &lt;p/&gt;Note: The behavior of this element is functionally identical to the text-justify-trim property. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the set of document protection restrictions which have been applied to the contents of a WordprocessingML document. These restrictions should be enforced by applications editing this document when the enforcement attribute is turned on, and ignored (but persisted) otherwise. Document protection is a set of restrictions used to prevent unintentional changes to all or part of a WordprocessingML document. &lt;p/&gt;Note: This protection does not encrypt the document, and malicious applications might circumvent its use. This protection is not intended as a security feature. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether the fields contained in this document should automatically have their field result recalculated from the field codes when this document is opened by an application which supports field calculations. &lt;p/&gt;Note: Some fields are always recalculated (e.g. the page numbering), therefore this element only affects fields which are typically not automatically recalculated on opening the document. Also note that this setting must not supersede any document protection (§17.15.1.29) or write protection (§17.15.1.93) settings. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether formatting automatically applied by an application (i.e. not explicitly applied by a use or an application) shall be allowed to override formatting protection enabled via the formatting attribute on the documentProtection element (§17.15.1.9) when those formatting operations would add formatting which has been explicitly disabled. &lt;p/&gt;Example: Automatically adding superscript to the st in the string 1st. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, czy formatowanie automatycznie stosowane przez aplikację (tj. niezastosowane jawnie przez użycie lub aplikację) powinno mieć możliwość zastąpienia ochrony formatowania włączonej za pośrednictwem atrybutu formatowania w elemencie documentProtection (§17.15.1.9), gdy te operacje formatowania dodałyby formatowanie, które zostało jawnie wyłączone. &lt;p/&gt;Przykład: Automatyczne dodawanie indeksu górnego do st w ciągu 1st. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether applications displaying this document should display the contents of the header and footer when displaying the document in print layout view (§17.15.1.92) or should collapse those areas as well as the whitespace on all displayed pages so that the text extents are directly following one another. &lt;p/&gt;Rationale: Collapsing the ends of pages makes it easier to read the contents of the document, since the text flows between pages without whitespace, while maintaining the WYSIWYG functionality of print layout view for the document's main content. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that applications shall not track revisions made to this WordprocessingML document as moves when the trackRevisions element (§17.15.1.89) is turned on, even when that syntax is appropriate. Instead, applications should use a standard insertion and deletion annotation syntax. Existing moves shall not be modified. &lt;p/&gt;Rationale: This element is provided to enable interoperability with earlier word processing applications which do not understand moves. </t>
-  </si>
-  <si>
     <t>Specifies the exact set of page and text sizing parameters which shall be used to display the contents of a WordprocessingML document. &lt;p/&gt;Rationale: This setting is typically used for documents that have been annotated using ink. This setting freezes the document's presentation such that the ink annotations must exist at the same position of the WordprocessingML document irrespective of the monitor on which the WordprocessingML document is rendered. &lt;p/&gt;This element shall only affect the display of WordprocessingML documents as follows:&lt;p/&gt;• When the actualPage attribute is specified with a value of true, the given WordprocessingML document's pages shall be rendered as they would normally be displayed. The resulting pages can have their magnification setting changed as desired. All other attributes shall be ignored.&lt;p/&gt;• When the actualPage attribute is specified with a value of false, the given WordprocessingML document's pages shall be rendered as virtual pages when loaded by a conforming hosting application irrespective of the given WordprocessingML document's view (§17.15.1.92). Virtual pages are pages with no correlation with the printed layout of a given WordprocessingML document that have been scaled by a conforming hosting application to improve the readability of a given WordprocessingML document when it is displayed. Specifically, the w and h attributes specify the width and height of the virtual pages, and the fontSz attribute specifies the scaling to be applied to text within the given WordprocessingML document.</t>
   </si>
   <si>
-    <t xml:space="preserve">Określa, czy aplikacje wyświetlające ten dokument powinny wyświetlać zawartość nagłówka i stopki podczas wyświetlania dokumentu w widoku układu wydruku (§17.15.1.92), czy też powinny zwijać te obszary, a także białe znaki na wszystkich wyświetlanych stronach, tak aby zakresy tekstu znajdowały się bezpośrednio po sobie. &lt;p/&gt;Uzasadnienie: Zwijanie końców stron ułatwia odczytywanie zawartości dokumentu, ponieważ tekst przepływa między stronami bez białych znaków, przy jednoczesnym zachowaniu funkcji WYSIWYG widoku układu wydruku dla głównej zawartości dokumentu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych do tego dokumentu WordprocessingML podczas ruchu, gdy element trackRevisions (§17.15.1.89) jest włączony, nawet jeśli ta składnia jest odpowiednia. Zamiast tego aplikacje powinny używać standardowej składni adnotacji wstawiania i usuwania. Istniejące ruchy nie mogą być modyfikowane. &lt;p/&gt;Uzasadnienie: Ten element został dostarczony, aby umożliwić interoperacyjność z wcześniejszymi aplikacjami do edycji tekstu, które nie rozumieją ruchów. </t>
-  </si>
-  <si>
     <t>Określa dokładny zestaw parametrów zmiany rozmiaru strony i tekstu, które mają być używane do wyświetlania zawartości dokumentu WordprocessingML. &lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane w przypadku dokumentów, które zostały opatrzone adnotacjami przy użyciu pisma odręcznego. To ustawienie powoduje zablokowanie prezentacji dokumentu w taki sposób, że adnotacje odręczne muszą znajdować się w tym samym miejscu co dokument WordprocessingML, niezależnie od monitora, na którym jest renderowany dokument WordprocessingML. &lt;p/&gt;Ten element ma wpływ na wyświetlanie dokumentów WordprocessingML tylko w następujący sposób:&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością true, strony danego dokumentu WordprocessingML są renderowane tak, jak normalnie byłyby wyświetlane. Powstałe strony mogą mieć dowolne zmiany ustawień powiększenia. Wszystkie inne atrybuty nie są brane pod uwagę.&lt;p/&gt;• Jeśli atrybut actualPage jest określony z wartością false, strony danego dokumentu WordprocessingML będą renderowane jako strony wirtualne po załadowaniu przez zgodną aplikację hostingową, niezależnie od widoku danego dokumentu WordprocessingML (§17.15.1.92). Strony wirtualne to strony, które nie są skorelowane z wydrukowanym układem danego dokumentu WordprocessingML, które zostały przeskalowane przez zgodną aplikację hostingową w celu poprawy czytelności danego dokumentu WordprocessingML po jego wyświetleniu. W szczególności atrybuty w i h określają szerokość i wysokość stron wirtualnych, a atrybut fontSz określa skalowanie, które ma zostać zastosowane do tekstu w danym dokumencie WordprocessingML.</t>
   </si>
   <si>
-    <r>
-      <t>Określa, że lewy i prawy margines zdefiniowany we właściwościach sekcji mają być zamienione miejscami na stronach sąsiadujących.&lt;p/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wskazówka: To ustawienie jest zwykle używane podczas drukowania na obu stronach stron i oprawiania ich jak książki.</t>
-    </r>
-  </si>
-  <si>
     <t>Specifies that the left and right margins defined in the section properties shall be swapped on facing pages.&lt;p/&gt;Guidance: This setting is generally used when printing on both sides of pages and binding them like a book.</t>
   </si>
   <si>
     <t>Określa zestaw wartości identyfikatora zapisu poprawki dla bieżącego dokumentu. Wartości identyfikatora zapisu wersji odnoszą się do czterocyfrowych wartości szesnastkowych, które jednoznacznie identyfikują sesję edycji w czasie życia bieżącego dokumentu. Sesja edycji to okres czasu między dwiema kolejnymi operacjami składowania przez aplikację.&lt;p/&gt;Wskazówka: Zestaw identyfikatorów zapisu wersji przechowywanych z dokumentem zawiera tylko informacje o sesji edycji, w której składniki dokumentu zostały ostatnio zapisane, które mogą być używane przez aplikacje w dowolny sposób.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Specifies the set of revision save ID values for the current document. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revision save ID values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> refer to four digit hexadecimal values which uniquely identify an editing session in the life of the current document. An </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>editing session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the period of time between two subsequent save operations by an application.&lt;p/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guidance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>: The set of revision save IDs stored with a document only supplies information about the editing session in which document components were last saved, which can be used by applications in any manner desired.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the character that shall be interpreted as the radix point when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the radix point in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the radix point which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa znak, który ma być interpretowany jako punkt podstawy podczas oceniania zawartości wszystkich pól w bieżącym dokumencie.&lt;p/&gt;Uzasadnienie: Podczas oceniania instrukcji polowych na podstawie zawartości bieżącego dokumentu, konieczna jest znajomość znaku, który musi być traktowany jako punkt podstawy, aby zapobiec zmianom w obliczeniach tych samych instrukcji pola na podstawie ustawień regionalnych bieżącego użytkownika. Ten element przechowuje punkt podstawy, który musi być używany do oceny pól w zawartości tego dokumentu, niezależnie od ustawień regionalnych aplikacji ładującej plik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the classification of a given WordprocessingML document.&lt;p/&gt;Note: This element can be used by hosting applications to facilitate customized user interface and/or automatic formatting behaviors based on the 'type' of a given WordprocessingML document. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies if document content contained in text boxes, footnotes, and endnotes shall be excluded when an application calculates a given document’s statistics when these values are calculated and/or displayed by an application.&lt;p/&gt;Note: Some examples of document statistics that an application might chose to calculate are: number of words, number of characters, number of paragraphs, number of pages, number of lines, and so on. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the character that shall be interpreted as a list item separator when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the list separator in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the list separator which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa znak, który ma być interpretowany jako separator elementu listy podczas oceniania zawartości wszystkich pól w bieżącym dokumencie.&lt;p/&gt;Uzasadnienie: Podczas oceniania instrukcji pól na podstawie zawartości bieżącego dokumentu, konieczna jest znajomość znaku, który musi być traktowany jako separator listy, aby zapobiec zmianom w obliczaniu tych samych instrukcji pól na podstawie ustawień regionalnych bieżącego użytkownika. Ten element przechowuje separator listy, który musi być używany do oceny pól w zawartości tego dokumentu, niezależnie od ustawień regionalnych aplikacji ładującej plik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies that printing the contents of this document shall only print the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in their current locations on the page - all other document contents shall be suppressed.&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting online document to be printed into the correct locations on the existing paper form. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że drukowanie zawartości tego dokumentu powoduje wydrukowanie tylko zawartości pól formularza WordprocessingML zdefiniowanych za pomocą  kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w ich bieżących lokalizacjach na stronie — cała pozostała zawartość dokumentu zostanie pominięta.&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wydrukowanie wynikowego dokumentu online w odpowiednich miejscach na istniejącym formularzu papierowym. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the contents of this document shall be printed with fractional character widths. Fractional character widths exist when the spacing between characters is not constant (i.e. a proportional font face is used).&lt;p/&gt;Note: Fractional character widths are generally used in conjunction with large font sizes to prevent characters from running together or having too much space between one another. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies if the grammar and spell checking engines of the last application to process this document completed checking the grammar and spelling of a the document before the document was last saved. Applications which modify the document contents without checking spelling or grammar should reset these states as needed.&lt;p/&gt;Note: If this element specifies that an application's grammar and spell checking engines completed checking the grammar and spelling of the document when the document was last saved, then subsequent applications might elect to not run their grammar and spell checking engines when the given WordprocessingML document is loaded.&lt;p/&gt;This might increase the speed with which the hosting application loads the file, and does not compromise the state of the grammar or spell checking of the document, as all errors have already been found and flagged with the proofErr element (§17.13.8.1) as the document has not been edited, only loaded, since it was last saved. </t>
-  </si>
-  <si>
-    <t>Specifies the number of horizontal grid units defined using the drawingGridHorizontalSpacing element (§17.15.1.45) which shall be allowed between subsequent visible horizontal drawing grid lines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
-  </si>
-  <si>
     <t>Określa liczbę jednostek siatki poziomej zdefiniowanych za pomocą elementu drawingGridHorizontalSpacing (§17.15.1.45), która powinna być dozwolona między kolejnymi widocznymi liniami siatki poziomej w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie IEEE/IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
   </si>
   <si>
-    <t>Specifies the number of vertical grid units defined using the drawingGridVerticalSpacing element (§17.15.1.47) which shall be allowed between subsequent vertical gridlines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500.  The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
-  </si>
-  <si>
     <t>Określa liczbę pionowych jednostek siatki zdefiniowanych za pomocą elementu drawingGridVerticalSpacing (§17.15.1.47), które powinny być dozwolone między kolejnymi pionowymi liniami siatki w tym dokumencie, jeśli są wyświetlane linie siatki. &lt;p/&gt;Uwaga: Wyświetlanie linii siatki jest ustawieniem na poziomie aplikacji, które nie zostało określone w normie IEEE/IEC 29500. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.</t>
   </si>
   <si>
     <t>Specifies that applications shall embed common system fonts when they are in use and font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). Common system fonts refer to a set of fonts which are typically always present on a machine, and are not defined by IEEE/IEC 29500.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that the contents of this document can be upgraded and that the resulting document shall not have its functionality limited to only those functions compatible with earlier word processing applications. The only actions required as part of upgrading the document are:&lt;p/&gt;• The removal of this element. If an application does not know how to upgrade a document, this element should be ignored and persisted.&lt;p/&gt;• The removal of all compatibility options (§17.15.1.21) on the document which maintain compatibility with previous word processing applications. The compatibility settings which simply affect a given behavior shall not be turned off.&lt;p/&gt;Note: The remaining operations which must be performed as part of upgrading the document are application-defined and outside the scope of IEEE/IEC 29500. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu może być uaktualniana i że jego funkcjonalność dokumentu wynikowego nie może być ograniczona tylko do tych funkcji, które są zgodne z wcześniejszymi edytorami tekstu. Jedynymi czynnościami wymaganymi w ramach uaktualniania dokumentu są:&lt;p/&gt;• Usunięcie tego elementu. Jeśli aplikacja nie wie, jak uaktualnić dokument, ten element powinien zostać zignorowany i utrwalony.&lt;p/&gt;• Usunięcie wszystkich opcji kompatybilności (§17.15.1.21) w dokumencie, które zachowują kompatybilność z poprzednimi edytorami tekstu. Ustawienia kompatybilności, które po prostu wpływają na dane zachowanie, nie mogą być wyłączone.&lt;p/&gt;Uwaga: Pozostałe operacje, które muszą zostać wykonane w ramach aktualizacji dokumentu, są zdefiniowane przez aplikację i nie wchodzą w zakres normy IEEE/IEC 29500. </t>
-  </si>
-  <si>
     <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the header and footer of a WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of IEEE/IEC 29500.</t>
   </si>
   <si>
@@ -3392,42 +1832,21 @@
     <t>Określa zestaw znaków, który powinien być ograniczony od początku nowego wiersza dla przebiegów tekstu, które podlegają niestandardowej logice dzielenia wierszy przy użyciu elementu kinsoku (§17.3.1.16) podczas wyświetlania zawartości dokumentu. To ograniczenie ma zastosowanie tylko do tekstu, który został oznaczony w języku tej reguły za pomocą elementu lang (§17.3.2.20) lub metod automatycznego wykrywania poza zakresem IEEE/IEC 29500.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that the PostScript codes specified in WordprocessingML documents containing PRINT fields shall be included in foreground (on the same Z-order as text) with the data printed in the contents of a given WordprocessingML document.&lt;p/&gt;Note: This setting is maintained to ensure compatibility of legacy word processing documents. The PRINT field should not be used in lieu of newer technologies in IEEE/IEC 29500. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że kody PostScript określone w dokumentach WordprocessingML zawierających  pola PRINT mają być dołączane na pierwszym planie (w tej samej kolejności Z co tekst) z danymi drukowanymi w treści danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: To ustawienie jest zachowywane w celu zapewnienia zgodności starszych dokumentów edytora tekstu. Pole PRINT nie powinno być używane zamiast nowszych technologii w IEEE/IEC 29500. </t>
-  </si>
-  <si>
     <t>Specifies that hosting applications shall remove all personal information of document authors upon saving a given WordprocessingML document. The definition and extent of personal information is not defined by IEEE/IEC 29500.</t>
   </si>
   <si>
     <t>Określa, że aplikacje hostujące powinny usuwać wszystkie dane osobowe autorów dokumentów po zapisaniu danego dokumentu WordprocessingML. Definicja i zakres danych osobowych nie są zdefiniowane w normie IEEE/IEC 29500.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that saving the contents of this document shall only save the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in a comma-delimited text format which does not conform to IEEE/IEC 29500 (i.e. it is a one-way export from a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting content to be extracted as a comma-delimited text file. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zapisanie zawartości tego dokumentu spowoduje zapisanie tylko zawartości pól formularza WordprocessingML zdefiniowanych przy użyciu  kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w formacie tekstowym rozdzielanym przecinkami, który nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to jednokierunkowy eksport z dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wyodrębnienie wynikowej zawartości jako pliku tekstowego rozdzielanego przecinkami. </t>
-  </si>
-  <si>
     <t>Specifies that this document should be capable of being saved into a format consisting of a single XML file (not defined by IEEE/IEC 29500) when its contents are invalid based XML schema validation of the custom XML markup contained in the document. This setting has no effect on documents that do not contain custom XML markup, or that do contain custom XML markup but do not have a schema attached. &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional. &lt;p/&gt;If this element is omitted, then applications should not allow this document to be saved into a single XML file when its contents are invalid based on the custom XML markup contained in the document. If the doNotValidateAgainstSchema element (§17.15.1.43) is set, then the XML is never "invalid" and this property is ignored.</t>
   </si>
   <si>
     <t>Określa, że powinno być możliwe zapisanie tego dokumentu w formacie składającym się z pojedynczego pliku XML (niezdefiniowanego przez IEEE/IEC 29500), gdy jego zawartość jest nieprawidłowa na podstawie walidacji schematu XML niestandardowego znacznika XML zawartego w dokumencie. To ustawienie nie ma wpływu na dokumenty, które nie zawierają niestandardowych znaczników XML lub zawierają niestandardowe znaczniki XML, ale nie mają dołączonego schematu. &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez IEEE/IEC 29500, to zachowanie jest opcjonalne.&lt;p/&gt;Jeśli ten element zostanie pominięty, aplikacje nie powinny zezwalać na zapisanie tego dokumentu w pojedynczym pliku XML, jeśli jego zawartość jest nieprawidłowa na podstawie niestandardowego znacznika XML zawartego w dokumencie. Jeśli element doNotValidateAgainstSchema (§17.15.1.43) jest ustawiony, kod XML nigdy nie jest "nieprawidłowy" i ta właściwość jest ignorowana.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies the location of a custom XSL transform which shall be used when this document is saved as a single XML file (in a format not defined by IEEE/IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional. </t>
-  </si>
-  <si>
     <t>Określa lokalizację niestandardowego przekształcenia XSL, które ma być używane, gdy ten dokument jest zapisywany jako pojedynczy plik XML (w formacie niezdefiniowanym przez IEEE/IEC 29500). &lt;p/&gt;Wskazówka: Ponieważ to ustawienie określa zachowanie podczas zapisywania w alternatywnym formacie pliku, który nie został zdefiniowany przez IEEE/IEC 29500, to zachowanie jest opcjonalne.</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifies that the contents of this document shall be saved as an XML file containing only the custom XML markup in this document in its regular form. The resulting document does not conform to IEEE/IEC 29500 (i.e. this is an export-only save option for a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to extract custom XML markup from a WordprocessingML document for further processing by XML-enabled applications. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Określa, że zawartość tego dokumentu zostanie zapisana jako plik XML zawierający tylko niestandardowe znaczniki XML w tym dokumencie w jego zwykłej formie. Wynikowy dokument nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to opcja zapisywania tylko do eksportu dla dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane do wyodrębniania niestandardowych znaczników XML z dokumentu WordprocessingML w celu dalszego przetwarzania przez aplikacje obsługujące XML. </t>
-  </si>
-  <si>
     <t>Specifies the default parameters for object using the VML syntax (§14.1) inserted in the body (the main document story, comments, footnotes, and endnotes) of the WordprocessingML document. The definition and semantics of these parameters is described in the VML - Office Drawing subclause (§14.2) of IEEE/IEC 29500.</t>
   </si>
   <si>
@@ -3449,17 +1868,314 @@
     <t>W przypadku wartości true określa, że przycięte obszary obrazów nie mają być zapisywane. Zapisane obrazy są raczej wynikiem zastosowania imgProps na oryginalnych obrazach. &lt;p/&gt;Jeśli ten element jest nieobecny lub ma wartość "false", przycięte obszary obrazów są zapisywane.</t>
   </si>
   <si>
-    <t xml:space="preserve">Określa klasyfikację danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: Ten element może być używany przez aplikacje hostingowe w celu ułatwienia dostosowania interfejsu użytkownika i/lub automatycznego formatowania w oparciu o "typ" danego dokumentu WordprocessingML. </t>
-  </si>
-  <si>
     <t>Zapisywanie tylko danych XML</t>
+  </si>
+  <si>
+    <t>Początek wsp. poziomych siatki rysunku</t>
+  </si>
+  <si>
+    <t>Początek wsp. pionowych siatki rysunku</t>
+  </si>
+  <si>
+    <t>Właściwości przypisów końcowych</t>
+  </si>
+  <si>
+    <t>Specifies information about the parameters of the grammar checking which was performed on the contents of the current WordprocessingML document. &lt;p/&gt;Note: This information can be used as desired by applications; for example, to determine if the current grammar checking state, specified by the proofState element (§17.15.1.65) is sufficient.</t>
+  </si>
+  <si>
+    <t>Określa informacje o parametrach sprawdzania gramatyki, które zostało wykonane na zawartości bieżącego dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Te informacje mogą być używane przez aplikacje w różny sposób, na przykład do określenia, czy bieżący stan sprawdzania gramatyki, określony przez element proofState (§17.15.1.65) jest wystarczający.</t>
+  </si>
+  <si>
+    <t>Specifies that the custom XML schema whose target namespace matches the value specified in the val attribute should be associated with this document when it is loaded, if such a schema is available to the hosting application. Applications can also load and utilize any additional schemas as well as those explicitly mentioned here. &lt;p/&gt;Note: These custom XML schemas can then be used to validate the structure of the custom XML markup in the document, etc.</t>
+  </si>
+  <si>
+    <t>Określa, że niestandardowy schemat XML, którego docelowa przestrzeń nazw jest zgodna z wartością określoną w atrybucie val, powinien być skojarzony z tym dokumentem podczas ładowania, jeśli taki schemat jest dostępny dla aplikacji hostującej. Aplikacje mogą również ładować i wykorzystywać wszelkie dodatkowe schematy, a także te wyraźnie wymienione w tym miejscu. &lt;p/&gt;Uwaga: Te niestandardowe schematy XML mogą być następnie używane do sprawdzania poprawności struktury niestandardowych znaczników XML w dokumencie itp.</t>
+  </si>
+  <si>
+    <t>Specifies the location of a document template which shall be attached to the current WordprocessingML document if it is accessible and of a format supported by an application. Specifically, this element's val attribute shall contain the file path of the associated document template.</t>
+  </si>
+  <si>
+    <t>Określa lokalizację szablonu dokumentu, który powinien być dołączony do bieżącego dokumentu WordprocessingML, jeśli jest dostępny i ma format obsługiwany przez aplikację. W szczególności atrybut val tego elementu powinien zawierać ścieżkę do pliku powiązanego szablonu dokumentu.</t>
+  </si>
+  <si>
+    <t>Specifies whether formatting automatically applied by an application (i.e. not explicitly applied by a use or an application) shall be allowed to override formatting protection enabled via the formatting attribute on the documentProtection element (§17.15.1.9) when those formatting operations would add formatting which has been explicitly disabled. &lt;p/&gt;Example: Automatically adding superscript to the st in the string 1st.</t>
+  </si>
+  <si>
+    <t>Określa, czy formatowanie automatycznie stosowane przez aplikację (tj. niezastosowane jawnie przez użycie lub aplikację) powinno mieć możliwość zastąpienia ochrony formatowania włączonej za pośrednictwem atrybutu formatowania w elemencie documentProtection (§17.15.1.9), gdy te operacje formatowania dodałyby formatowanie, które zostało jawnie wyłączone. &lt;p/&gt;Przykład: Automatyczne dodawanie indeksu górnego do st w ciągu 1st.</t>
+  </si>
+  <si>
+    <t>Specifies if the contents of a given WordprocessingML document should be printed as signatures. Signatures are printed sheets, which depict several pages of a document that are folded and bound with other signatures to form a booklet, a set of which can be bound together to form a book like publication. Specifically, this element specifies that each page in a given WordprocessingML document should be oriented in a landscape fashion, divided in half vertically with two left margins emanating from the bisector of the page, and two right margins instantiated at the left and right side of each page.</t>
+  </si>
+  <si>
+    <t>Określa, czy zawartość danego dokumentu WordprocessingML powinna być drukowana jako podpisy. Podpisy to drukowane arkusze, które przedstawiają kilka stron dokumentu, które są składane i oprawiane innymi podpisami w celu utworzenia broszury, której zestaw można związać ze sobą, tworząc publikację przypominającą książkę. W szczególności ten element określa, że każda strona w danym dokumencie WordprocessingML powinna być zorientowana w orientacji poziomej, podzielona na pół w pionie z dwoma lewymi marginesami wychodzącymi z dwusiecznej strony i dwoma prawymi marginesami utworzonymi po lewej i prawej stronie każdej strony.</t>
+  </si>
+  <si>
+    <t>This element shall be used in conjunction with the bookFoldPrinting (§17.15.1.11) and bookFoldRevPrinting (§17.15.1.13) elements to specify the number of pages to be included in each booklet when printing a series of signatures. Signatures are printed sheets, which depict several pages of a document that are to be folded and bound with other signatures to form a booklet. Booklets can be bound together to form a book like publication.</t>
+  </si>
+  <si>
+    <t>Element ten powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane arkusze, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
+  </si>
+  <si>
+    <t>Shall be used in conjunction with the bookFoldPrinting (§17.15.1.11) and bookFoldRevPrinting (§17.15.1.13) elements to specify the number of pages to be included in each booklet when printing a series of signatures. Signatures are printed sheets, which depict several pages of a document that are to be folded and bound with other signatures to form a booklet. Booklets can be bound together to form a book like publication.</t>
+  </si>
+  <si>
+    <t>Powinien być używany w połączeniu z elementami bookFoldPrinting (§17.15.1.11) i bookFoldRevPrinting (§17.15.1.13) w celu określenia liczby stron, które mają być zawarte w każdej broszurze podczas drukowania serii podpisów. Podpisy to wydrukowane arkusze, które przedstawiają kilka stron dokumentu, które mają być złożone i oprawione innymi podpisami w celu utworzenia broszury. Broszury można oprawić ze sobą, tworząc książkę podobną do publikacji.</t>
+  </si>
+  <si>
+    <t>Specifies the presence of information about captionsin a given WordprocessingML document. This information is divided into two components:&lt;p/&gt;• The child element caption defines the format for a single type of caption to be automatically added to the document.&lt;p/&gt;• The child element autoCaptions defines the types of objects to which a caption format shall automatically be applied.&lt;p/&gt;This information should be used to determine the captions which are automatically added to objects when they are inserted into a WordprocessingML document. &lt;p/&gt;Note: This setting is typically ignored unless it is specified in an application's default template.</t>
+  </si>
+  <si>
+    <t>Określa obecność informacji o podpisach w danym dokumencie WordprocessingML. Informacje te są podzielone na dwa komponenty:&lt;p/&gt;• Podpis elementu podrzędnego określa format pojedynczego typu podpisu, który ma być automatycznie dodawany do dokumentu.&lt;p/&gt;• Element podrzędny autoCaptions definiuje typy obiektów, do których format napisów ma być automatycznie stosowany.&lt;p/&gt;Te informacje powinny być używane do określania podpisów, które są automatycznie dodawane do obiektów po ich wstawieniu do dokumentu WordprocessingML. &lt;p/&gt;Uwaga: To ustawienie jest zwykle ignorowane, chyba że jest określone w domyślnym szablonie aplikacji.</t>
+  </si>
+  <si>
+    <t>Specifies how full-width characters in the current WordprocessingML document should be compressed to remove additional whitespace when the contents of this document are displayed, specifically by specifying the set(s) of characters which can be compressed to remove additional whitespace. &lt;p/&gt;Note: The behavior of this element is functionally identical to the text-justify-trim property.</t>
+  </si>
+  <si>
+    <t>Określa, w jaki sposób znaki o pełnej szerokości w bieżącym dokumencie WordprocessingML powinny być kompresowane w celu usunięcia dodatkowych białych znaków podczas wyświetlania zawartości tego dokumentu, w szczególności przez określenie zestawów znaków, które można skompresować w celu usunięcia dodatkowych białych znaków. &lt;p/&gt;Uwaga: Zachowanie tego elementu jest funkcjonalnie identyczne z właściwością text-justify-trim .</t>
+  </si>
+  <si>
+    <t>Specifies how the datapoint properties and datalabels in all charts in this document behave. The meaning of the setting is as follows:&lt;p/&gt;True Datapoint properties and datalabels in all charts in this document follow their reference.&lt;p/&gt;False Datapoint properties and datalabels in all charts in this document follow their position in the chart.</t>
+  </si>
+  <si>
+    <t>Określa sposób zachowania właściwości punktu danych i etykiet danych na wszystkich wykresach w tym dokumencie. Znaczenie tego ustawienia jest następujące:&lt;p/&gt;True Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich odwołaniem.&lt;p/&gt;False Właściwości punktów danych i etykiety danych na wszystkich wykresach w tym dokumencie są zgodne z ich położeniem na wykresie.</t>
+  </si>
+  <si>
+    <t>Specifies the character that shall be interpreted as the radix point when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the radix point in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the radix point which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file.</t>
+  </si>
+  <si>
+    <t>Określa znak, który ma być interpretowany jako punkt podstawy podczas oceniania zawartości wszystkich pól w bieżącym dokumencie.&lt;p/&gt;Uzasadnienie: Podczas oceniania instrukcji polowych na podstawie zawartości bieżącego dokumentu, konieczna jest znajomość znaku, który musi być traktowany jako punkt podstawy, aby zapobiec zmianom w obliczeniach tych samych instrukcji pola na podstawie ustawień regionalnych bieżącego użytkownika. Ten element przechowuje punkt podstawy, który musi być używany do oceny pól w zawartości tego dokumentu, niezależnie od ustawień regionalnych aplikacji ładującej plik.</t>
+  </si>
+  <si>
+    <t>Specifies the value which shall be used as the multiplier to generate automatic tab stops in this document. Automatic tab stops refer to the tab stop locations which occur after all custom tab stops in the current paragraph have been surpassed.</t>
+  </si>
+  <si>
+    <t>Określa wartość, która ma być używana jako mnożnik do generowania automatycznych tabulatorów w tym dokumencie. Tabulatory automatyczne odnoszą się do lokalizacji tabulatorów, które występują po przekroczeniu wszystkich niestandardowych tabulatorów w bieżącym akapicie.</t>
+  </si>
+  <si>
+    <t>Specifies the number of horizontal grid units defined using the drawingGridHorizontalSpacing element (§17.15.1.45) which shall be allowed between subsequent visible horizontal drawing grid lines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500. The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
+  </si>
+  <si>
+    <t>Specifies the number of vertical grid units defined using the drawingGridVerticalSpacing element (§17.15.1.47) which shall be allowed between subsequent vertical gridlines in this document, if gridlines are being shown. &lt;p/&gt;Note: The display of gridlines is an application-level setting not specified in IEEE/IEC 29500. The drawing grid is a grid which can be used by applications to help position floating objects in the document.</t>
+  </si>
+  <si>
+    <t>Specifies the set of document protection restrictions which have been applied to the contents of a WordprocessingML document. These restrictions should be enforced by applications editing this document when the enforcement attribute is turned on, and ignored (but persisted) otherwise. Document protection is a set of restrictions used to prevent unintentional changes to all or part of a WordprocessingML document. &lt;p/&gt;Note: This protection does not encrypt the document, and malicious applications might circumvent its use. This protection is not intended as a security feature.</t>
+  </si>
+  <si>
+    <t>Określa zestaw ograniczeń ochrony dokumentów, które zostały zastosowane do zawartości dokumentu WordprocessingML. Te ograniczenia powinny być wymuszane przez aplikacje edytujące ten dokument, gdy atrybut wymuszania jest włączony i ignorowane (ale utrwalane) w przeciwnym razie. Ochrona dokumentów to zestaw ograniczeń używanych w celu zapobiegania niezamierzonym zmianom w całości lub części dokumentu WordprocessingML. &lt;p/&gt;Uwaga: Ta ochrona nie szyfruje dokumentu, a złośliwe aplikacje mogą obejść jego użycie. Ta ochrona nie jest przeznaczona jako funkcja bezpieczeństwa.</t>
+  </si>
+  <si>
+    <t>Specifies the classification of a given WordprocessingML document.&lt;p/&gt;Note: This element can be used by hosting applications to facilitate customized user interface and/or automatic formatting behaviors based on the 'type' of a given WordprocessingML document.</t>
+  </si>
+  <si>
+    <t>Określa klasyfikację danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: Ten element może być używany przez aplikacje hostingowe w celu ułatwienia dostosowania interfejsu użytkownika i/lub automatycznego formatowania w oparciu o "typ" danego dokumentu WordprocessingML.</t>
+  </si>
+  <si>
+    <t>Specifies the presence of documentvariables in a WordprocessingML. A document variable is a storage location for arbitrary customer data in name/value pairs that is persisted in a given WordprocessingML document.</t>
+  </si>
+  <si>
+    <t>Określa obecność zmiennych dokumentu w języku WordprocessingML. Zmienna dokumentu to lokalizacja przechowywania dowolnych danych klienta w parach nazwa/wartość, która jest utrwalana w danym dokumencie WordprocessingML.</t>
+  </si>
+  <si>
+    <t>Specifies whether applications displaying this document should display the contents of the header and footer when displaying the document in print layout view (§17.15.1.92) or should collapse those areas as well as the whitespace on all displayed pages so that the text extents are directly following one another. &lt;p/&gt;Rationale: Collapsing the ends of pages makes it easier to read the contents of the document, since the text flows between pages without whitespace, while maintaining the WYSIWYG functionality of print layout view for the document's main content.</t>
+  </si>
+  <si>
+    <t>Określa, czy aplikacje wyświetlające ten dokument powinny wyświetlać zawartość nagłówka i stopki podczas wyświetlania dokumentu w widoku układu wydruku (§17.15.1.92), czy też powinny zwijać te obszary, a także białe znaki na wszystkich wyświetlanych stronach, tak aby zakresy tekstu znajdowały się bezpośrednio po sobie. &lt;p/&gt;Uzasadnienie: Zwijanie końców stron ułatwia odczytywanie zawartości dokumentu, ponieważ tekst przepływa między stronami bez białych znaków, przy jednoczesnym zachowaniu funkcji WYSIWYG widoku układu wydruku dla głównej zawartości dokumentu.</t>
+  </si>
+  <si>
+    <t>Specifies if document content contained in text boxes, footnotes, and endnotes shall be excluded when an application calculates a given document’s statistics when these values are calculated and/or displayed by an application.&lt;p/&gt;Note: Some examples of document statistics that an application might chose to calculate are: number of words, number of characters, number of paragraphs, number of pages, number of lines, and so on.</t>
+  </si>
+  <si>
+    <t>Określa, czy zawartość dokumentu zawarta w polach tekstowych, przypisach dolnych i końcowych ma być wykluczana, gdy aplikacja oblicza statystyki danego dokumentu, gdy te wartości są obliczane i/lub wyświetlane przez aplikację.&lt;p/&gt;Uwaga: Oto kilka przykładów statystyk dokumentów, które aplikacja może wybrać do obliczenia: liczba słów, liczba znaków, liczba akapitów, liczba stron, liczba wierszy i tak dalej.</t>
+  </si>
+  <si>
+    <t>Specifies whether a visual cue should be displayed around form fields contained in a WordprocessingML document specified via the FORMTEXT, FORMCHECKBOX, or FORMDROPDOWN fields.</t>
+  </si>
+  <si>
+    <t>Określa, czy podpowiedź wizualna powinna być wyświetlana wokół pól formularza zawartych w dokumencie WordprocessingML określonym za pomocą pól FORMTEXT, FORMCHECKBOX lub FORMDROPDOWN.</t>
+  </si>
+  <si>
+    <t>Specifies that applications shall not track revisions made to this WordprocessingML document as moves when the trackRevisions element (§17.15.1.89) is turned on, even when that syntax is appropriate. Instead, applications should use a standard insertion and deletion annotation syntax. Existing moves shall not be modified. &lt;p/&gt;Rationale: This element is provided to enable interoperability with earlier word processing applications which do not understand moves.</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje nie mogą śledzić poprawek wprowadzonych do tego dokumentu WordprocessingML podczas ruchu, gdy element trackRevisions (§17.15.1.89) jest włączony, nawet jeśli ta składnia jest odpowiednia. Zamiast tego aplikacje powinny używać standardowej składni adnotacji wstawiania i usuwania. Istniejące ruchy nie mogą być modyfikowane. &lt;p/&gt;Uzasadnienie: Ten element został dostarczony, aby umożliwić interoperacyjność z wcześniejszymi aplikacjami do edycji tekstu, które nie rozumieją ruchów.</t>
+  </si>
+  <si>
+    <t>Specifies that the top-left corner of the page shall not be used as the origin for the drawing grid. The drawing grid is a virtual grid which can be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). If this element is present the grid shall start at the top-left edge of the page and not the text extents.</t>
+  </si>
+  <si>
+    <t>Określa, że lewy górny róg strony nie może być używany jako początek siatki rysunku. Siatka rysunkowa to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Jeśli ten element jest obecny, siatka powinna zaczynać się od lewej górnej krawędzi strony, a nie od zakresu tekstu.</t>
+  </si>
+  <si>
+    <t>Specifies the distance from of the left edge of the page which shall be used as the origin for the horizontal gridlines used by the drawing grid. The drawing grid is a virtual grid which might be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). Since the grid always covers the entire page when the doNotUseMarginsForDrawingGridOrigin element (§17.15.1.42) is specified, this element shall only affect the starting edge of the first horizontal gridline displayed (i.e. it only adjusts the grid by the modulus of the value against the width of one grid unit).</t>
+  </si>
+  <si>
+    <t>Określa odległość od lewej krawędzi strony, która ma być używana jako początek poziomych linii siatki używanych przez siatkę rysunku. Siatka rysunkowa to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (np. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien wpływać tylko na krawędź początkową pierwszej wyświetlanej poziomej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
+  </si>
+  <si>
+    <t>Specifies the width of horizontal grid units in this document. The drawing grid is a grid which can be used by applications to help position floating objects in the document.&lt;p/&gt;If this element is omitted, then each horizontal grid unit shall be 180 twentieths of a point (0.125") in width.</t>
+  </si>
+  <si>
+    <t>Określa szerokość poziomych jednostek siatki w tym dokumencie. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pozioma jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
+  </si>
+  <si>
+    <t>Specifies the distance from of the top edge of the page which shall be used as the origin for the vertical gridlines used by the drawing grid. The drawing grid is a virtual grid which can be used by applications to specify where drawing objects shall be positioned on a page when inserted (i.e. to ensure objects are aligned, etc.). Since the grid always covers the entire page when the doNotUseMarginsForDrawingGridOrigin element (§17.15.1.42) is specified, this element shall only affect the starting edge of the first vertical gridline displayed (i.e. it only adjusts the grid by the modulus of the value against the width of one grid unit).</t>
+  </si>
+  <si>
+    <t>Określa odległość od górnej krawędzi strony, która ma być używana jako początek pionowych linii siatki używanych przez siatkę rysunku. Siatka rysunkowa to wirtualna siatka, która może być używana przez aplikacje do określania, gdzie obiekty rysunkowe powinny być umieszczone na stronie po wstawieniu (tj. w celu zapewnienia wyrównania obiektów itp.). Ponieważ siatka zawsze obejmuje całą stronę, gdy określony jest element doNotUseMarginsForDrawingGridOrigin (§17.15.1.42), element ten powinien mieć wpływ tylko na krawędź początkową pierwszej wyświetlanej pionowej linii siatki (tj. dostosowuje siatkę tylko o moduł wartości w stosunku do szerokości jednej jednostki siatki).</t>
+  </si>
+  <si>
+    <t>Specifies the width of vertical grid units in this document. The drawing grid is a grid which can be used by applications to help position floating objects in the document.&lt;p/&gt;If this element is omitted, then each vertical grid unit shall be 180 twentieths of a point (0.125") in width.</t>
+  </si>
+  <si>
+    <t>Określa szerokość pionowych jednostek siatki w tym dokumencie. Siatka rysunku to siatka, która może być używana przez aplikacje do określania położenia obiektów przestawnych w dokumencie.&lt;p/&gt;Jeśli ten element zostanie pominięty, każda pionowa jednostka siatki powinna mieć 180 dwudziestych punktu (0,125”) szerokości.</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje powinny osadzać popularne czcionki systemowe, gdy są używane, a osadzanie czcionek jest włączone dla tego dokumentu za pomocą elementu embedTrueTypeFonts (§17.8.3.8). Typowe czcionki systemowe odnoszą się do zestawu czcionek, które zazwyczaj są zawsze obecne na komputerze i nie są zdefiniowane w normie IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies whether sections in this document shall have different headers and footers for even and odd pages (an odd page header/footer and an even page header/footer).&lt;p/&gt;If the val attribute is set to true, then each section in the document shall use an odd page header for all odd numbered pages in the section, and an even page header for all even numbered pages in the section (counting each page in the section starting from one, regardless of the page numbering settings for the section). If the val attribute is set to false, then all pages in a section shall use the odd page header.&lt;p/&gt;This setting does not affect the presence of a first page header on each section, which is specified using the titlePg element (§17.10.6). If a first page header is specified, then all subsequent pages shall have this setting applied, including the first page in the odd/even page count.&lt;p/&gt;If this element is set to false and an even page header is specified , then it shall be ignored and only the odd page header shall be displayed. Conversely, if this element is set to true and either header type is omitted for a given section, then a blank header shall be created as needed (another header type shall not be used in its place).</t>
+  </si>
+  <si>
+    <t>Określa, czy sekcje w tym dokumencie mają mieć różne nagłówki i stopki dla stron parzystych i nieparzystych (nagłówek/stopka strony nieparzystej i nagłówek/stopka strony parzystej).&lt;p/&gt;Jeśli atrybut val jest ustawiony na wartość true, to każda sekcja w dokumencie powinna używać nieparzystego nagłówka strony dla wszystkich stron o numerach nieparzystych w sekcji i nagłówka strony parzystej dla wszystkich stron o numerach parzystych w sekcji (licząc każdą stronę w sekcji zaczynając od jednej, niezależnie od ustawień numeracji stron dla sekcji). Jeśli atrybut val jest ustawiony na false, to wszystkie strony w sekcji powinny używać nieparzystego nagłówka strony.&lt;p/&gt;To ustawienie nie ma wpływu na obecność nagłówka pierwszej strony w każdej sekcji, który jest określony za pomocą elementu titlePg (§17.10.6). Jeśli określono nagłówek pierwszej strony, to ustawienie to zostanie zastosowane na wszystkich kolejnych stronach, w tym na pierwszej stronie w liczbie stron parzystych/nieparzystych.&lt;p/&gt;Jeśli ten element jest ustawiony na false i określony jest nagłówek strony parzystej , to zostanie zignorowany i zostanie wyświetlony tylko nagłówek strony nieparzystej. I odwrotnie, jeśli ten element jest ustawiony na true i któryś z typów nagłówka zostanie pominięty dla danej sekcji, to w razie potrzeby zostanie utworzony pusty nagłówek (w jego miejsce nie należy używać innego typu nagłówka).</t>
+  </si>
+  <si>
+    <t>Specifies that the contents of this document can be upgraded and that the resulting document shall not have its functionality limited to only those functions compatible with earlier word processing applications. The only actions required as part of upgrading the document are:&lt;p/&gt;• The removal of this element. If an application does not know how to upgrade a document, this element should be ignored and persisted.&lt;p/&gt;• The removal of all compatibility options (§17.15.1.21) on the document which maintain compatibility with previous word processing applications. The compatibility settings which simply affect a given behavior shall not be turned off.&lt;p/&gt;Note: The remaining operations which must be performed as part of upgrading the document are application-defined and outside the scope of IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa, że zawartość tego dokumentu może być uaktualniana i że jego funkcjonalność dokumentu wynikowego nie może być ograniczona tylko do tych funkcji, które są zgodne z wcześniejszymi edytorami tekstu. Jedynymi czynnościami wymaganymi w ramach uaktualniania dokumentu są:&lt;p/&gt;• Usunięcie tego elementu. Jeśli aplikacja nie wie, jak uaktualnić dokument, ten element powinien zostać zignorowany i utrwalony.&lt;p/&gt;• Usunięcie wszystkich opcji kompatybilności (§17.15.1.21) w dokumencie, które zachowują kompatybilność z poprzednimi edytorami tekstu. Ustawienia kompatybilności, które po prostu wpływają na dane zachowanie, nie mogą być wyłączone.&lt;p/&gt;Uwaga: Pozostałe operacje, które muszą zostać wykonane w ramach aktualizacji dokumentu, są zdefiniowane przez aplikację i nie wchodzą w zakres normy IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies that a given WordprocessingML document’s gutter shall be positioned at the top of the document’s pages when the document is displayed. A gutter is the white space formed by the inner margins of two pages facing one another; such as the white space between the text on pages of a book when the book is opened.&lt;p/&gt;If this element is omitted, then the gutter shall not be positioned at the top of the page. If the mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13), or printTwoOnOne (§17.15.1.64) elements are used within a given document, the gutterAtTop element shall not be used. Rather, the gutter shall be positioned automatically as necessary to enable the printing and page layout capabilities of these settings.</t>
+  </si>
+  <si>
+    <t>Określa, że margines na oprawę danego dokumentu WordprocessingML powinien być umieszczony u góry stron dokumentu podczas wyświetlania dokumentu. Margines na oprawę to biały obszar utworzony przez wewnętrzne marginesy dwóch stron zwróconych do siebie, na przykład biały obszar między tekstem na stronach książki, gdy książka jest otwarta.&lt;p/&gt;Jeśli ten element zostanie pominięty, to margines na oprawę nie zostanie umieszczony u góry strony. Jeśli w danym dokumencie używane są elementy mirrorMargins (§17.15.1.57), bookFoldPrinting (§17.15.1.11), bookFoldRevPrinting (§17.15.1.13) lub printTwoOnOne (§17.15.1.64), element gutterAtTop nie będzie używany. Zamiast tego margines na oprawę powinien być ustawiany automatycznie, jeśli jest to konieczne, aby umożliwić drukowanie i układ strony w tych ustawieniach.</t>
+  </si>
+  <si>
+    <t>Specifies the hyphenation zone which shall be used when automatically or manually hyphenating the contents of this document. The hyphenation zone is the amount of whitespace which can be left at the end of a line (or added to justified lines) before hyphenation should be attempted on the next word in the document (in order to reduce the amount of whitespace on the line). A smaller hyphenation zone should reduce the raggedness of the right edge of a given document's body text, as more words is hyphenated. Conversely, a larger hyphenation zone should increase the raggedness of the right edge of a given document's text, as fewer words is hyphenated.&lt;p/&gt;If this element is omitted, then a default hyphenation zone of 360 twentieths of a point (0.25") shall be applied when performing hyphenation on this document.</t>
+  </si>
+  <si>
+    <t>Określa strefę dzielenia wyrazów, która ma być używana podczas automatycznego lub ręcznego dzielenia wyrazów w zawartości tego dokumentu. Strefa dzielenia wyrazów to ilość białych znaków, którą można pozostawić na końcu wiersza (lub dodać do wyjustowanych wierszy) przed próbą dzielenia wyrazów w następnym słowie w dokumencie (w celu zmniejszenia ilości białych znaków w wierszu). Mniejsza strefa dzielenia wyrazów powinna zmniejszyć nierówność prawej krawędzi tekstu podstawowego danego dokumentu, ponieważ dzielenie wyrazów jest większą liczbą wyrazów. I odwrotnie, większa strefa dzielenia wyrazów powinna zwiększyć nierówność prawej krawędzi tekstu danego dokumentu, ponieważ dzieli się mniej wyrazów.&lt;p/&gt;Jeśli ten element zostanie pominięty, podczas dzielenia wyrazów w tym dokumencie zostanie zastosowana domyślna strefa dzielenia wyrazów wynosząca 360 dwudziestych punktu (0,25§).</t>
+  </si>
+  <si>
+    <t>Specifies that applications should ignore all text content which is not contained within a leaf custom XML markup element when validating the contents of the custom XML markup in this document against one or more attached custom XML schema(s). A leaf element is a custom XML element which has no child custom XML elements (it is a leaf in the custom XML tree).</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje powinny ignorować całą zawartość tekstową, która nie jest zawarta w niestandardowym elemencie znacznika XML liścia, podczas sprawdzania poprawności zawartości niestandardowego znacznika XML w tym dokumencie względem co najmniej jednego dołączonego niestandardowego schematu XML. Element liścia to niestandardowy element XML, który nie ma podrzędnych niestandardowych elementów XML (jest to liść w niestandardowym drzewie XML).</t>
+  </si>
+  <si>
+    <t>Specifies the character that shall be interpreted as a list item separator when evaluating the contents of all fields in the current document.&lt;p/&gt;Rationale: When evaluating field instructions based on the contents of the current document, it is necessary to know the character which must be treated as the list separator in order to prevent changes to the calculation of the same field instructions based on the current user's locale. This element stores the list separator which must be used to evaluate fields in the contents of this document, irrespective of the locale of the application loading the file.</t>
+  </si>
+  <si>
+    <t>Określa znak, który ma być interpretowany jako separator elementu listy podczas oceniania zawartości wszystkich pól w bieżącym dokumencie.&lt;p/&gt;Uzasadnienie: Podczas oceniania instrukcji pól na podstawie zawartości bieżącego dokumentu, konieczna jest znajomość znaku, który musi być traktowany jako separator listy, aby zapobiec zmianom w obliczaniu tych samych instrukcji pól na podstawie ustawień regionalnych bieżącego użytkownika. Ten element przechowuje separator listy, który musi być używany do oceny pól w zawartości tego dokumentu, niezależnie od ustawień regionalnych aplikacji ładującej plik.</t>
+  </si>
+  <si>
+    <t>Specifies all of the mail merge information for a document that has been connected to an external data source as part of a mail merge operation.&lt;p/&gt;The document which contains this mail merge data can be of one of two types:&lt;p/&gt;• A source document, the document which contains all of the information for the mail merge, and is used in conjunction with an application to connect to an external data source and create one document for each record in that data source.&lt;p/&gt;• A merged document, a document which contains all of the information for the mail merge as well as a reference to a single specific record which shall be used to populate the values of all of the merge fields in that document.&lt;p/&gt;The information in this element shall contain all data needed to connect to a data source and populate any merge fields in the document with data from that data source.</t>
+  </si>
+  <si>
+    <t>Określa wszystkie informacje dotyczące korespondencji seryjnej dla dokumentu, który został połączony z zewnętrznym źródłem danych w ramach operacji korespondencji seryjnej.&lt;p/&gt;Dokument zawierający dane korespondencji seryjnej może być jednego z dwóch typów:&lt;p/&gt;• Dokument źródłowy, czyli dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, używany w połączeniu z aplikacją do łączenia się z zewnętrznym źródłem danych i tworzenia jednego dokumentu dla każdego rekordu w tym źródle danych.&lt;p/&gt;• Scalony dokument, dokument zawierający wszystkie informacje dotyczące korespondencji seryjnej, a także odniesienie do pojedynczego konkretnego rekordu, który zostanie użyty do wypełnienia wartości wszystkich pól korespondencji seryjnej w tym dokumencie.&lt;p/&gt;Informacje w tym elemencie zawierają wszystkie dane potrzebne do nawiązania połączenia ze źródłem danych i wypełnienia wszelkich pól scalanych w dokumencie danymi z tego źródła danych.</t>
+  </si>
+  <si>
+    <t>Określa, że lewy i prawy margines zdefiniowany we właściwościach sekcji mają być zamienione miejscami na stronach sąsiadujących.&lt;p/&gt;Wskazówka: To ustawienie jest zwykle używane podczas drukowania na obu stronach stron i oprawiania ich jak książki.</t>
+  </si>
+  <si>
+    <t>Specifies that punctuation characters shall not be kerned in the current document when kerning is enabled on a run using the kern element (§17.3.2.19). Kerning refers to a process by which a hosting application shall reduce the spacing of adjacent characters and/or punctuation to improve the visual appearance of text. Well kerned text has a similar amount of blank space between each pair of characters and/or each set of a character and punctuation symbol. When kerning is enabled, Latin text shall always be kerned, and this option shall control whether punctuation characters are also kerned.</t>
+  </si>
+  <si>
+    <t>Określa, że znaki interpunkcyjne nie mogą być kerowane w bieżącym dokumencie, gdy kerning jest włączony w przebiegu przy użyciu elementu kern (§17.3.2.19). Kerning odnosi się do procesu, w którym aplikacja hostująca zmniejsza odstępy między sąsiadującymi znakami i/lub interpunkcją w celu poprawy wyglądu tekstu. Tekst o dobrym kerze ma podobną ilość spacji między każdą parą znaków i/lub każdym zestawem znaku i symbolu interpunkcyjnego. Gdy kerning jest włączony, tekst łaciński jest zawsze kerningowany, a opcja ta określa, czy kerningowane są również znaki interpunkcyjne.</t>
+  </si>
+  <si>
+    <t>Specifies a unique identifier for a set of documents derived from a common source. The possible values for this attribute are defined by the ST_Guid simple type</t>
+  </si>
+  <si>
+    <t>Określa unikatowy identyfikator zestawu dokumentów pochodzących ze wspólnego źródła. Możliwe wartości tego atrybutu są definiowane przez ST_Guid typ simple</t>
+  </si>
+  <si>
+    <t>Specifies that printing the contents of this document shall only print the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in their current locations on the page - all other document contents shall be suppressed.&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting online document to be printed into the correct locations on the existing paper form.</t>
+  </si>
+  <si>
+    <t>Określa, że drukowanie zawartości tego dokumentu powoduje wydrukowanie tylko zawartości pól formularza WordprocessingML zdefiniowanych za pomocą kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w ich bieżących lokalizacjach na stronie — cała pozostała zawartość dokumentu zostanie pominięta.&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wydrukowanie wynikowego dokumentu online w odpowiednich miejscach na istniejącym formularzu papierowym.</t>
+  </si>
+  <si>
+    <t>Specifies the contents of this document shall be printed with fractional character widths. Fractional character widths exist when the spacing between characters is not constant (i.e. a proportional font face is used).&lt;p/&gt;Note: Fractional character widths are generally used in conjunction with large font sizes to prevent characters from running together or having too much space between one another.</t>
+  </si>
+  <si>
+    <t>Określa, że zawartość tego dokumentu powinna być drukowana z szerokością ułamkową. Ułamkowe szerokości znaków występują, gdy odstępy między znakami nie są stałe (tj. używany jest proporcjonalny krój czcionki).&lt;p/&gt;Uwaga: Ułamkowe szerokości znaków są zwykle używane w połączeniu z dużymi rozmiarami czcionek, aby zapobiec zbieganiu się znaków lub zbyt dużej odległości między nimi.</t>
+  </si>
+  <si>
+    <t>Specifies that the PostScript codes specified in WordprocessingML documents containing PRINT fields shall be included in foreground (on the same Z-order as text) with the data printed in the contents of a given WordprocessingML document.&lt;p/&gt;Note: This setting is maintained to ensure compatibility of legacy word processing documents. The PRINT field should not be used in lieu of newer technologies in IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Określa, że kody PostScript określone w dokumentach WordprocessingML zawierających pola PRINT mają być dołączane na pierwszym planie (w tej samej kolejności Z co tekst) z danymi drukowanymi w treści danego dokumentu WordprocessingML.&lt;p/&gt;Uwaga: To ustawienie jest zachowywane w celu zapewnienia zgodności starszych dokumentów edytora tekstu. Pole PRINT nie powinno być używane zamiast nowszych technologii w IEEE/IEC 29500.</t>
+  </si>
+  <si>
+    <t>Specifies if the grammar and spell checking engines of the last application to process this document completed checking the grammar and spelling of a the document before the document was last saved. Applications which modify the document contents without checking spelling or grammar should reset these states as needed.&lt;p/&gt;Note: If this element specifies that an application's grammar and spell checking engines completed checking the grammar and spelling of the document when the document was last saved, then subsequent applications might elect to not run their grammar and spell checking engines when the given WordprocessingML document is loaded.&lt;p/&gt;This might increase the speed with which the hosting application loads the file, and does not compromise the state of the grammar or spell checking of the document, as all errors have already been found and flagged with the proofErr element (§17.13.8.1) as the document has not been edited, only loaded, since it was last saved.</t>
+  </si>
+  <si>
+    <t>Określa, czy aparaty sprawdzania gramatyki i pisowni ostatniej aplikacji, która przetwarzała ten dokument, zakończyły sprawdzanie gramatyki i pisowni dokumentu przed jego ostatnim zapisaniem. Aplikacje, które modyfikują zawartość dokumentu bez sprawdzania pisowni lub gramatyki, powinny w razie potrzeby zresetować te stany.&lt;p/&gt;Uwaga: Jeśli ten element określa, że mechanizmy sprawdzania gramatyki i pisowni aplikacji zakończyły sprawdzanie gramatyki i pisowni dokumentu podczas ostatniego zapisywania dokumentu, kolejne aplikacje mogą zdecydować się nie uruchamiać swoich aparatów sprawdzania gramatyki i pisowni po załadowaniu danego dokumentu WordprocessingML.&lt;p/&gt;Może to zwiększyć szybkość, z jaką aplikacja hostująca ładuje plik i nie wpływa negatywnie na stan sprawdzania gramatyki lub pisowni dokumentu, ponieważ wszystkie błędy zostały już znalezione i oznaczone za pomocą elementu proofErr (§17.13.8.1), ponieważ dokument nie był edytowany, a jedynie załadowany, od czasu ostatniego zapisanego.</t>
+  </si>
+  <si>
+    <t>Specifies the set of revision save ID values for the current document. Revision save ID values refer to four digit hexadecimal values which uniquely identify an editing session in the life of the current document. An editing session is the period of time between two subsequent save operations by an application.&lt;p/&gt;Guidance: The set of revision save IDs stored with a document only supplies information about the editing session in which document components were last saved, which can be used by applications in any manner desired.</t>
+  </si>
+  <si>
+    <t>Specifies that saving the contents of this document shall only save the contents of WordprocessingML form fields defined using the FORMTEXT, FORMCHECKBOX, and FORMDROPDOWN field codes in a comma-delimited text format which does not conform to IEEE/IEC 29500 (i.e. it is a one-way export from a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to allow duplication of paper forms in electronic WordprocessingML document form, allowing the resulting content to be extracted as a comma-delimited text file.</t>
+  </si>
+  <si>
+    <t>Określa, że zapisanie zawartości tego dokumentu spowoduje zapisanie tylko zawartości pól formularza WordprocessingML zdefiniowanych przy użyciu kodów pól FORMTEXT, FORMCHECKBOX i FORMDROPDOWN w formacie tekstowym rozdzielanym przecinkami, który nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to jednokierunkowy eksport z dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane, aby umożliwić powielanie formularzy papierowych w elektronicznym formularzu dokumentu WordprocessingML, co pozwala na wyodrębnienie wynikowej zawartości jako pliku tekstowego rozdzielanego przecinkami.</t>
+  </si>
+  <si>
+    <t>Specifies that applications shall subset fonts when font embedding is enabled for this document using the embedTrueTypeFonts element (§17.8.3.8). Subsetting is a mechanism by which only the glyphs used in the contents of this WordprocessingML document are stored in an embedded font, in order to prevent the file from becoming unnecessarily large from the use of a small number of glyphs from a large embedded font.&lt;p/&gt;If this element is omitted, then the set of fonts should not be subsetted in the current document when font embedded is turned on. If the embedTrueTypeFonts element is omitted or false, then this setting has no effect.</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje powinny tworzyć podzbiór czcionek, gdy dla tego dokumentu jest włączone osadzanie czcionek przy użyciu elementu embedTrueTypeFonts (§17.8.3.8). Podzbiór to mechanizm, w którym tylko glify używane w zawartości tego dokumentu WordprocessingML są przechowywane w czcionce osadzonej, aby zapobiec niepotrzebnemu powiększaniu pliku w wyniku użycia niewielkiej liczby glifów z dużej czcionki osadzonej.&lt;p/&gt;Jeśli ten element zostanie pominięty, zestaw czcionek nie powinien być podzbiorem w bieżącym dokumencie, gdy włączona jest czcionka osadzona. Jeśli element embedTrueTypeFonts zostanie pominięty lub będzie fałszywy, to ustawienie nie będzie miało żadnego wpływu.</t>
+  </si>
+  <si>
+    <t>Specifies the location of a custom XSL transform which shall be used when this document is saved as a single XML file (in a format not defined by IEEE/IEC 29500). &lt;p/&gt;Guidance: Because this setting specifies behavior when saving to an alternative file format not defined by IEEE/IEC 29500, this behavior is optional.</t>
+  </si>
+  <si>
+    <t>Specifies that the contents of this document shall be saved as an XML file containing only the custom XML markup in this document in its regular form. The resulting document does not conform to IEEE/IEC 29500 (i.e. this is an export-only save option for a WordprocessingML document).&lt;p/&gt;Rationale: This setting is typically used to extract custom XML markup from a WordprocessingML document for further processing by XML-enabled applications.</t>
+  </si>
+  <si>
+    <t>Określa, że zawartość tego dokumentu zostanie zapisana jako plik XML zawierający tylko niestandardowe znaczniki XML w tym dokumencie w jego zwykłej formie. Wynikowy dokument nie jest zgodny z normą IEEE/IEC 29500 (tj. jest to opcja zapisywania tylko do eksportu dla dokumentu WordprocessingML).&lt;p/&gt;Uzasadnienie: To ustawienie jest zwykle używane do wyodrębniania niestandardowych znaczników XML z dokumentu WordprocessingML w celu dalszego przetwarzania przez aplikacje obsługujące XML.</t>
+  </si>
+  <si>
+    <t>Specifies that applications shall track revisions made to the WordprocessingML document. Revisions are changes to a WordprocessingML document which are recorded such that they can be viewed independently, accepted or removed, and reverted if needed. When revisions are tracked, the resulting WordprocessingML markup in the Revisions subclause of this document describes the necessary syntax.</t>
+  </si>
+  <si>
+    <t>Określa, że aplikacje powinny śledzić poprawki wprowadzone w dokumencie WordprocessingML. Poprawki to zmiany w dokumencie WordprocessingML, które są rejestrowane w taki sposób, że można je przeglądać niezależnie, akceptować lub usuwać i w razie potrzeby przywracać. Gdy poprawki są śledzone, wynikowy znacznik WordprocessingML w podpunkcie Wersje tego dokumentu opisuje niezbędną składnię.</t>
+  </si>
+  <si>
+    <t>Specifies whether the fields contained in this document should automatically have their field result recalculated from the field codes when this document is opened by an application which supports field calculations. &lt;p/&gt;Note: Some fields are always recalculated (e.g. the page numbering), therefore this element only affects fields which are typically not automatically recalculated on opening the document. Also note that this setting must not supersede any document protection (§17.15.1.29) or write protection (§17.15.1.93) settings.</t>
+  </si>
+  <si>
+    <t>Określa, czy wyniki pól zawartych w tym dokumencie powinny być automatycznie przeliczane na podstawie kodów pól, gdy ten dokument jest otwierany przez aplikację obsługującą obliczenia pól. &lt;p/&gt;Uwaga: Niektóre pola są zawsze przeliczane (np. numeracja stron), dlatego ten element dotyczy tylko pól, które zazwyczaj nie są automatycznie przeliczane po otwarciu dokumentu. Należy również pamiętać, że to ustawienie nie może zastępować żadnych ustawień ochrony dokumentów (§17.15.1.29) ani ochrony przed zapisem (§17.15.1.93).</t>
+  </si>
+  <si>
+    <t>Specifies the write protection settings which have been applied to a WordprocessingML document. Write protection refers to a mode in which the document's contents cannot be edited, and the document cannot be resaved using the same file name. This setting is independent of the documentProtection (§17.15.1.29) element, but like document protection, this setting is not intended as a security feature and can be ignored.&lt;p/&gt;When present, the write protection shall result in one of two write protection behaviors:&lt;p/&gt;• If the password attribute is present, or both attributes are omitted, then the application shall prompt for a password to exit write protection. If the supplied password does not match the hash value in this attribute, then write protection shall be enabled.&lt;p/&gt;• If only the recommended attribute is present, the application should provide user interface recommending that the user open this document in write protected state. If the user chooses to do so, the document shall be write protected, otherwise, it shall be opened fully editable.</t>
+  </si>
+  <si>
+    <t>Określa ustawienia ochrony przed zapisem, które zostały zastosowane do dokumentu WordprocessingML. Ochrona przed zapisem odnosi się do trybu, w którym nie można edytować zawartości dokumentu, a dokument nie może być ponownie zapisany przy użyciu tej samej nazwy pliku. To ustawienie jest niezależne od elementu documentProtection (§17.15.1.29), ale podobnie jak w przypadku ochrony dokumentów, to ustawienie nie jest przeznaczone jako funkcja zabezpieczeń i można je zignorować.&lt;p/&gt;Jeśli jest obecna, ochrona przed zapisem powinna powodować jedno z dwóch zachowań ochrony przed zapisem:&lt;p/&gt;• Jeśli atrybut hasła jest obecny lub oba atrybuty są pominięte, aplikacja poprosi o podanie hasła, aby zakończyć ochronę przed zapisem. Jeśli podane hasło nie jest zgodne z wartością skrótu w tym atrybucie, należy włączyć ochronę przed zapisem.&lt;p/&gt;• Jeśli obecny jest tylko zalecany atrybut, aplikacja powinna udostępnić interfejs użytkownika zalecający użytkownikowi otwarcie tego dokumentu w stanie chronionym przed zapisem. Jeśli użytkownik zdecyduje się to zrobić, dokument będzie chroniony przed zapisem, w przeciwnym razie zostanie otwarty w pełni edytowalny.</t>
+  </si>
+  <si>
+    <t>Specifies the magnification level which should be applied to a document when it is displayed by an application. The zoom level is specified with the use of two attributes stored on this element:&lt;p/&gt;• val, which stores the type of zoom applied to the document&lt;p/&gt;• percent, which stores the zoom percentage to be used when rendering the document&lt;p/&gt;If both attributes are present, then the percent attribute shall be treated as a 'cached' value and only used when the value none is specified for the val attribute.&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>Określa poziom powiększenia, który powinien być stosowany do dokumentu po jego wyświetleniu przez aplikację. Poziom powiększenia jest określany za pomocą dwóch atrybutów zapisanych na tym elemencie:&lt;p/&gt;• val, w którym przechowywane są informacje o typie powiększenia zastosowanym do dokumentu&lt;p/&gt;• procent, w którym przechowywana jest wartość procentowa powiększenia, która ma być używana podczas renderowania dokumentu&lt;p/&gt;Jeśli oba atrybuty są obecne, atrybut percent jest traktowany jako wartość §zapisana w pamięci podręcznej§ i używany tylko wtedy, gdy dla atrybutu val określono wartość non.&lt;p/&gt;</t>
+  </si>
+  <si>
+    <t>Resources\SettingsDescriptions</t>
+  </si>
+  <si>
+    <t>Resources\SettingsTooltips</t>
+  </si>
+  <si>
+    <t>Resources\SettingsCaptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3468,13 +2184,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -3553,19 +2262,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3905,16 +2614,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G205" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="32.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="78.28515625" style="3" customWidth="1"/>
@@ -3949,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -3960,9 +2668,6 @@
       <c r="E2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
@@ -3972,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -3989,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -4006,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -4023,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4040,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -4057,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4074,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -4091,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -4108,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -4125,7 +2830,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -4142,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
@@ -4159,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
@@ -4176,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -4193,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -4210,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
@@ -4227,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -4244,7 +2949,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -4261,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -4278,7 +2983,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>30</v>
@@ -4295,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -4312,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>32</v>
@@ -4329,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
@@ -4346,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>34</v>
@@ -4363,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
@@ -4380,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -4397,7 +3102,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
@@ -4414,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -4431,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>39</v>
@@ -4448,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -4465,7 +3170,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -4482,7 +3187,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>41</v>
@@ -4499,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
@@ -4516,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>43</v>
@@ -4533,7 +3238,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -4550,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -4567,7 +3272,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>46</v>
@@ -4584,7 +3289,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -4601,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>48</v>
@@ -4618,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -4635,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>50</v>
@@ -4652,16 +3357,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>52</v>
@@ -4686,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>53</v>
@@ -4695,7 +3400,7 @@
         <v>151</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>300</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -4720,16 +3425,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>301</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4737,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -4754,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>57</v>
@@ -4771,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -4788,7 +3493,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>59</v>
@@ -4797,7 +3502,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>295</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4805,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>60</v>
@@ -4822,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -4831,7 +3536,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4839,7 +3544,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>62</v>
@@ -4856,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>63</v>
@@ -4873,7 +3578,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>64</v>
@@ -4882,7 +3587,7 @@
         <v>161</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -4907,7 +3612,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>66</v>
@@ -4924,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>67</v>
@@ -4941,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>68</v>
@@ -4958,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>69</v>
@@ -4975,7 +3680,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -4992,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -5009,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>72</v>
@@ -5026,7 +3731,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>73</v>
@@ -5043,7 +3748,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>74</v>
@@ -5060,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
@@ -5077,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>76</v>
@@ -5094,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
@@ -5111,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>78</v>
@@ -5128,7 +3833,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>79</v>
@@ -5145,7 +3850,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>80</v>
@@ -5162,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>81</v>
@@ -5171,7 +3876,7 @@
         <v>177</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5179,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>82</v>
@@ -5196,7 +3901,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>83</v>
@@ -5213,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>84</v>
@@ -5230,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>85</v>
@@ -5247,7 +3952,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>86</v>
@@ -5264,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>87</v>
@@ -5281,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -5298,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>89</v>
@@ -5315,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>90</v>
@@ -5332,7 +4037,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>91</v>
@@ -5349,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>92</v>
@@ -5366,16 +4071,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>94</v>
@@ -5392,7 +4097,7 @@
         <v>188</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>711</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5400,7 +4105,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>95</v>
@@ -5417,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>96</v>
@@ -5434,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
@@ -5451,16 +4156,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>99</v>
@@ -5485,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>100</v>
@@ -5502,7 +4207,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>101</v>
@@ -5519,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>102</v>
@@ -5536,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>103</v>
@@ -5553,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>104</v>
@@ -5570,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>105</v>
@@ -5587,7 +4292,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>106</v>
@@ -5604,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>107</v>
@@ -5613,7 +4318,7 @@
         <v>200</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5621,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -5638,16 +4343,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>110</v>
@@ -5672,7 +4377,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>111</v>
@@ -5684,12 +4389,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>312</v>
+        <v>711</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>112</v>
@@ -5701,3509 +4406,3509 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E105" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E106" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E107" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E108" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E109" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E110" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E111" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E112" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E113" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E114" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E115" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E116" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="E117" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E118" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E119" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E120" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E121" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E122" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E123" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E124" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E125" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E126" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E127" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E128" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E129" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E130" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E131" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E132" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E133" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E134" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E135" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E136" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E137" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E138" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E139" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E140" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E141" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E142" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E143" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E144" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E145" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E146" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E147" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E148" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E149" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E150" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E151" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E152" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E153" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="E154" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E155" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="E156" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="E157" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="E158" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E159" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E160" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E161" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="E162" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E163" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E164" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E165" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="E166" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E167" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E168" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E169" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E170" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E171" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E172" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E173" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E174" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E175" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E176" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="E177" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="E178" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E179" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E180" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E181" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E182" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E183" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="E184" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E185" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="E186" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E187" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E188" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E189" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="E190" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E191" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E192" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E193" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E194" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E195" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E196" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E197" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="E198" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E199" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E200" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E201" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="E202" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="E203" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E204" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="E205" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E208" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E209" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E210" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E211" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E213" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E214" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E215" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E216" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E218" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E219" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E220" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E221" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E222" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E222" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E223" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E224" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E224" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E225" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E225" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E226" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E226" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E227" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E228" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E229" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E229" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E230" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E231" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E231" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E232" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E232" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E233" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E233" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E234" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E234" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E235" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E235" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E236" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E236" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E237" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E237" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E239" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E239" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E240" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E241" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E241" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E242" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E242" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E243" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E243" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E244" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E244" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E245" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E245" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E246" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E246" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E247" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E247" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E248" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E248" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E249" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E249" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E250" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E250" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E251" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E251" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E252" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E252" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E253" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E253" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E254" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E254" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E255" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E255" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E256" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E257" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G257" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E258" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E259" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E259" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E260" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G260" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E260" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E261" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E261" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E262" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G262" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E262" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E263" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="G263" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E263" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E264" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G264" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E264" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E265" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G265" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E265" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E266" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G266" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E266" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E267" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G267" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E267" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E268" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G268" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E268" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E269" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G269" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E269" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E270" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G270" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E271" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G271" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E272" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G272" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E272" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E273" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G273" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E273" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E274" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G274" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E274" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E275" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G275" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E275" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E276" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="G276" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E276" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E277" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G277" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E277" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E278" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G278" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E278" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E279" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G279" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E279" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E280" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E281" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G281" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E281" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E282" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G282" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E282" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E283" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G283" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E283" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E284" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="G284" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E285" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G285" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E285" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E286" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E286" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E287" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G287" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E287" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E288" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="G288" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E288" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E289" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G289" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E289" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E290" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E290" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E291" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E291" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E292" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G292" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E292" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E293" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G293" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E293" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E294" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="G294" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E294" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E295" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G295" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E295" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E296" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G296" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E296" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E297" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E297" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E298" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G298" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E298" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E299" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G299" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E299" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E300" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G300" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E300" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E301" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G301" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E301" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E302" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G302" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E302" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E303" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G303" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E303" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E304" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G304" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E304" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E305" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="G305" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E305" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E306" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G306" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E306" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E307" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G307" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E307" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E308" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G308" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E308" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E309" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G309" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E309" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E310" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G310" s="7" t="s">
-        <v>615</v>
+      <c r="E310" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Qhta.OpenXmlTools/SettingsStrings.xlsx
+++ b/Qhta.OpenXmlTools/SettingsStrings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.OpenXmlTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580081D-5789-4323-9F63-2A03D90258DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94603051-BC29-4916-93BE-73A785F77DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5400" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="976">
   <si>
     <t>Project</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Identyfikator dokumentu</t>
   </si>
   <si>
-    <t>Ochrona dokumentów</t>
-  </si>
-  <si>
     <t>Typ dokumentu</t>
   </si>
   <si>
@@ -2226,13 +2223,751 @@
   </si>
   <si>
     <t>Nie uwzględniaj dok. podrzędnych w statystykach</t>
+  </si>
+  <si>
+    <t>AddBiDirectionalMarksWhenSavingTextFile</t>
+  </si>
+  <si>
+    <t>AddControlCharacters</t>
+  </si>
+  <si>
+    <t>AddHebDoubleQuote</t>
+  </si>
+  <si>
+    <t>AlertIfNotDefault</t>
+  </si>
+  <si>
+    <t>AllowAccentedUppercase</t>
+  </si>
+  <si>
+    <t>AllowClickAndTypeMouse</t>
+  </si>
+  <si>
+    <t>AllowCombinedAuxiliaryForms</t>
+  </si>
+  <si>
+    <t>AllowCompoundNounProcessing</t>
+  </si>
+  <si>
+    <t>AllowDragAndDrop</t>
+  </si>
+  <si>
+    <t>AllowOpenInDraftView</t>
+  </si>
+  <si>
+    <t>AllowPixelUnits</t>
+  </si>
+  <si>
+    <t>AllowReadingMode</t>
+  </si>
+  <si>
+    <t>AnimateScreenMovements</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>ApplyFarEastFontsToAscii</t>
+  </si>
+  <si>
+    <t>ArabicMode</t>
+  </si>
+  <si>
+    <t>ArabicNumeral</t>
+  </si>
+  <si>
+    <t>AutoCreateNewDrawings</t>
+  </si>
+  <si>
+    <t>AutoFormatApplyBulletedLists</t>
+  </si>
+  <si>
+    <t>AutoFormatApplyFirstIndents</t>
+  </si>
+  <si>
+    <t>AutoFormatApplyHeadings</t>
+  </si>
+  <si>
+    <t>AutoFormatApplyLists</t>
+  </si>
+  <si>
+    <t>AutoFormatApplyOtherParas</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyBorders</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyBulletedLists</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyClosings</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyDates</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyFirstIndents</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyHeadings</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyNumberedLists</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeApplyTables</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeAutoLetterWizard</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeDefineStyles</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeDeleteAutoSpaces</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeFormatListItemBeginning</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeInsertClosings</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeInsertOvers</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeMatchParentheses</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceFarEastDashes</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceFractions</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceHyperlinks</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceOrdinals</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplacePlainTextEmphasis</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceQuotes</t>
+  </si>
+  <si>
+    <t>AutoFormatAsYouTypeReplaceSymbols</t>
+  </si>
+  <si>
+    <t>AutoFormatDeleteAutoSpaces</t>
+  </si>
+  <si>
+    <t>AutoFormatMatchParentheses</t>
+  </si>
+  <si>
+    <t>AutoFormatPlainTextWordMail</t>
+  </si>
+  <si>
+    <t>AutoFormatPreserveStyles</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceFarEastDashes</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceFractions</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceHyperlinks</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceOrdinals</t>
+  </si>
+  <si>
+    <t>AutoFormatReplacePlainTextEmphasis</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceQuotes</t>
+  </si>
+  <si>
+    <t>AutoFormatReplaceSymbols</t>
+  </si>
+  <si>
+    <t>AutoKeyboardSwitching</t>
+  </si>
+  <si>
+    <t>AutoWordSelection</t>
+  </si>
+  <si>
+    <t>BackgroundSave</t>
+  </si>
+  <si>
+    <t>BibliographySort</t>
+  </si>
+  <si>
+    <t>BibliographyStyle</t>
+  </si>
+  <si>
+    <t>BrazilReform</t>
+  </si>
+  <si>
+    <t>ButtonFieldClicks</t>
+  </si>
+  <si>
+    <t>CheckGrammarAsYouType</t>
+  </si>
+  <si>
+    <t>CheckGrammarWithSpelling</t>
+  </si>
+  <si>
+    <t>CheckHangulEndings</t>
+  </si>
+  <si>
+    <t>CheckSpellingAsYouType</t>
+  </si>
+  <si>
+    <t>CloudSignInOption</t>
+  </si>
+  <si>
+    <t>CommentsColor</t>
+  </si>
+  <si>
+    <t>ConfirmConversions</t>
+  </si>
+  <si>
+    <t>ContextualSpeller</t>
+  </si>
+  <si>
+    <t>ConvertHighAnsiToFarEast</t>
+  </si>
+  <si>
+    <t>CreateBackup</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>CtrlClickHyperlinkToOpen</t>
+  </si>
+  <si>
+    <t>CursorMovement</t>
+  </si>
+  <si>
+    <t>DefaultBorderColor</t>
+  </si>
+  <si>
+    <t>DefaultBorderColorIndex</t>
+  </si>
+  <si>
+    <t>DefaultBorderLineStyle</t>
+  </si>
+  <si>
+    <t>DefaultBorderLineWidth</t>
+  </si>
+  <si>
+    <t>DefaultEPostageApp</t>
+  </si>
+  <si>
+    <t>DefaultFilePath</t>
+  </si>
+  <si>
+    <t>DefaultHighlightColorIndex</t>
+  </si>
+  <si>
+    <t>DefaultOpenFormat</t>
+  </si>
+  <si>
+    <t>DefaultTextEncoding</t>
+  </si>
+  <si>
+    <t>DefaultTray</t>
+  </si>
+  <si>
+    <t>DefaultTrayID</t>
+  </si>
+  <si>
+    <t>DeletedCellColor</t>
+  </si>
+  <si>
+    <t>DeletedTextColor</t>
+  </si>
+  <si>
+    <t>DeletedTextMark</t>
+  </si>
+  <si>
+    <t>DiacriticColorVal</t>
+  </si>
+  <si>
+    <t>DisableFeaturesbyDefault</t>
+  </si>
+  <si>
+    <t>DisableFeaturesIntroducedAfterbyDefault</t>
+  </si>
+  <si>
+    <t>DisplayAlignmentGuides</t>
+  </si>
+  <si>
+    <t>DisplayGridLines</t>
+  </si>
+  <si>
+    <t>DisplayPasteOptions</t>
+  </si>
+  <si>
+    <t>DocumentViewDirection</t>
+  </si>
+  <si>
+    <t>DoNotPromptForConvert</t>
+  </si>
+  <si>
+    <t>EnableHangulHanjaRecentOrdering</t>
+  </si>
+  <si>
+    <t>EnableLegacyIMEMode</t>
+  </si>
+  <si>
+    <t>EnableLiveDrag</t>
+  </si>
+  <si>
+    <t>EnableLivePreview</t>
+  </si>
+  <si>
+    <t>EnableMisusedWordsDictionary</t>
+  </si>
+  <si>
+    <t>EnableProofingToolsAdvertisement</t>
+  </si>
+  <si>
+    <t>EnableSound</t>
+  </si>
+  <si>
+    <t>EnvelopeFeederInstalled</t>
+  </si>
+  <si>
+    <t>ExpandHeadingsOnOpen</t>
+  </si>
+  <si>
+    <t>FormatScanning</t>
+  </si>
+  <si>
+    <t>FrenchReform</t>
+  </si>
+  <si>
+    <t>GridDistanceHorizontal</t>
+  </si>
+  <si>
+    <t>GridDistanceVertical</t>
+  </si>
+  <si>
+    <t>GridOriginHorizontal</t>
+  </si>
+  <si>
+    <t>GridOriginVertical</t>
+  </si>
+  <si>
+    <t>HangulHanjaFastConversion</t>
+  </si>
+  <si>
+    <t>HebrewMode</t>
+  </si>
+  <si>
+    <t>IgnoreInternetAndFileAddresses</t>
+  </si>
+  <si>
+    <t>IgnoreMixedDigits</t>
+  </si>
+  <si>
+    <t>IgnoreUppercase</t>
+  </si>
+  <si>
+    <t>IMEAutomaticControl</t>
+  </si>
+  <si>
+    <t>InlineConversion</t>
+  </si>
+  <si>
+    <t>InsertedCellColor</t>
+  </si>
+  <si>
+    <t>InsertedTextColor</t>
+  </si>
+  <si>
+    <t>InsertedTextMark</t>
+  </si>
+  <si>
+    <t>INSKeyForOvertype</t>
+  </si>
+  <si>
+    <t>INSKeyForPaste</t>
+  </si>
+  <si>
+    <t>InterpretHighAnsi</t>
+  </si>
+  <si>
+    <t>LocalNetworkFile</t>
+  </si>
+  <si>
+    <t>MapPaperSize</t>
+  </si>
+  <si>
+    <t>MarginAlignmentGuides</t>
+  </si>
+  <si>
+    <t>MatchFuzzyAY</t>
+  </si>
+  <si>
+    <t>MatchFuzzyBV</t>
+  </si>
+  <si>
+    <t>MatchFuzzyByte</t>
+  </si>
+  <si>
+    <t>MatchFuzzyCase</t>
+  </si>
+  <si>
+    <t>MatchFuzzyDash</t>
+  </si>
+  <si>
+    <t>MatchFuzzyDZ</t>
+  </si>
+  <si>
+    <t>MatchFuzzyHF</t>
+  </si>
+  <si>
+    <t>MatchFuzzyHiragana</t>
+  </si>
+  <si>
+    <t>MatchFuzzyIterationMark</t>
+  </si>
+  <si>
+    <t>MatchFuzzyKanji</t>
+  </si>
+  <si>
+    <t>MatchFuzzyKiKu</t>
+  </si>
+  <si>
+    <t>MatchFuzzyOldKana</t>
+  </si>
+  <si>
+    <t>MatchFuzzyProlongedSoundMark</t>
+  </si>
+  <si>
+    <t>MatchFuzzyPunctuation</t>
+  </si>
+  <si>
+    <t>MatchFuzzySmallKana</t>
+  </si>
+  <si>
+    <t>MatchFuzzySpace</t>
+  </si>
+  <si>
+    <t>MatchFuzzyTC</t>
+  </si>
+  <si>
+    <t>MatchFuzzyZJ</t>
+  </si>
+  <si>
+    <t>MeasurementUnit</t>
+  </si>
+  <si>
+    <t>MergedCellColor</t>
+  </si>
+  <si>
+    <t>MonthNames</t>
+  </si>
+  <si>
+    <t>MoveFromTextColor</t>
+  </si>
+  <si>
+    <t>MoveFromTextMark</t>
+  </si>
+  <si>
+    <t>MoveToTextColor</t>
+  </si>
+  <si>
+    <t>MoveToTextMark</t>
+  </si>
+  <si>
+    <t>MultipleWordConversionsMode</t>
+  </si>
+  <si>
+    <t>OMathAutoBuildUp</t>
+  </si>
+  <si>
+    <t>OMathCopyLF</t>
+  </si>
+  <si>
+    <t>OptimizeForWord97byDefault</t>
+  </si>
+  <si>
+    <t>Overtype</t>
+  </si>
+  <si>
+    <t>PageAlignmentGuides</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>ParagraphAlignmentGuides</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>PasteAdjustParagraphSpacing</t>
+  </si>
+  <si>
+    <t>PasteAdjustTableFormatting</t>
+  </si>
+  <si>
+    <t>PasteAdjustWordSpacing</t>
+  </si>
+  <si>
+    <t>PasteFormatBetweenDocuments</t>
+  </si>
+  <si>
+    <t>PasteFormatBetweenStyledDocuments</t>
+  </si>
+  <si>
+    <t>PasteFormatFromExternalSource</t>
+  </si>
+  <si>
+    <t>PasteFormatWithinDocument</t>
+  </si>
+  <si>
+    <t>PasteMergeFromPPT</t>
+  </si>
+  <si>
+    <t>PasteMergeFromXL</t>
+  </si>
+  <si>
+    <t>PasteMergeLists</t>
+  </si>
+  <si>
+    <t>PasteOptionKeepBulletsAndNumbers</t>
+  </si>
+  <si>
+    <t>PasteSmartCutPaste</t>
+  </si>
+  <si>
+    <t>PasteSmartStyleBehavior</t>
+  </si>
+  <si>
+    <t>PictureEditor</t>
+  </si>
+  <si>
+    <t>PictureWrapType</t>
+  </si>
+  <si>
+    <t>PortugalReform</t>
+  </si>
+  <si>
+    <t>PrecisePositioning</t>
+  </si>
+  <si>
+    <t>PreferCloudSaveLocations</t>
+  </si>
+  <si>
+    <t>PrintBackground</t>
+  </si>
+  <si>
+    <t>PrintBackgrounds</t>
+  </si>
+  <si>
+    <t>PrintComments</t>
+  </si>
+  <si>
+    <t>PrintDraft</t>
+  </si>
+  <si>
+    <t>PrintDrawingObjects</t>
+  </si>
+  <si>
+    <t>PrintEvenPagesInAscendingOrder</t>
+  </si>
+  <si>
+    <t>PrintFieldCodes</t>
+  </si>
+  <si>
+    <t>PrintHiddenText</t>
+  </si>
+  <si>
+    <t>PrintOddPagesInAscendingOrder</t>
+  </si>
+  <si>
+    <t>PrintProperties</t>
+  </si>
+  <si>
+    <t>PrintReverse</t>
+  </si>
+  <si>
+    <t>PrintXMLTag</t>
+  </si>
+  <si>
+    <t>PromptUpdateStyle</t>
+  </si>
+  <si>
+    <t>RepeatWord</t>
+  </si>
+  <si>
+    <t>ReplaceSelection</t>
+  </si>
+  <si>
+    <t>RevisedLinesColor</t>
+  </si>
+  <si>
+    <t>RevisedLinesMark</t>
+  </si>
+  <si>
+    <t>RevisedPropertiesColor</t>
+  </si>
+  <si>
+    <t>RevisedPropertiesMark</t>
+  </si>
+  <si>
+    <t>RevisionsBalloonPrintOrientation</t>
+  </si>
+  <si>
+    <t>RTFInClipboard</t>
+  </si>
+  <si>
+    <t>SaveInterval</t>
+  </si>
+  <si>
+    <t>SaveNormalPrompt</t>
+  </si>
+  <si>
+    <t>SavePropertiesPrompt</t>
+  </si>
+  <si>
+    <t>SendMailAttach</t>
+  </si>
+  <si>
+    <t>SequenceCheck</t>
+  </si>
+  <si>
+    <t>ShortMenuNames</t>
+  </si>
+  <si>
+    <t>ShowControlCharacters</t>
+  </si>
+  <si>
+    <t>ShowDevTools</t>
+  </si>
+  <si>
+    <t>ShowDiacritics</t>
+  </si>
+  <si>
+    <t>ShowFormatError</t>
+  </si>
+  <si>
+    <t>ShowMarkupOpenSave</t>
+  </si>
+  <si>
+    <t>ShowMenuFloaties</t>
+  </si>
+  <si>
+    <t>ShowReadabilityStatistics</t>
+  </si>
+  <si>
+    <t>ShowSelectionFloaties</t>
+  </si>
+  <si>
+    <t>SmartCursoring</t>
+  </si>
+  <si>
+    <t>SmartCutPaste</t>
+  </si>
+  <si>
+    <t>SmartParaSelection</t>
+  </si>
+  <si>
+    <t>SnapToGrid</t>
+  </si>
+  <si>
+    <t>SnapToShapes</t>
+  </si>
+  <si>
+    <t>SpanishMode</t>
+  </si>
+  <si>
+    <t>SplitCellColor</t>
+  </si>
+  <si>
+    <t>StoreRSIDOnSave</t>
+  </si>
+  <si>
+    <t>StrictFinalYaa</t>
+  </si>
+  <si>
+    <t>StrictInitialAlefHamza</t>
+  </si>
+  <si>
+    <t>StrictRussianE</t>
+  </si>
+  <si>
+    <t>StrictTaaMarboota</t>
+  </si>
+  <si>
+    <t>SuggestFromMainDictionaryOnly</t>
+  </si>
+  <si>
+    <t>SuggestSpellingCorrections</t>
+  </si>
+  <si>
+    <t>TabIndentKey</t>
+  </si>
+  <si>
+    <t>TypeNReplace</t>
+  </si>
+  <si>
+    <t>UpdateFieldsAtPrint</t>
+  </si>
+  <si>
+    <t>UpdateFieldsWithTrackedChangesAtPrint</t>
+  </si>
+  <si>
+    <t>UpdateLinksAtOpen</t>
+  </si>
+  <si>
+    <t>UpdateLinksAtPrint</t>
+  </si>
+  <si>
+    <t>UpdateStyleListBehavior</t>
+  </si>
+  <si>
+    <t>UseCharacterUnit</t>
+  </si>
+  <si>
+    <t>UseDiffDiacColor</t>
+  </si>
+  <si>
+    <t>UseGermanSpellingReform</t>
+  </si>
+  <si>
+    <t>UseLocalUserInfo</t>
+  </si>
+  <si>
+    <t>UseNormalStyleForList</t>
+  </si>
+  <si>
+    <t>UseSubPixelPositioning</t>
+  </si>
+  <si>
+    <t>VisualSelection</t>
+  </si>
+  <si>
+    <t>WarnBeforeSavingPrintingSendingMarkup</t>
+  </si>
+  <si>
+    <t>Ochrona dokumentu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,6 +2985,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2278,45 +3021,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2324,13 +3068,18 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2663,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E399"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,10 +3424,12 @@
     <col min="3" max="3" width="40.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="66.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="78.28515625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="104.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2695,12 +3446,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -2711,13 +3462,16 @@
       <c r="E2" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -2728,13 +3482,16 @@
       <c r="E3" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -2745,13 +3502,16 @@
       <c r="E4" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
@@ -2762,13 +3522,16 @@
       <c r="E5" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -2779,13 +3542,16 @@
       <c r="E6" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -2796,13 +3562,16 @@
       <c r="E7" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>16</v>
@@ -2813,13 +3582,16 @@
       <c r="E8" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -2830,13 +3602,16 @@
       <c r="E9" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>18</v>
@@ -2847,13 +3622,16 @@
       <c r="E10" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
@@ -2862,15 +3640,18 @@
         <v>120</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -2879,15 +3660,18 @@
         <v>121</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>21</v>
@@ -2898,13 +3682,16 @@
       <c r="E13" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="14" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
@@ -2915,13 +3702,16 @@
       <c r="E14" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
@@ -2932,13 +3722,16 @@
       <c r="E15" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
@@ -2949,13 +3742,16 @@
       <c r="E16" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
@@ -2966,13 +3762,16 @@
       <c r="E17" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>26</v>
@@ -2981,15 +3780,18 @@
         <v>126</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
@@ -3000,13 +3802,16 @@
       <c r="E19" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
@@ -3017,13 +3822,16 @@
       <c r="E20" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>28</v>
@@ -3034,13 +3842,16 @@
       <c r="E21" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>29</v>
@@ -3051,13 +3862,16 @@
       <c r="E22" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>30</v>
@@ -3068,13 +3882,16 @@
       <c r="E23" s="8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>31</v>
@@ -3085,13 +3902,16 @@
       <c r="E24" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>32</v>
@@ -3102,13 +3922,16 @@
       <c r="E25" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>33</v>
@@ -3119,13 +3942,16 @@
       <c r="E26" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>34</v>
@@ -3136,30 +3962,36 @@
       <c r="E27" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="14" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>36</v>
@@ -3170,13 +4002,16 @@
       <c r="E29" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>37</v>
@@ -3187,13 +4022,16 @@
       <c r="E30" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>38</v>
@@ -3204,13 +4042,16 @@
       <c r="E31" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>8</v>
@@ -3219,15 +4060,18 @@
         <v>9</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>39</v>
@@ -3236,15 +4080,18 @@
         <v>138</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>40</v>
@@ -3253,15 +4100,18 @@
         <v>139</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>41</v>
@@ -3270,15 +4120,18 @@
         <v>140</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>42</v>
@@ -3287,15 +4140,18 @@
         <v>141</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>43</v>
@@ -3304,15 +4160,18 @@
         <v>142</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>44</v>
@@ -3321,15 +4180,18 @@
         <v>143</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>45</v>
@@ -3338,15 +4200,18 @@
         <v>144</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>46</v>
@@ -3355,15 +4220,18 @@
         <v>145</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>47</v>
@@ -3372,15 +4240,18 @@
         <v>146</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>48</v>
@@ -3389,32 +4260,38 @@
         <v>147</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>50</v>
@@ -3423,15 +4300,18 @@
         <v>148</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>51</v>
@@ -3440,15 +4320,18 @@
         <v>149</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>52</v>
@@ -3457,32 +4340,38 @@
         <v>150</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>54</v>
@@ -3491,15 +4380,18 @@
         <v>151</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>55</v>
@@ -3508,15 +4400,18 @@
         <v>152</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>56</v>
@@ -3525,15 +4420,18 @@
         <v>153</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>57</v>
@@ -3542,15 +4440,18 @@
         <v>154</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>58</v>
@@ -3559,15 +4460,18 @@
         <v>155</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>59</v>
@@ -3576,15 +4480,18 @@
         <v>156</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>60</v>
@@ -3593,15 +4500,18 @@
         <v>157</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>61</v>
@@ -3610,15 +4520,18 @@
         <v>158</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>62</v>
@@ -3627,15 +4540,18 @@
         <v>159</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>63</v>
@@ -3644,15 +4560,18 @@
         <v>160</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>64</v>
@@ -3661,15 +4580,18 @@
         <v>161</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>65</v>
@@ -3678,15 +4600,18 @@
         <v>162</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>66</v>
@@ -3695,15 +4620,18 @@
         <v>163</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
@@ -3712,15 +4640,18 @@
         <v>164</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>68</v>
@@ -3729,15 +4660,18 @@
         <v>165</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>69</v>
@@ -3746,15 +4680,18 @@
         <v>166</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>70</v>
@@ -3763,15 +4700,18 @@
         <v>6</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>71</v>
@@ -3780,15 +4720,18 @@
         <v>167</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>72</v>
@@ -3797,15 +4740,18 @@
         <v>168</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>73</v>
@@ -3814,15 +4760,18 @@
         <v>169</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>74</v>
@@ -3831,15 +4780,18 @@
         <v>170</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>75</v>
@@ -3848,15 +4800,18 @@
         <v>171</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>76</v>
@@ -3865,15 +4820,18 @@
         <v>172</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>77</v>
@@ -3882,15 +4840,18 @@
         <v>173</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>78</v>
@@ -3899,15 +4860,18 @@
         <v>174</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>79</v>
@@ -3916,15 +4880,18 @@
         <v>175</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>80</v>
@@ -3933,15 +4900,18 @@
         <v>176</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>81</v>
@@ -3950,15 +4920,18 @@
         <v>177</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>82</v>
@@ -3967,15 +4940,18 @@
         <v>178</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>83</v>
@@ -3984,15 +4960,18 @@
         <v>179</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>84</v>
@@ -4001,15 +4980,18 @@
         <v>180</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>85</v>
@@ -4018,15 +5000,18 @@
         <v>181</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>86</v>
@@ -4035,15 +5020,18 @@
         <v>86</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>87</v>
@@ -4052,15 +5040,18 @@
         <v>182</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>88</v>
@@ -4069,15 +5060,18 @@
         <v>183</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>89</v>
@@ -4086,15 +5080,18 @@
         <v>184</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>90</v>
@@ -4103,32 +5100,38 @@
         <v>185</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>92</v>
@@ -4137,15 +5140,18 @@
         <v>186</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>93</v>
@@ -4154,15 +5160,18 @@
         <v>187</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>94</v>
@@ -4171,15 +5180,18 @@
         <v>188</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>95</v>
@@ -4188,32 +5200,38 @@
         <v>189</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>97</v>
@@ -4222,15 +5240,18 @@
         <v>190</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>98</v>
@@ -4239,15 +5260,18 @@
         <v>191</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>99</v>
@@ -4256,15 +5280,18 @@
         <v>192</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>100</v>
@@ -4273,15 +5300,18 @@
         <v>193</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>101</v>
@@ -4290,15 +5320,18 @@
         <v>194</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>102</v>
@@ -4307,15 +5340,18 @@
         <v>195</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>103</v>
@@ -4324,15 +5360,18 @@
         <v>196</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>104</v>
@@ -4341,15 +5380,18 @@
         <v>197</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>105</v>
@@ -4358,15 +5400,18 @@
         <v>198</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>106</v>
@@ -4375,32 +5420,38 @@
         <v>199</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="14" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>108</v>
@@ -4409,15 +5460,18 @@
         <v>108</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>109</v>
@@ -4426,15 +5480,18 @@
         <v>200</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>110</v>
@@ -4443,151 +5500,178 @@
         <v>110</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
@@ -4598,404 +5682,476 @@
       <c r="E113" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>40</v>
@@ -5004,440 +6160,518 @@
         <v>139</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>66</v>
@@ -5446,83 +6680,98 @@
         <v>163</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>71</v>
@@ -5531,542 +6780,638 @@
         <v>167</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>103</v>
@@ -6075,100 +7420,118 @@
         <v>196</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="G203" s="14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>109</v>
@@ -6177,857 +7540,980 @@
         <v>200</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E208" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="E208" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="G208" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="G210" s="14" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E212" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="E212" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G212" s="14" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D213" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E213" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G213" s="14" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D214" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E214" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="E214" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G214" s="14" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D216" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E216" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="E216" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="G216" s="14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E217" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G217" s="14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D218" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E218" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="E218" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G218" s="14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D221" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E221" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="E221" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G221" s="14" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D222" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E222" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="E222" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G222" s="14" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E223" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="E223" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G223" s="14" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="G224" s="14" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="G225" s="14" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D229" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E229" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="E229" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G229" s="14" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D232" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="E232" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G232" s="14" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E238" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="E238" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G238" s="14" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D239" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E239" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="E239" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G239" s="14" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D240" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E240" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="E240" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G240" s="14" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G242" s="14" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D243" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E243" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="E243" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G243" s="14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="G244" s="14" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D245" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="E245" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G245" s="14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D246" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E246" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="E246" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G246" s="14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D248" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="E248" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D249" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="E249" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D251" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E251" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="E251" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D252" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E252" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="E252" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D253" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E253" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="E253" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D254" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E254" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="E254" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7035,16 +8521,16 @@
         <v>5</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -7052,16 +8538,16 @@
         <v>5</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D258" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E258" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7069,16 +8555,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -7086,16 +8572,16 @@
         <v>5</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D260" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E260" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="E260" s="8" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7103,16 +8589,16 @@
         <v>5</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -7120,16 +8606,16 @@
         <v>5</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D262" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7137,16 +8623,16 @@
         <v>5</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D263" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E263" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7154,16 +8640,16 @@
         <v>5</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7171,16 +8657,16 @@
         <v>5</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -7188,16 +8674,16 @@
         <v>5</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7205,16 +8691,16 @@
         <v>5</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D267" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E267" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7222,16 +8708,16 @@
         <v>5</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7239,16 +8725,16 @@
         <v>5</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D269" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -7256,16 +8742,16 @@
         <v>5</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D270" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E270" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7273,16 +8759,16 @@
         <v>5</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7290,16 +8776,16 @@
         <v>5</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7307,16 +8793,16 @@
         <v>5</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D273" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E273" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7324,16 +8810,16 @@
         <v>5</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D274" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -7341,16 +8827,16 @@
         <v>5</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D275" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E275" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7358,16 +8844,16 @@
         <v>5</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D276" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E276" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="E276" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7375,16 +8861,16 @@
         <v>5</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D277" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7392,16 +8878,16 @@
         <v>5</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D278" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E278" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7409,16 +8895,16 @@
         <v>5</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D279" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E279" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="E279" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7426,16 +8912,16 @@
         <v>5</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -7443,16 +8929,16 @@
         <v>5</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D281" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E281" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="E281" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="345" x14ac:dyDescent="0.25">
@@ -7460,16 +8946,16 @@
         <v>5</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D282" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E282" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="E282" s="8" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7477,16 +8963,16 @@
         <v>5</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7494,16 +8980,16 @@
         <v>5</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D284" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E284" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="E284" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7511,16 +8997,16 @@
         <v>5</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7528,16 +9014,16 @@
         <v>5</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7545,16 +9031,16 @@
         <v>5</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D287" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E287" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="E287" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -7562,16 +9048,16 @@
         <v>5</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D288" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E288" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="E288" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7579,16 +9065,16 @@
         <v>5</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7596,16 +9082,16 @@
         <v>5</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D290" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E290" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="E290" s="8" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7613,16 +9099,16 @@
         <v>5</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7630,16 +9116,16 @@
         <v>5</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D292" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E292" s="8" t="s">
         <v>673</v>
-      </c>
-      <c r="E292" s="8" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7647,16 +9133,16 @@
         <v>5</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7664,16 +9150,16 @@
         <v>5</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D294" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E294" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7681,16 +9167,16 @@
         <v>5</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7698,16 +9184,16 @@
         <v>5</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7715,16 +9201,16 @@
         <v>5</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7732,16 +9218,16 @@
         <v>5</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -7749,16 +9235,16 @@
         <v>5</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7766,16 +9252,16 @@
         <v>5</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7783,16 +9269,16 @@
         <v>5</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7800,16 +9286,16 @@
         <v>5</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D302" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E302" s="8" t="s">
         <v>726</v>
-      </c>
-      <c r="E302" s="8" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7817,16 +9303,16 @@
         <v>5</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7834,16 +9320,16 @@
         <v>5</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D304" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E304" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="E304" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7851,16 +9337,16 @@
         <v>5</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7868,16 +9354,16 @@
         <v>5</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D306" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E306" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="E306" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -7885,16 +9371,16 @@
         <v>5</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D307" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E307" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="E307" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7902,16 +9388,16 @@
         <v>5</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -7919,16 +9405,16 @@
         <v>5</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D309" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E309" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="E309" s="8" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -7936,16 +9422,16 @@
         <v>5</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D310" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="E310" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="E310" s="8" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7953,7 +9439,7 @@
         <v>5</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>7</v>
@@ -7970,16 +9456,16 @@
         <v>5</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7987,16 +9473,16 @@
         <v>5</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -8004,16 +9490,16 @@
         <v>5</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -8021,16 +9507,16 @@
         <v>5</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -8038,16 +9524,16 @@
         <v>5</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -8055,16 +9541,16 @@
         <v>5</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -8072,16 +9558,16 @@
         <v>5</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -8089,16 +9575,16 @@
         <v>5</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C319" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E319" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="E319" s="8" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8523,7 +10009,254 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A311:E319">
     <sortCondition ref="C311:C319"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.addbidirectionalmarkswhensavingtextfile" xr:uid="{BB6C2037-90FC-4856-988F-3841AF668338}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.addcontrolcharacters" xr:uid="{4E182FEB-72FA-4393-863D-A0419277007D}"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.addhebdoublequote" xr:uid="{C6C032B5-E867-463E-9D2E-8188B09A37E7}"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.alertifnotdefault" xr:uid="{0309C6FE-AF55-484A-9B2E-196D60ACBA6B}"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowaccenteduppercase" xr:uid="{9F59B6D8-416D-4FD7-881C-24AC756D0C67}"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowclickandtypemouse" xr:uid="{6BA20F18-7020-4CA3-9FC7-2B970BD3BF27}"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowcombinedauxiliaryforms" xr:uid="{A7FC594A-62DF-4B0A-A637-A8D57CA9D4D7}"/>
+    <hyperlink ref="G9" r:id="rId8" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowcompoundnounprocessing" xr:uid="{E51B5842-7546-4EEA-8C23-198133F94483}"/>
+    <hyperlink ref="G10" r:id="rId9" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowdraganddrop" xr:uid="{3A97CB0E-4B25-494D-BD6A-22AA121B50DC}"/>
+    <hyperlink ref="G11" r:id="rId10" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowopenindraftview" xr:uid="{8F9BE738-F57A-4D6E-9E85-1045F59A3C6A}"/>
+    <hyperlink ref="G12" r:id="rId11" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowpixelunits" xr:uid="{BA5D813C-36D1-4AA2-AEB5-F03895277ADD}"/>
+    <hyperlink ref="G13" r:id="rId12" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.allowreadingmode" xr:uid="{05F9A877-AA99-4E34-B3D6-B743DDA772C9}"/>
+    <hyperlink ref="G14" r:id="rId13" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.animatescreenmovements" xr:uid="{A1B84249-ED55-4845-83A7-AAD6AC59B1AC}"/>
+    <hyperlink ref="G15" r:id="rId14" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.application" xr:uid="{6895F47F-C0E4-4357-ADED-E018BC661FAA}"/>
+    <hyperlink ref="G16" r:id="rId15" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.applyfareastfontstoascii" xr:uid="{907887AA-6807-413D-90BE-46C06A3A96B6}"/>
+    <hyperlink ref="G17" r:id="rId16" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.arabicmode" xr:uid="{E8C1751C-D844-4B7B-9D8B-6AD0AFAFBDE1}"/>
+    <hyperlink ref="G18" r:id="rId17" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.arabicnumeral" xr:uid="{A3384CE5-79CE-40B6-9650-0194351DB73D}"/>
+    <hyperlink ref="G19" r:id="rId18" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autocreatenewdrawings" xr:uid="{F978374C-EBB0-4565-AAD6-9ECD5F4362CD}"/>
+    <hyperlink ref="G20" r:id="rId19" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatapplybulletedlists" xr:uid="{79DB6C41-9380-4AB9-8015-609097277F87}"/>
+    <hyperlink ref="G21" r:id="rId20" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatapplyfirstindents" xr:uid="{167E1366-16CA-45D5-B5B2-A6FF841A0021}"/>
+    <hyperlink ref="G22" r:id="rId21" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatapplyheadings" xr:uid="{E75A9399-8A66-4AE2-876F-6252AB5E8146}"/>
+    <hyperlink ref="G23" r:id="rId22" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatapplylists" xr:uid="{FA734CAF-6FB4-4FA9-917F-0DB597FBA402}"/>
+    <hyperlink ref="G24" r:id="rId23" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatapplyotherparas" xr:uid="{18A250B3-018E-4918-A46D-137CF4F39853}"/>
+    <hyperlink ref="G25" r:id="rId24" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplyborders" xr:uid="{3EF17D61-2A23-4FEC-9DF5-F939ED1B91F7}"/>
+    <hyperlink ref="G26" r:id="rId25" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplybulletedlists" xr:uid="{7A6111AE-1A7C-4F6F-BD4E-7299ADA4E604}"/>
+    <hyperlink ref="G27" r:id="rId26" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplyclosings" xr:uid="{82E29A85-3DE7-4537-8862-CD84E1B56889}"/>
+    <hyperlink ref="G28" r:id="rId27" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplydates" xr:uid="{1984F2A0-F5F9-42D1-8446-988819A3F260}"/>
+    <hyperlink ref="G29" r:id="rId28" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplyfirstindents" xr:uid="{15D2AEBF-D50C-4FB4-B81A-90F1136ACFA5}"/>
+    <hyperlink ref="G30" r:id="rId29" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplyheadings" xr:uid="{D109AAA5-73A4-4C4F-AC29-0D167BCE08B9}"/>
+    <hyperlink ref="G31" r:id="rId30" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplynumberedlists" xr:uid="{1A55DC4C-A051-415B-8D37-54BD0F7D02B5}"/>
+    <hyperlink ref="G32" r:id="rId31" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeapplytables" xr:uid="{4CFC7067-04FD-41D1-AA72-FAB72F1C4C8E}"/>
+    <hyperlink ref="G33" r:id="rId32" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeautoletterwizard" xr:uid="{F2BD89E0-7391-4592-AB26-D01199E9603F}"/>
+    <hyperlink ref="G34" r:id="rId33" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypedefinestyles" xr:uid="{EDC4951D-73C9-41B4-8ABA-075254DB4D00}"/>
+    <hyperlink ref="G35" r:id="rId34" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypedeleteautospaces" xr:uid="{FCAD7DFA-3157-409B-86A1-10D4C0091D44}"/>
+    <hyperlink ref="G36" r:id="rId35" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeformatlistitembeginning" xr:uid="{C0A581A2-E7B2-4706-BC17-9995CAB4A38E}"/>
+    <hyperlink ref="G37" r:id="rId36" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeinsertclosings" xr:uid="{504ADB98-FADE-4950-9368-4A3FA4514EEB}"/>
+    <hyperlink ref="G38" r:id="rId37" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypeinsertovers" xr:uid="{1C3571A7-0832-43E2-BB95-CB84E718A817}"/>
+    <hyperlink ref="G39" r:id="rId38" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypematchparentheses" xr:uid="{C03EF03C-2502-4DC5-A209-051A8D38B2A8}"/>
+    <hyperlink ref="G40" r:id="rId39" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplacefareastdashes" xr:uid="{D4594A45-1092-4447-AC6D-F87C0144F210}"/>
+    <hyperlink ref="G41" r:id="rId40" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplacefractions" xr:uid="{86F27BB9-AC5B-4CBB-8753-6BDA08995968}"/>
+    <hyperlink ref="G42" r:id="rId41" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplacehyperlinks" xr:uid="{3A7E7221-E020-4C19-8B37-9CF89FE97C59}"/>
+    <hyperlink ref="G43" r:id="rId42" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplaceordinals" xr:uid="{104A4C47-EB8B-4E4F-9164-CF2221EF71A9}"/>
+    <hyperlink ref="G44" r:id="rId43" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplaceplaintextemphasis" xr:uid="{EFE02465-22BC-474D-94E1-8015E846818E}"/>
+    <hyperlink ref="G45" r:id="rId44" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplacequotes" xr:uid="{1D44ABF6-5D20-4EC0-BD47-455B459686E1}"/>
+    <hyperlink ref="G46" r:id="rId45" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatasyoutypereplacesymbols" xr:uid="{28D4EC86-3C01-4B35-BF4F-11528B67CE82}"/>
+    <hyperlink ref="G47" r:id="rId46" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatdeleteautospaces" xr:uid="{6964452E-9D48-4F64-9E52-2AB0E3B6AF4D}"/>
+    <hyperlink ref="G48" r:id="rId47" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatmatchparentheses" xr:uid="{DB9521E8-BDEA-4140-87CD-2A8B03CC1235}"/>
+    <hyperlink ref="G49" r:id="rId48" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatplaintextwordmail" xr:uid="{EE95C687-DF11-413C-B8CC-8AB0CD48DC0C}"/>
+    <hyperlink ref="G50" r:id="rId49" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatpreservestyles" xr:uid="{A7AE551A-7AC7-43F5-904B-2A2A5C8183FD}"/>
+    <hyperlink ref="G51" r:id="rId50" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplacefareastdashes" xr:uid="{B41EED5C-9D14-49C9-8BB4-989BE0F861D1}"/>
+    <hyperlink ref="G52" r:id="rId51" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplacefractions" xr:uid="{0EAFF862-566A-4EE7-8037-4D3BF12A3B99}"/>
+    <hyperlink ref="G53" r:id="rId52" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplacehyperlinks" xr:uid="{DA362EC5-D7A2-4C8B-91FD-1BCFDA64B544}"/>
+    <hyperlink ref="G54" r:id="rId53" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplaceordinals" xr:uid="{BD8978A2-848A-4629-9D6C-EF7C29627950}"/>
+    <hyperlink ref="G55" r:id="rId54" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplaceplaintextemphasis" xr:uid="{4CCA3534-B3B2-481C-8B37-0B73B004552A}"/>
+    <hyperlink ref="G56" r:id="rId55" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplacequotes" xr:uid="{0062F652-FD2B-447C-AE5D-A585D0F91689}"/>
+    <hyperlink ref="G57" r:id="rId56" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autoformatreplacesymbols" xr:uid="{D9F30905-28A6-4F12-AD60-92F24CA8DCF1}"/>
+    <hyperlink ref="G58" r:id="rId57" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autokeyboardswitching" xr:uid="{4D4DDCE0-207B-4DB4-9495-0E8281E69C94}"/>
+    <hyperlink ref="G59" r:id="rId58" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.autowordselection" xr:uid="{9D7D5C79-5BDA-49CD-8DDE-385D9F2663A0}"/>
+    <hyperlink ref="G60" r:id="rId59" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.backgroundsave" xr:uid="{6FF8B9AA-8A9A-4310-B7B5-1A87F2A15558}"/>
+    <hyperlink ref="G61" r:id="rId60" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.bibliographysort" xr:uid="{6C870997-B094-4AD5-997D-5B19CBFC7A16}"/>
+    <hyperlink ref="G62" r:id="rId61" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.bibliographystyle" xr:uid="{3A24765E-C922-436B-8C4A-F432615CFB18}"/>
+    <hyperlink ref="G63" r:id="rId62" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.brazilreform" xr:uid="{67BFC0E6-47E7-441C-B065-5392DEA10EAF}"/>
+    <hyperlink ref="G64" r:id="rId63" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.buttonfieldclicks" xr:uid="{286B4618-77B7-47AB-8417-18F411542DB5}"/>
+    <hyperlink ref="G65" r:id="rId64" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.checkgrammarasyoutype" xr:uid="{65E6A815-3D48-48D0-8185-67E0AC2E9F46}"/>
+    <hyperlink ref="G66" r:id="rId65" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.checkgrammarwithspelling" xr:uid="{D7BD248C-DB14-44B7-9CBA-F2F07126DE89}"/>
+    <hyperlink ref="G67" r:id="rId66" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.checkhangulendings" xr:uid="{9495DFC5-2C5D-4E48-843A-083465039EA4}"/>
+    <hyperlink ref="G68" r:id="rId67" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.checkspellingasyoutype" xr:uid="{14C6B262-7C1F-4654-BDB8-6D369A9E24EC}"/>
+    <hyperlink ref="G69" r:id="rId68" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.cloudsigninoption" xr:uid="{E63DF00C-3825-4DD0-902E-4E71584D56FE}"/>
+    <hyperlink ref="G70" r:id="rId69" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.commentscolor" xr:uid="{34A7041B-AA1D-47BD-A3C8-29A16DFE0B07}"/>
+    <hyperlink ref="G71" r:id="rId70" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.confirmconversions" xr:uid="{82DC4D2D-7C90-434E-966D-54F5AC3F3083}"/>
+    <hyperlink ref="G72" r:id="rId71" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.contextualspeller" xr:uid="{7B387B49-2284-44ED-A485-800A2CE3BD35}"/>
+    <hyperlink ref="G73" r:id="rId72" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.converthighansitofareast" xr:uid="{00E4894A-E73C-4EFD-91BD-7AF3A9FBB423}"/>
+    <hyperlink ref="G74" r:id="rId73" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.createbackup" xr:uid="{418517E9-4015-4349-A868-29874CBE821E}"/>
+    <hyperlink ref="G75" r:id="rId74" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.creator" xr:uid="{4C08E0B4-A36A-46FD-8AFC-6A38018EE9E1}"/>
+    <hyperlink ref="G76" r:id="rId75" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.ctrlclickhyperlinktoopen" xr:uid="{D0329231-EFC2-4A80-961C-DAC0829B18C5}"/>
+    <hyperlink ref="G77" r:id="rId76" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.cursormovement" xr:uid="{F2CBC078-7760-424C-BB20-C429F4390045}"/>
+    <hyperlink ref="G78" r:id="rId77" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultbordercolor" xr:uid="{1C89DAD5-5E04-4301-BDE0-378D21D42BAC}"/>
+    <hyperlink ref="G79" r:id="rId78" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultbordercolorindex" xr:uid="{5F1D51AE-FC02-471C-80E5-A0CA3CCA1F3B}"/>
+    <hyperlink ref="G80" r:id="rId79" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultborderlinestyle" xr:uid="{0A6977B3-8445-4D41-9CC6-C6F9E28F9E3E}"/>
+    <hyperlink ref="G81" r:id="rId80" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultborderlinewidth" xr:uid="{059D40A8-E7B5-4EF4-B727-30F40D7CA111}"/>
+    <hyperlink ref="G82" r:id="rId81" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultepostageapp" xr:uid="{A55DA0EB-54D2-4795-AB5A-66A4E5509A6B}"/>
+    <hyperlink ref="G83" r:id="rId82" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultfilepath" xr:uid="{18A167D6-43F2-4443-A710-4177A4B115F3}"/>
+    <hyperlink ref="G84" r:id="rId83" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaulthighlightcolorindex" xr:uid="{8A9241E8-739C-4A67-8BCC-7D0282491457}"/>
+    <hyperlink ref="G85" r:id="rId84" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaultopenformat" xr:uid="{3EC11AFB-C3B8-4850-A6F6-085071765230}"/>
+    <hyperlink ref="G86" r:id="rId85" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaulttextencoding" xr:uid="{6955956B-33D2-4895-B206-7ECEF68D820E}"/>
+    <hyperlink ref="G87" r:id="rId86" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaulttray" xr:uid="{4E118AB8-06EB-4CC3-B384-FCDDECA54F32}"/>
+    <hyperlink ref="G88" r:id="rId87" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.defaulttrayid" xr:uid="{AB0DC288-A4CE-4B69-8262-60BA08206211}"/>
+    <hyperlink ref="G89" r:id="rId88" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.deletedcellcolor" xr:uid="{AAA9554F-004A-4266-AB53-F153F405FC94}"/>
+    <hyperlink ref="G90" r:id="rId89" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.deletedtextcolor" xr:uid="{2B5B4D7F-D0A6-4743-AB2B-5DB03012AEB8}"/>
+    <hyperlink ref="G91" r:id="rId90" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.deletedtextmark" xr:uid="{6A7300CD-74D1-48B7-9E14-7E0C59D93A2F}"/>
+    <hyperlink ref="G92" r:id="rId91" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.diacriticcolorval" xr:uid="{487D37E6-2F38-48AD-96F6-92F74B8E9843}"/>
+    <hyperlink ref="G93" r:id="rId92" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.disablefeaturesbydefault" xr:uid="{4C391361-FF16-4DB0-A49F-A23AC32467A3}"/>
+    <hyperlink ref="G94" r:id="rId93" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.disablefeaturesintroducedafterbydefault" xr:uid="{1A8EC6C7-E768-4E01-9BB2-C69E3A5E3414}"/>
+    <hyperlink ref="G95" r:id="rId94" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.displayalignmentguides" xr:uid="{2283E6D2-5226-4852-A96E-4E560000C10F}"/>
+    <hyperlink ref="G96" r:id="rId95" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.displaygridlines" xr:uid="{BFA31F6B-D1EC-46F7-BE2C-E47DDCEF0EE3}"/>
+    <hyperlink ref="G97" r:id="rId96" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.displaypasteoptions" xr:uid="{FF763B5B-DBC7-47CE-AAFE-42B7AAF6A3A7}"/>
+    <hyperlink ref="G98" r:id="rId97" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.documentviewdirection" xr:uid="{F8DDDF2C-9715-4972-87FF-D57882834492}"/>
+    <hyperlink ref="G99" r:id="rId98" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.donotpromptforconvert" xr:uid="{887C953F-F40C-4E54-93E1-B0DF05D9A0FE}"/>
+    <hyperlink ref="G100" r:id="rId99" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablehangulhanjarecentordering" xr:uid="{9969C141-8170-418E-AF0B-D89C811721ED}"/>
+    <hyperlink ref="G101" r:id="rId100" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablelegacyimemode" xr:uid="{A4E1E858-F076-4B56-8CC5-1DD5366B5FC3}"/>
+    <hyperlink ref="G102" r:id="rId101" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablelivedrag" xr:uid="{1EC21C66-229F-467D-82D4-840CFCD92455}"/>
+    <hyperlink ref="G103" r:id="rId102" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablelivepreview" xr:uid="{2CA0EA17-6359-4454-8D4D-56970F7E94EE}"/>
+    <hyperlink ref="G104" r:id="rId103" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablemisusedwordsdictionary" xr:uid="{415253F5-202B-44E3-B325-80C65CE7F921}"/>
+    <hyperlink ref="G105" r:id="rId104" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enableproofingtoolsadvertisement" xr:uid="{9929D3F0-A43C-40DB-AD21-43E2620051BB}"/>
+    <hyperlink ref="G106" r:id="rId105" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.enablesound" xr:uid="{A31B5B83-1DAF-4C8D-B38C-2F3780D3D45E}"/>
+    <hyperlink ref="G107" r:id="rId106" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.envelopefeederinstalled" xr:uid="{DCC9EC37-DC2D-4460-90B1-8AD1DAD6FEBE}"/>
+    <hyperlink ref="G108" r:id="rId107" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.expandheadingsonopen" xr:uid="{9600F329-1D38-47CC-BC3E-5461257813B2}"/>
+    <hyperlink ref="G109" r:id="rId108" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.formatscanning" xr:uid="{F75B6F61-F17A-4AC4-8EDF-ABB812F3D5E1}"/>
+    <hyperlink ref="G110" r:id="rId109" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.frenchreform" xr:uid="{9789944A-556E-46FB-A342-23748DE8EB52}"/>
+    <hyperlink ref="G111" r:id="rId110" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.griddistancehorizontal" xr:uid="{F2E668E2-9A96-4D07-A80F-3079AB86F92F}"/>
+    <hyperlink ref="G112" r:id="rId111" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.griddistancevertical" xr:uid="{40AE59E9-E320-4561-A152-CFA037306910}"/>
+    <hyperlink ref="G113" r:id="rId112" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.gridoriginhorizontal" xr:uid="{E9D55D7E-C96E-41FE-AF76-58F0B5486599}"/>
+    <hyperlink ref="G114" r:id="rId113" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.gridoriginvertical" xr:uid="{545E05AA-28FB-4C1F-AEEB-4AB698A69213}"/>
+    <hyperlink ref="G115" r:id="rId114" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.hangulhanjafastconversion" xr:uid="{C598584F-F0E3-4049-82AB-CEA6712A1CEF}"/>
+    <hyperlink ref="G116" r:id="rId115" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.hebrewmode" xr:uid="{6AD3532C-45A0-4AE9-BA9C-190C1E578771}"/>
+    <hyperlink ref="G117" r:id="rId116" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.ignoreinternetandfileaddresses" xr:uid="{2167D767-F765-462C-8732-1D154BC296E8}"/>
+    <hyperlink ref="G118" r:id="rId117" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.ignoremixeddigits" xr:uid="{7E5DE68D-A278-4D70-9B68-CF3A949811D1}"/>
+    <hyperlink ref="G119" r:id="rId118" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.ignoreuppercase" xr:uid="{74E6C2C7-E5EB-4A6B-AE4E-797905D0BDE8}"/>
+    <hyperlink ref="G120" r:id="rId119" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.imeautomaticcontrol" xr:uid="{F13BBFF2-4C3A-43C4-B915-DC87A23B44B2}"/>
+    <hyperlink ref="G121" r:id="rId120" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.inlineconversion" xr:uid="{1C6F2BAF-A193-4927-814D-95A8E50AFDDC}"/>
+    <hyperlink ref="G122" r:id="rId121" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.insertedcellcolor" xr:uid="{122CC710-C596-48E4-A02C-1761AB2B3431}"/>
+    <hyperlink ref="G123" r:id="rId122" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.insertedtextcolor" xr:uid="{736CBB1C-A91B-49C9-BF34-0D2B393F9702}"/>
+    <hyperlink ref="G124" r:id="rId123" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.insertedtextmark" xr:uid="{57FB775E-62E9-43BF-B67C-3FEC84647489}"/>
+    <hyperlink ref="G125" r:id="rId124" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.inskeyforovertype" xr:uid="{8AFFBE5E-3980-4DC9-AE03-E0D9400C77B8}"/>
+    <hyperlink ref="G126" r:id="rId125" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.inskeyforpaste" xr:uid="{CE71BDD1-A075-49E6-9B6A-04A3D74B7066}"/>
+    <hyperlink ref="G127" r:id="rId126" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.interprethighansi" xr:uid="{7333BE99-CCC8-48BD-846E-BCB3FE7BDF55}"/>
+    <hyperlink ref="G128" r:id="rId127" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.localnetworkfile" xr:uid="{10B80EC0-1374-4362-BD63-E7B990E1E02D}"/>
+    <hyperlink ref="G129" r:id="rId128" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.mappapersize" xr:uid="{1E6BC1B7-3E87-4CFC-AE72-316CE30C4B3A}"/>
+    <hyperlink ref="G130" r:id="rId129" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.marginalignmentguides" xr:uid="{FB60C936-FED4-4F07-BCAF-A3CA489165E6}"/>
+    <hyperlink ref="G131" r:id="rId130" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyay" xr:uid="{82B8A39C-D4E2-4D00-AE02-4DD262AD5F20}"/>
+    <hyperlink ref="G132" r:id="rId131" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzybv" xr:uid="{30FE415A-5F91-4F97-808A-40402CC1AE0D}"/>
+    <hyperlink ref="G133" r:id="rId132" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzybyte" xr:uid="{613E01EF-DE5C-4B39-9BF3-BB9935E29E35}"/>
+    <hyperlink ref="G134" r:id="rId133" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzycase" xr:uid="{F847FBE0-43E3-40D2-A8A0-DAC453C2A1AA}"/>
+    <hyperlink ref="G135" r:id="rId134" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzydash" xr:uid="{D269378F-A518-4127-A5E8-5CD038A91F62}"/>
+    <hyperlink ref="G136" r:id="rId135" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzydz" xr:uid="{5D27C259-F3CA-4D1F-8E37-7F2DF36B79BB}"/>
+    <hyperlink ref="G137" r:id="rId136" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyhf" xr:uid="{A99FF4BF-0F12-4A10-89D6-5D05B9A5E48F}"/>
+    <hyperlink ref="G138" r:id="rId137" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyhiragana" xr:uid="{6D12733A-83B1-4A01-BFCC-1A5F82B41A7A}"/>
+    <hyperlink ref="G139" r:id="rId138" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyiterationmark" xr:uid="{9C05B023-E839-4BE9-A4B2-3FB9821EF9BA}"/>
+    <hyperlink ref="G140" r:id="rId139" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzykanji" xr:uid="{AC17DC51-666E-44CD-B82A-70F1A5FDACAB}"/>
+    <hyperlink ref="G141" r:id="rId140" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzykiku" xr:uid="{22FF604D-66AA-47E7-819D-5EC24E819509}"/>
+    <hyperlink ref="G142" r:id="rId141" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyoldkana" xr:uid="{850C8DD0-2036-405F-AA00-011D30569370}"/>
+    <hyperlink ref="G143" r:id="rId142" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyprolongedsoundmark" xr:uid="{23BEC16A-ABF9-4616-9CC8-99E10134F3ED}"/>
+    <hyperlink ref="G144" r:id="rId143" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzypunctuation" xr:uid="{F0EC9E97-6BEB-487F-B77E-9E8A39A5D54F}"/>
+    <hyperlink ref="G145" r:id="rId144" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzysmallkana" xr:uid="{817343E4-34E1-46A3-BDE7-F8B7B0BF88BA}"/>
+    <hyperlink ref="G146" r:id="rId145" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyspace" xr:uid="{BB9C6DFF-8B29-414E-9A32-0CACB36D2F89}"/>
+    <hyperlink ref="G147" r:id="rId146" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzytc" xr:uid="{3BECB489-6258-40AF-BF6C-A5D551EE75FA}"/>
+    <hyperlink ref="G148" r:id="rId147" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.matchfuzzyzj" xr:uid="{B422677F-1FB6-4432-9A30-C882F8B0AA8C}"/>
+    <hyperlink ref="G149" r:id="rId148" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.measurementunit" xr:uid="{304E7688-5EC8-4C02-AC83-2DEA002547B9}"/>
+    <hyperlink ref="G150" r:id="rId149" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.mergedcellcolor" xr:uid="{E4365D17-A517-4044-8B75-2F46D806F3D7}"/>
+    <hyperlink ref="G151" r:id="rId150" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.monthnames" xr:uid="{3E6823AF-E2AA-4FA3-B2F2-C8413785E1AB}"/>
+    <hyperlink ref="G152" r:id="rId151" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.movefromtextcolor" xr:uid="{8F9655D6-80C8-45F7-870F-BAD0549912C6}"/>
+    <hyperlink ref="G153" r:id="rId152" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.movefromtextmark" xr:uid="{3EEA2FC7-826E-4734-B29C-5EDA722CB2DA}"/>
+    <hyperlink ref="G154" r:id="rId153" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.movetotextcolor" xr:uid="{DB5D8BC0-C5C0-4CC0-80CA-6478707227FF}"/>
+    <hyperlink ref="G155" r:id="rId154" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.movetotextmark" xr:uid="{0F490AEC-BD34-4855-A033-957546C8313B}"/>
+    <hyperlink ref="G156" r:id="rId155" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.multiplewordconversionsmode" xr:uid="{8A94525F-9280-4126-815D-15129FEB1C55}"/>
+    <hyperlink ref="G157" r:id="rId156" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.omathautobuildup" xr:uid="{A2830199-3646-4A8B-8541-D61F1A5C6869}"/>
+    <hyperlink ref="G158" r:id="rId157" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.omathcopylf" xr:uid="{EA0BBD00-E34A-4825-81FC-EA882A168F5C}"/>
+    <hyperlink ref="G159" r:id="rId158" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.optimizeforword97bydefault" xr:uid="{491114D7-55FB-4E76-BBF5-BB6A12451CF8}"/>
+    <hyperlink ref="G160" r:id="rId159" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.overtype" xr:uid="{AC974C02-6856-41E7-BDB7-820FE3656E8A}"/>
+    <hyperlink ref="G161" r:id="rId160" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pagealignmentguides" xr:uid="{3DF4DC11-0536-45E9-8E1E-093F290FD421}"/>
+    <hyperlink ref="G162" r:id="rId161" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pagination" xr:uid="{50DE2D03-2006-4362-A882-326D297F173B}"/>
+    <hyperlink ref="G163" r:id="rId162" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.paragraphalignmentguides" xr:uid="{53A1A888-B623-4FB6-A17C-13846AE7CF26}"/>
+    <hyperlink ref="G164" r:id="rId163" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.parent" xr:uid="{AA5A0A0A-6334-4ED7-A6CE-8434E9426BBD}"/>
+    <hyperlink ref="G165" r:id="rId164" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteadjustparagraphspacing" xr:uid="{5B6E8872-452F-48A1-96D7-4DF0CDF7BAEC}"/>
+    <hyperlink ref="G166" r:id="rId165" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteadjusttableformatting" xr:uid="{798F8A66-C78E-4F25-B8D0-757B4DA97CE3}"/>
+    <hyperlink ref="G167" r:id="rId166" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteadjustwordspacing" xr:uid="{941AF4FB-386D-445F-9772-443B1839A969}"/>
+    <hyperlink ref="G168" r:id="rId167" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteformatbetweendocuments" xr:uid="{C6095A01-A872-41D4-BFF1-B30A0DA066DD}"/>
+    <hyperlink ref="G169" r:id="rId168" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteformatbetweenstyleddocuments" xr:uid="{35ECD9C7-C71C-4182-8873-3CE3812B8B8C}"/>
+    <hyperlink ref="G170" r:id="rId169" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteformatfromexternalsource" xr:uid="{F3469D25-89F2-4DDB-9A2E-94D592125868}"/>
+    <hyperlink ref="G171" r:id="rId170" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteformatwithindocument" xr:uid="{F7584377-0146-4CE4-BF09-ADCAA70FFC0A}"/>
+    <hyperlink ref="G172" r:id="rId171" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pastemergefromppt" xr:uid="{58A30B27-CDF7-42D3-8600-4E509E21F0EB}"/>
+    <hyperlink ref="G173" r:id="rId172" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pastemergefromxl" xr:uid="{FABD3500-4A80-42F3-946B-B2B40A2A5EA8}"/>
+    <hyperlink ref="G174" r:id="rId173" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pastemergelists" xr:uid="{23E51646-6589-46A8-952C-A87A3ACF67E5}"/>
+    <hyperlink ref="G175" r:id="rId174" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pasteoptionkeepbulletsandnumbers" xr:uid="{21786BFC-BA8E-4661-9EF7-CCC2C4D8A1CE}"/>
+    <hyperlink ref="G176" r:id="rId175" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pastesmartcutpaste" xr:uid="{FC7E26D3-BAB3-4A7E-A25B-FC20FBD54E4A}"/>
+    <hyperlink ref="G177" r:id="rId176" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pastesmartstylebehavior" xr:uid="{1FA88242-6340-4DF4-9EC3-9AE430385442}"/>
+    <hyperlink ref="G178" r:id="rId177" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.pictureeditor" xr:uid="{512EF5DA-A7CE-415E-BE9E-DF5EEFB7CB12}"/>
+    <hyperlink ref="G179" r:id="rId178" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.picturewraptype" xr:uid="{90677523-AFC3-44D9-801F-04BB800AB081}"/>
+    <hyperlink ref="G180" r:id="rId179" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.portugalreform" xr:uid="{EEC16CF4-614B-4E2E-8E70-50ACC01F73FB}"/>
+    <hyperlink ref="G181" r:id="rId180" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.precisepositioning" xr:uid="{22A3D26D-B2F3-4959-BB5B-D55CC535D48A}"/>
+    <hyperlink ref="G182" r:id="rId181" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.prefercloudsavelocations" xr:uid="{8FD0DC00-4F59-454F-BFE2-5039E69DA958}"/>
+    <hyperlink ref="G183" r:id="rId182" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printbackground" xr:uid="{286290E4-29BB-40B4-B0FA-447D7A7EACA2}"/>
+    <hyperlink ref="G184" r:id="rId183" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printbackgrounds" xr:uid="{ADD90B10-62A3-457D-840D-39F2031D29C0}"/>
+    <hyperlink ref="G185" r:id="rId184" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printcomments" xr:uid="{3F2C070D-AAF8-4F59-A090-C7CF5C1F7C61}"/>
+    <hyperlink ref="G186" r:id="rId185" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printdraft" xr:uid="{DA5E3535-E0EB-4D26-9113-6C13C562FA58}"/>
+    <hyperlink ref="G187" r:id="rId186" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printdrawingobjects" xr:uid="{2B9C5AD2-610E-4421-9ED7-B54D8B50125D}"/>
+    <hyperlink ref="G188" r:id="rId187" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printevenpagesinascendingorder" xr:uid="{F60271B1-2AC8-48D2-9232-11814758F120}"/>
+    <hyperlink ref="G189" r:id="rId188" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printfieldcodes" xr:uid="{13155FC7-4AC8-4B37-9A5E-78C7B188A6A5}"/>
+    <hyperlink ref="G190" r:id="rId189" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printhiddentext" xr:uid="{475911D6-0CFF-4189-A898-106E6C41DB4E}"/>
+    <hyperlink ref="G191" r:id="rId190" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printoddpagesinascendingorder" xr:uid="{18FD6D72-796F-4BBC-AC36-D3554B549EBD}"/>
+    <hyperlink ref="G192" r:id="rId191" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printproperties" xr:uid="{D305929B-BC50-45E1-9C1F-CAA03A5595D5}"/>
+    <hyperlink ref="G193" r:id="rId192" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printreverse" xr:uid="{5E90F126-8527-4553-9C6B-21D98C057815}"/>
+    <hyperlink ref="G194" r:id="rId193" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.printxmltag" xr:uid="{83FEAC62-05F9-46FF-8D1A-5F3D71528DA2}"/>
+    <hyperlink ref="G195" r:id="rId194" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.promptupdatestyle" xr:uid="{6FD0D8CA-2032-46CF-A945-4F05EFFBA179}"/>
+    <hyperlink ref="G196" r:id="rId195" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.repeatword" xr:uid="{43CC4AC9-7530-4388-A53D-F09C43543280}"/>
+    <hyperlink ref="G197" r:id="rId196" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.replaceselection" xr:uid="{4222854A-DC33-44DE-ACCD-AF3AB979C7F1}"/>
+    <hyperlink ref="G198" r:id="rId197" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.revisedlinescolor" xr:uid="{51409E47-0D8F-44E4-9768-796AAE765F98}"/>
+    <hyperlink ref="G199" r:id="rId198" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.revisedlinesmark" xr:uid="{06E4D1F5-8ADE-4B6D-B4AF-CB57EDAC5E89}"/>
+    <hyperlink ref="G200" r:id="rId199" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.revisedpropertiescolor" xr:uid="{DBDC5F8C-2DE0-46A0-AAFC-737F99F3384B}"/>
+    <hyperlink ref="G201" r:id="rId200" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.revisedpropertiesmark" xr:uid="{1265D472-D2B9-4D47-8F7A-CBCEA58597DB}"/>
+    <hyperlink ref="G202" r:id="rId201" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.revisionsballoonprintorientation" xr:uid="{4903A2E9-441E-407E-A59C-8216F9031191}"/>
+    <hyperlink ref="G203" r:id="rId202" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.rtfinclipboard" xr:uid="{EC21E66D-FCB6-44DB-A338-C0782D5EAE85}"/>
+    <hyperlink ref="G204" r:id="rId203" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.saveinterval" xr:uid="{C7E121C5-1EBD-4EB5-8121-5DE324DEA855}"/>
+    <hyperlink ref="G205" r:id="rId204" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.savenormalprompt" xr:uid="{0723B7F4-A595-4B61-94CA-D50B6902DD13}"/>
+    <hyperlink ref="G206" r:id="rId205" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.savepropertiesprompt" xr:uid="{CD1AC425-4995-4A56-9884-6C0865B0B84F}"/>
+    <hyperlink ref="G207" r:id="rId206" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.sendmailattach" xr:uid="{6FEBA2E3-9C4F-491F-8EC9-3D09D1C0F37E}"/>
+    <hyperlink ref="G208" r:id="rId207" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.sequencecheck" xr:uid="{88DC7AAC-B8BB-473A-805A-1A50F097F474}"/>
+    <hyperlink ref="G209" r:id="rId208" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.options.shortmenunames" xr:uid="{1FAADB9C-6983-4AAA-84D5-F349157B453E}"/>
+    <hyperlink ref="G210" r:id="rId209" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showcontrolcharacters" xr:uid="{ACAC0F1F-C094-4B45-864C-E20351E9F3F3}"/>
+    <hyperlink ref="G211" r:id="rId210" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showdevtools" xr:uid="{499A4452-6842-45F1-84E9-72A29EACB64C}"/>
+    <hyperlink ref="G212" r:id="rId211" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showdiacritics" xr:uid="{87FE5EA1-F48A-4C2B-BC5E-2F9738405B1C}"/>
+    <hyperlink ref="G213" r:id="rId212" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showformaterror" xr:uid="{06F8095E-1BEA-4A21-9403-440C8D500200}"/>
+    <hyperlink ref="G214" r:id="rId213" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showmarkupopensave" xr:uid="{157A16CE-1932-43A8-88E1-1775EA7B6F9C}"/>
+    <hyperlink ref="G215" r:id="rId214" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showmenufloaties" xr:uid="{70A15244-A822-4183-A38E-0493327EBC82}"/>
+    <hyperlink ref="G216" r:id="rId215" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showreadabilitystatistics" xr:uid="{CC69DCB5-C2BE-4D7F-9995-DC29D838AA5D}"/>
+    <hyperlink ref="G217" r:id="rId216" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.showselectionfloaties" xr:uid="{BCD7F80D-DE66-4E45-B5D9-DD4A87AC1F2D}"/>
+    <hyperlink ref="G218" r:id="rId217" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.smartcursoring" xr:uid="{BB556A56-FECB-4D1B-8CA3-82D83B3C0D1D}"/>
+    <hyperlink ref="G219" r:id="rId218" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.smartcutpaste" xr:uid="{557342A4-DFC8-4D25-AF6C-334D6AA722B6}"/>
+    <hyperlink ref="G220" r:id="rId219" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.smartparaselection" xr:uid="{F04FD8DF-92EF-4F9E-B91B-ECB29BE2449D}"/>
+    <hyperlink ref="G221" r:id="rId220" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.snaptogrid" xr:uid="{040DAC22-4669-478B-B55C-B62C6F11D4D4}"/>
+    <hyperlink ref="G222" r:id="rId221" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.snaptoshapes" xr:uid="{6CDFA003-DC9B-4942-A394-0A651A305FF9}"/>
+    <hyperlink ref="G223" r:id="rId222" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.spanishmode" xr:uid="{7C05C552-A97A-4B16-940D-404A88405C96}"/>
+    <hyperlink ref="G224" r:id="rId223" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.splitcellcolor" xr:uid="{A9890FA1-0E60-4FBF-9F66-EFF2BB25E7AA}"/>
+    <hyperlink ref="G225" r:id="rId224" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.storersidonsave" xr:uid="{7F4E113B-9006-4F8D-BD3C-7BF3F46BF897}"/>
+    <hyperlink ref="G226" r:id="rId225" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.strictfinalyaa" xr:uid="{3648A1B6-1103-4954-A396-8A5958ADA74F}"/>
+    <hyperlink ref="G227" r:id="rId226" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.strictinitialalefhamza" xr:uid="{0744FDDF-71EE-4EDF-A671-705A34DCA68B}"/>
+    <hyperlink ref="G228" r:id="rId227" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.strictrussiane" xr:uid="{85B3D95F-3BA9-4AAF-B18C-0A4685E83F49}"/>
+    <hyperlink ref="G229" r:id="rId228" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.stricttaamarboota" xr:uid="{24722E8B-1236-41C8-AAA9-050F069E179F}"/>
+    <hyperlink ref="G230" r:id="rId229" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.suggestfrommaindictionaryonly" xr:uid="{C357B1A5-A5C7-414A-82F1-1673A2243EA2}"/>
+    <hyperlink ref="G231" r:id="rId230" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.suggestspellingcorrections" xr:uid="{E3FDCFB9-E4CC-4538-9E15-4280BB9ACD3D}"/>
+    <hyperlink ref="G232" r:id="rId231" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.tabindentkey" xr:uid="{3F4B781A-2C24-4B8F-A4E1-9AD8D21E62BD}"/>
+    <hyperlink ref="G233" r:id="rId232" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.typenreplace" xr:uid="{BD81B3A8-D1CB-4162-BFA8-5D6547FAB14B}"/>
+    <hyperlink ref="G234" r:id="rId233" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.updatefieldsatprint" xr:uid="{431848EC-85E3-49B6-B970-410F4A182458}"/>
+    <hyperlink ref="G235" r:id="rId234" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.updatefieldswithtrackedchangesatprint" xr:uid="{F7FA4871-8E9C-405C-B232-5A76A6648EB3}"/>
+    <hyperlink ref="G236" r:id="rId235" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.updatelinksatopen" xr:uid="{E241119B-D313-4265-B418-2E65CA297055}"/>
+    <hyperlink ref="G237" r:id="rId236" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.updatelinksatprint" xr:uid="{64C4445D-CC82-4E04-8D46-F5152581CF1F}"/>
+    <hyperlink ref="G238" r:id="rId237" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.updatestylelistbehavior" xr:uid="{6493730D-C194-4EC1-97F7-67F2DE9CC8A9}"/>
+    <hyperlink ref="G239" r:id="rId238" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.usecharacterunit" xr:uid="{11B4AB6D-0948-4F62-9A9C-F9FEF2E71B0C}"/>
+    <hyperlink ref="G240" r:id="rId239" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.usediffdiaccolor" xr:uid="{3B955D3B-06A5-45A1-B556-8A4F44AC3B6F}"/>
+    <hyperlink ref="G241" r:id="rId240" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.usegermanspellingreform" xr:uid="{602343DE-BAAB-4540-8F0C-06DAFD3AB81A}"/>
+    <hyperlink ref="G242" r:id="rId241" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.uselocaluserinfo" xr:uid="{9DCF3515-97F3-47BE-AB84-B66904A49E53}"/>
+    <hyperlink ref="G243" r:id="rId242" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.usenormalstyleforlist" xr:uid="{D475EC86-EEF1-4818-80A2-36861A32EDFA}"/>
+    <hyperlink ref="G244" r:id="rId243" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.usesubpixelpositioning" xr:uid="{572F0C17-6E23-492C-97ED-57F5790E75F4}"/>
+    <hyperlink ref="G245" r:id="rId244" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.visualselection" xr:uid="{E8CCAF53-C14B-42A6-A70B-DB6A91CBB7CE}"/>
+    <hyperlink ref="G246" r:id="rId245" display="https://learn.microsoft.com/en-us/office/vba/api/word.options.warnbeforesavingprintingsendingmarkup" xr:uid="{35A78E61-A550-4279-BF95-07F0FB9919EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId246"/>
 </worksheet>
 </file>